--- a/outputs/aht/cb_retention_aht_monthly.xlsx
+++ b/outputs/aht/cb_retention_aht_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,40 +524,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>42370</v>
+        <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>412.1278289743188</v>
+        <v>556.5068953286071</v>
       </c>
       <c r="D2" t="n">
-        <v>384.7789851065307</v>
+        <v>554.4338306645737</v>
       </c>
       <c r="E2" t="n">
-        <v>461.3822589284081</v>
+        <v>627.4428875508625</v>
       </c>
       <c r="F2" t="n">
-        <v>412.1278289743188</v>
+        <v>556.5068953286071</v>
       </c>
       <c r="G2" t="n">
-        <v>412.1278289743188</v>
+        <v>556.5068953286071</v>
       </c>
       <c r="H2" t="n">
-        <v>9.193767187935379</v>
+        <v>32.54061165980782</v>
       </c>
       <c r="I2" t="n">
-        <v>9.193767187935379</v>
+        <v>32.54061165980782</v>
       </c>
       <c r="J2" t="n">
-        <v>9.193767187935379</v>
+        <v>32.54061165980782</v>
       </c>
       <c r="K2" t="n">
-        <v>9.193767187935379</v>
+        <v>32.54061165980782</v>
       </c>
       <c r="L2" t="n">
-        <v>9.193767187935379</v>
+        <v>32.54061165980782</v>
       </c>
       <c r="M2" t="n">
-        <v>9.193767187935379</v>
+        <v>32.54061165980782</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>421.3215961622542</v>
+        <v>589.047506988415</v>
       </c>
     </row>
     <row r="3">
@@ -577,40 +577,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>42401</v>
+        <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>418.4573902305123</v>
+        <v>558.3521555673525</v>
       </c>
       <c r="D3" t="n">
-        <v>378.3108081544223</v>
+        <v>544.315819697195</v>
       </c>
       <c r="E3" t="n">
-        <v>456.941737209139</v>
+        <v>623.3281473049108</v>
       </c>
       <c r="F3" t="n">
-        <v>418.4573902305123</v>
+        <v>558.3521555673525</v>
       </c>
       <c r="G3" t="n">
-        <v>418.4573902305123</v>
+        <v>558.3521555673525</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.256742410273912</v>
+        <v>25.12030152200425</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.256742410273912</v>
+        <v>25.12030152200425</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.256742410273912</v>
+        <v>25.12030152200425</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.256742410273912</v>
+        <v>25.12030152200425</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.256742410273912</v>
+        <v>25.12030152200425</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.256742410273912</v>
+        <v>25.12030152200425</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>417.2006478202384</v>
+        <v>583.4724570893568</v>
       </c>
     </row>
     <row r="4">
@@ -630,40 +630,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42430</v>
+        <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>424.3785926959836</v>
+        <v>560.0188422346065</v>
       </c>
       <c r="D4" t="n">
-        <v>385.7944186295705</v>
+        <v>544.4650864543751</v>
       </c>
       <c r="E4" t="n">
-        <v>466.1271656676947</v>
+        <v>622.2536819042637</v>
       </c>
       <c r="F4" t="n">
-        <v>424.3785926959836</v>
+        <v>560.0188422346065</v>
       </c>
       <c r="G4" t="n">
-        <v>424.3785926959836</v>
+        <v>560.0188422346065</v>
       </c>
       <c r="H4" t="n">
-        <v>2.815186161100302</v>
+        <v>21.72055205103348</v>
       </c>
       <c r="I4" t="n">
-        <v>2.815186161100302</v>
+        <v>21.72055205103348</v>
       </c>
       <c r="J4" t="n">
-        <v>2.815186161100302</v>
+        <v>21.72055205103348</v>
       </c>
       <c r="K4" t="n">
-        <v>2.815186161100302</v>
+        <v>21.72055205103348</v>
       </c>
       <c r="L4" t="n">
-        <v>2.815186161100302</v>
+        <v>21.72055205103348</v>
       </c>
       <c r="M4" t="n">
-        <v>2.815186161100302</v>
+        <v>21.72055205103348</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>427.1937788570839</v>
+        <v>581.7393942856399</v>
       </c>
     </row>
     <row r="5">
@@ -683,40 +683,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>430.7081539485368</v>
+        <v>561.864102469587</v>
       </c>
       <c r="D5" t="n">
-        <v>403.6318339078353</v>
+        <v>547.159173943718</v>
       </c>
       <c r="E5" t="n">
-        <v>483.8744181082393</v>
+        <v>624.6666695174137</v>
       </c>
       <c r="F5" t="n">
-        <v>430.7081539485368</v>
+        <v>561.864102469587</v>
       </c>
       <c r="G5" t="n">
-        <v>430.7081539485368</v>
+        <v>561.864102469587</v>
       </c>
       <c r="H5" t="n">
-        <v>14.40739931197185</v>
+        <v>22.01210891319408</v>
       </c>
       <c r="I5" t="n">
-        <v>14.40739931197185</v>
+        <v>22.01210891319408</v>
       </c>
       <c r="J5" t="n">
-        <v>14.40739931197185</v>
+        <v>22.01210891319408</v>
       </c>
       <c r="K5" t="n">
-        <v>14.40739931197185</v>
+        <v>22.01210891319408</v>
       </c>
       <c r="L5" t="n">
-        <v>14.40739931197185</v>
+        <v>22.01210891319408</v>
       </c>
       <c r="M5" t="n">
-        <v>14.40739931197185</v>
+        <v>22.01210891319408</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>445.1155532605086</v>
+        <v>583.8762113827811</v>
       </c>
     </row>
     <row r="6">
@@ -736,40 +736,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>42491</v>
+        <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>436.8335358058464</v>
+        <v>563.6498381808584</v>
       </c>
       <c r="D6" t="n">
-        <v>407.8858138188379</v>
+        <v>519.8600946840096</v>
       </c>
       <c r="E6" t="n">
-        <v>486.0870708650348</v>
+        <v>598.4107368051123</v>
       </c>
       <c r="F6" t="n">
-        <v>436.8335358058464</v>
+        <v>563.6498381808584</v>
       </c>
       <c r="G6" t="n">
-        <v>436.8335358058464</v>
+        <v>563.6498381808584</v>
       </c>
       <c r="H6" t="n">
-        <v>8.72333300129595</v>
+        <v>-2.258261209885954</v>
       </c>
       <c r="I6" t="n">
-        <v>8.72333300129595</v>
+        <v>-2.258261209885954</v>
       </c>
       <c r="J6" t="n">
-        <v>8.72333300129595</v>
+        <v>-2.258261209885954</v>
       </c>
       <c r="K6" t="n">
-        <v>8.72333300129595</v>
+        <v>-2.258261209885954</v>
       </c>
       <c r="L6" t="n">
-        <v>8.72333300129595</v>
+        <v>-2.258261209885954</v>
       </c>
       <c r="M6" t="n">
-        <v>8.72333300129595</v>
+        <v>-2.258261209885954</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>445.5568688071423</v>
+        <v>561.3915769709724</v>
       </c>
     </row>
     <row r="7">
@@ -789,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>42522</v>
+        <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>443.1630970583996</v>
+        <v>565.4950984085801</v>
       </c>
       <c r="D7" t="n">
-        <v>391.0881135650235</v>
+        <v>513.392848009689</v>
       </c>
       <c r="E7" t="n">
-        <v>473.2590986717946</v>
+        <v>589.3924747230599</v>
       </c>
       <c r="F7" t="n">
-        <v>443.1630970583996</v>
+        <v>565.4950984085801</v>
       </c>
       <c r="G7" t="n">
-        <v>443.1630970583996</v>
+        <v>565.4950984085801</v>
       </c>
       <c r="H7" t="n">
-        <v>-9.6399310139006</v>
+        <v>-15.22720511071181</v>
       </c>
       <c r="I7" t="n">
-        <v>-9.6399310139006</v>
+        <v>-15.22720511071181</v>
       </c>
       <c r="J7" t="n">
-        <v>-9.6399310139006</v>
+        <v>-15.22720511071181</v>
       </c>
       <c r="K7" t="n">
-        <v>-9.6399310139006</v>
+        <v>-15.22720511071181</v>
       </c>
       <c r="L7" t="n">
-        <v>-9.6399310139006</v>
+        <v>-15.22720511071181</v>
       </c>
       <c r="M7" t="n">
-        <v>-9.6399310139006</v>
+        <v>-15.22720511071181</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>433.523166044499</v>
+        <v>550.2678932978683</v>
       </c>
     </row>
     <row r="8">
@@ -842,40 +842,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>42552</v>
+        <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>449.2884789123918</v>
+        <v>567.2808341128267</v>
       </c>
       <c r="D8" t="n">
-        <v>401.1846021061822</v>
+        <v>506.5874443040835</v>
       </c>
       <c r="E8" t="n">
-        <v>478.9748198618988</v>
+        <v>584.4604922339942</v>
       </c>
       <c r="F8" t="n">
-        <v>449.2884789123918</v>
+        <v>567.2808341128267</v>
       </c>
       <c r="G8" t="n">
-        <v>449.2884789123918</v>
+        <v>567.2808341128267</v>
       </c>
       <c r="H8" t="n">
-        <v>-10.08896813785778</v>
+        <v>-22.3944965112611</v>
       </c>
       <c r="I8" t="n">
-        <v>-10.08896813785778</v>
+        <v>-22.3944965112611</v>
       </c>
       <c r="J8" t="n">
-        <v>-10.08896813785778</v>
+        <v>-22.3944965112611</v>
       </c>
       <c r="K8" t="n">
-        <v>-10.08896813785778</v>
+        <v>-22.3944965112611</v>
       </c>
       <c r="L8" t="n">
-        <v>-10.08896813785778</v>
+        <v>-22.3944965112611</v>
       </c>
       <c r="M8" t="n">
-        <v>-10.08896813785778</v>
+        <v>-22.3944965112611</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>439.199510774534</v>
+        <v>544.8863376015656</v>
       </c>
     </row>
     <row r="9">
@@ -895,40 +895,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42583</v>
+        <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>455.618040161517</v>
+        <v>569.126094348314</v>
       </c>
       <c r="D9" t="n">
-        <v>440.7069936571031</v>
+        <v>541.8399240541673</v>
       </c>
       <c r="E9" t="n">
-        <v>523.4844422913095</v>
+        <v>619.0159322111683</v>
       </c>
       <c r="F9" t="n">
-        <v>455.618040161517</v>
+        <v>569.126094348314</v>
       </c>
       <c r="G9" t="n">
-        <v>455.618040161517</v>
+        <v>569.126094348314</v>
       </c>
       <c r="H9" t="n">
-        <v>26.6935059905917</v>
+        <v>10.44422929482079</v>
       </c>
       <c r="I9" t="n">
-        <v>26.6935059905917</v>
+        <v>10.44422929482079</v>
       </c>
       <c r="J9" t="n">
-        <v>26.6935059905917</v>
+        <v>10.44422929482079</v>
       </c>
       <c r="K9" t="n">
-        <v>26.6935059905917</v>
+        <v>10.44422929482079</v>
       </c>
       <c r="L9" t="n">
-        <v>26.6935059905917</v>
+        <v>10.44422929482079</v>
       </c>
       <c r="M9" t="n">
-        <v>26.6935059905917</v>
+        <v>10.44422929482079</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>482.3115461521087</v>
+        <v>579.5703236431348</v>
       </c>
     </row>
     <row r="10">
@@ -948,40 +948,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42614</v>
+        <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>461.9476014123975</v>
+        <v>570.9713545838014</v>
       </c>
       <c r="D10" t="n">
-        <v>451.6774841001378</v>
+        <v>564.8143780339816</v>
       </c>
       <c r="E10" t="n">
-        <v>533.61748445135</v>
+        <v>644.8198150614181</v>
       </c>
       <c r="F10" t="n">
-        <v>461.9476014123975</v>
+        <v>570.9713545838014</v>
       </c>
       <c r="G10" t="n">
-        <v>461.9476014123975</v>
+        <v>570.9713545838014</v>
       </c>
       <c r="H10" t="n">
-        <v>28.58349050427335</v>
+        <v>34.67408676209307</v>
       </c>
       <c r="I10" t="n">
-        <v>28.58349050427335</v>
+        <v>34.67408676209307</v>
       </c>
       <c r="J10" t="n">
-        <v>28.58349050427335</v>
+        <v>34.67408676209307</v>
       </c>
       <c r="K10" t="n">
-        <v>28.58349050427335</v>
+        <v>34.67408676209307</v>
       </c>
       <c r="L10" t="n">
-        <v>28.58349050427335</v>
+        <v>34.67408676209307</v>
       </c>
       <c r="M10" t="n">
-        <v>28.58349050427335</v>
+        <v>34.67408676209307</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>490.5310919166709</v>
+        <v>605.6454413458945</v>
       </c>
     </row>
     <row r="11">
@@ -1001,40 +1001,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>42644</v>
+        <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>468.0729832680885</v>
+        <v>572.7570902870114</v>
       </c>
       <c r="D11" t="n">
-        <v>432.8958466559178</v>
+        <v>548.6697687481168</v>
       </c>
       <c r="E11" t="n">
-        <v>513.7140643003212</v>
+        <v>625.5944789322168</v>
       </c>
       <c r="F11" t="n">
-        <v>468.0729832680885</v>
+        <v>572.7570902870114</v>
       </c>
       <c r="G11" t="n">
-        <v>468.0729832680885</v>
+        <v>572.7570902870114</v>
       </c>
       <c r="H11" t="n">
-        <v>7.176481658714462</v>
+        <v>14.09672234417812</v>
       </c>
       <c r="I11" t="n">
-        <v>7.176481658714462</v>
+        <v>14.09672234417812</v>
       </c>
       <c r="J11" t="n">
-        <v>7.176481658714462</v>
+        <v>14.09672234417812</v>
       </c>
       <c r="K11" t="n">
-        <v>7.176481658714462</v>
+        <v>14.09672234417812</v>
       </c>
       <c r="L11" t="n">
-        <v>7.176481658714462</v>
+        <v>14.09672234417812</v>
       </c>
       <c r="M11" t="n">
-        <v>7.176481658714462</v>
+        <v>14.09672234417812</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>475.2494649268029</v>
+        <v>586.8538126311895</v>
       </c>
     </row>
     <row r="12">
@@ -1054,40 +1054,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42675</v>
+        <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>474.4025445197515</v>
+        <v>574.6023505136618</v>
       </c>
       <c r="D12" t="n">
-        <v>428.8956137140531</v>
+        <v>526.8486743611055</v>
       </c>
       <c r="E12" t="n">
-        <v>510.2402339261386</v>
+        <v>607.9802770726537</v>
       </c>
       <c r="F12" t="n">
-        <v>474.4025445197515</v>
+        <v>574.6023505136618</v>
       </c>
       <c r="G12" t="n">
-        <v>474.4025445197515</v>
+        <v>574.6023505136618</v>
       </c>
       <c r="H12" t="n">
-        <v>-7.355906660784982</v>
+        <v>-6.229347475379792</v>
       </c>
       <c r="I12" t="n">
-        <v>-7.355906660784982</v>
+        <v>-6.229347475379792</v>
       </c>
       <c r="J12" t="n">
-        <v>-7.355906660784982</v>
+        <v>-6.229347475379792</v>
       </c>
       <c r="K12" t="n">
-        <v>-7.355906660784982</v>
+        <v>-6.229347475379792</v>
       </c>
       <c r="L12" t="n">
-        <v>-7.355906660784982</v>
+        <v>-6.229347475379792</v>
       </c>
       <c r="M12" t="n">
-        <v>-7.355906660784982</v>
+        <v>-6.229347475379792</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>467.0466378589666</v>
+        <v>568.373003038282</v>
       </c>
     </row>
     <row r="13">
@@ -1107,40 +1107,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42705</v>
+        <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>480.5279263761997</v>
+        <v>576.3880862161053</v>
       </c>
       <c r="D13" t="n">
-        <v>431.3599114934646</v>
+        <v>535.8885978112037</v>
       </c>
       <c r="E13" t="n">
-        <v>513.7454562974017</v>
+        <v>614.05421197192</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5279263761997</v>
+        <v>576.3880862161053</v>
       </c>
       <c r="G13" t="n">
-        <v>480.5279263761997</v>
+        <v>576.3880862161053</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.04111922134496</v>
+        <v>-2.10891300076257</v>
       </c>
       <c r="I13" t="n">
-        <v>-7.04111922134496</v>
+        <v>-2.10891300076257</v>
       </c>
       <c r="J13" t="n">
-        <v>-7.04111922134496</v>
+        <v>-2.10891300076257</v>
       </c>
       <c r="K13" t="n">
-        <v>-7.04111922134496</v>
+        <v>-2.10891300076257</v>
       </c>
       <c r="L13" t="n">
-        <v>-7.04111922134496</v>
+        <v>-2.10891300076257</v>
       </c>
       <c r="M13" t="n">
-        <v>-7.04111922134496</v>
+        <v>-2.10891300076257</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>473.4868071548547</v>
+        <v>574.2791732153428</v>
       </c>
     </row>
     <row r="14">
@@ -1160,40 +1160,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>486.8574876278627</v>
+        <v>578.2333464419637</v>
       </c>
       <c r="D14" t="n">
-        <v>469.1904580768621</v>
+        <v>564.5112324311878</v>
       </c>
       <c r="E14" t="n">
-        <v>552.6410487681512</v>
+        <v>645.5043873021332</v>
       </c>
       <c r="F14" t="n">
-        <v>486.8574876278627</v>
+        <v>578.2333464419637</v>
       </c>
       <c r="G14" t="n">
-        <v>486.8574876278627</v>
+        <v>578.2333464419637</v>
       </c>
       <c r="H14" t="n">
-        <v>23.44981345974965</v>
+        <v>26.17096473143892</v>
       </c>
       <c r="I14" t="n">
-        <v>23.44981345974965</v>
+        <v>26.17096473143892</v>
       </c>
       <c r="J14" t="n">
-        <v>23.44981345974965</v>
+        <v>26.17096473143892</v>
       </c>
       <c r="K14" t="n">
-        <v>23.44981345974965</v>
+        <v>26.17096473143892</v>
       </c>
       <c r="L14" t="n">
-        <v>23.44981345974965</v>
+        <v>26.17096473143892</v>
       </c>
       <c r="M14" t="n">
-        <v>23.44981345974965</v>
+        <v>26.17096473143892</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>510.3073010876124</v>
+        <v>604.4043111734027</v>
       </c>
     </row>
     <row r="15">
@@ -1213,40 +1213,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42767</v>
+        <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>493.1870488776012</v>
+        <v>580.0786066786626</v>
       </c>
       <c r="D15" t="n">
-        <v>477.5895249338187</v>
+        <v>564.7998543235235</v>
       </c>
       <c r="E15" t="n">
-        <v>558.197208095901</v>
+        <v>641.2382183355165</v>
       </c>
       <c r="F15" t="n">
-        <v>493.1870488776012</v>
+        <v>580.0786066786626</v>
       </c>
       <c r="G15" t="n">
-        <v>493.1870488776012</v>
+        <v>580.0786066786626</v>
       </c>
       <c r="H15" t="n">
-        <v>22.35559092427532</v>
+        <v>20.78561520867365</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35559092427532</v>
+        <v>20.78561520867365</v>
       </c>
       <c r="J15" t="n">
-        <v>22.35559092427532</v>
+        <v>20.78561520867365</v>
       </c>
       <c r="K15" t="n">
-        <v>22.35559092427532</v>
+        <v>20.78561520867365</v>
       </c>
       <c r="L15" t="n">
-        <v>22.35559092427532</v>
+        <v>20.78561520867365</v>
       </c>
       <c r="M15" t="n">
-        <v>22.35559092427532</v>
+        <v>20.78561520867365</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>515.5426398018766</v>
+        <v>600.8642218873363</v>
       </c>
     </row>
     <row r="16">
@@ -1266,40 +1266,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>42795</v>
+        <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>498.9040719418811</v>
+        <v>581.7452933440679</v>
       </c>
       <c r="D16" t="n">
-        <v>475.5594577552859</v>
+        <v>575.746628787216</v>
       </c>
       <c r="E16" t="n">
-        <v>553.497636957346</v>
+        <v>653.4792778113784</v>
       </c>
       <c r="F16" t="n">
-        <v>498.9040719418811</v>
+        <v>581.7452933440679</v>
       </c>
       <c r="G16" t="n">
-        <v>498.9040719418811</v>
+        <v>581.7452933440679</v>
       </c>
       <c r="H16" t="n">
-        <v>15.64129782915039</v>
+        <v>33.20048977718301</v>
       </c>
       <c r="I16" t="n">
-        <v>15.64129782915039</v>
+        <v>33.20048977718301</v>
       </c>
       <c r="J16" t="n">
-        <v>15.64129782915039</v>
+        <v>33.20048977718301</v>
       </c>
       <c r="K16" t="n">
-        <v>15.64129782915039</v>
+        <v>33.20048977718301</v>
       </c>
       <c r="L16" t="n">
-        <v>15.64129782915039</v>
+        <v>33.20048977718301</v>
       </c>
       <c r="M16" t="n">
-        <v>15.64129782915039</v>
+        <v>33.20048977718301</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>514.5453697710315</v>
+        <v>614.945783121251</v>
       </c>
     </row>
     <row r="17">
@@ -1319,40 +1319,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>505.2336331863451</v>
+        <v>583.5905535709517</v>
       </c>
       <c r="D17" t="n">
-        <v>481.1003464249159</v>
+        <v>561.5634209867184</v>
       </c>
       <c r="E17" t="n">
-        <v>560.5661811699248</v>
+        <v>639.9912833908082</v>
       </c>
       <c r="F17" t="n">
-        <v>505.2336331863451</v>
+        <v>583.5905535709517</v>
       </c>
       <c r="G17" t="n">
-        <v>505.2336331863451</v>
+        <v>583.5905535709517</v>
       </c>
       <c r="H17" t="n">
-        <v>14.9742419771421</v>
+        <v>17.71102787595747</v>
       </c>
       <c r="I17" t="n">
-        <v>14.9742419771421</v>
+        <v>17.71102787595747</v>
       </c>
       <c r="J17" t="n">
-        <v>14.9742419771421</v>
+        <v>17.71102787595747</v>
       </c>
       <c r="K17" t="n">
-        <v>14.9742419771421</v>
+        <v>17.71102787595747</v>
       </c>
       <c r="L17" t="n">
-        <v>14.9742419771421</v>
+        <v>17.71102787595747</v>
       </c>
       <c r="M17" t="n">
-        <v>14.9742419771421</v>
+        <v>17.71102787595747</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>520.2078751634872</v>
+        <v>601.3015814469092</v>
       </c>
     </row>
     <row r="18">
@@ -1372,40 +1372,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>42856</v>
+        <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>511.3590150358263</v>
+        <v>585.3762892743875</v>
       </c>
       <c r="D18" t="n">
-        <v>476.9937313233548</v>
+        <v>538.820595043988</v>
       </c>
       <c r="E18" t="n">
-        <v>553.1408490072689</v>
+        <v>616.9248652637688</v>
       </c>
       <c r="F18" t="n">
-        <v>511.3590150358263</v>
+        <v>585.3762892743875</v>
       </c>
       <c r="G18" t="n">
-        <v>511.3590150358263</v>
+        <v>585.3762892743875</v>
       </c>
       <c r="H18" t="n">
-        <v>3.836515782128623</v>
+        <v>-6.269523688398812</v>
       </c>
       <c r="I18" t="n">
-        <v>3.836515782128623</v>
+        <v>-6.269523688398812</v>
       </c>
       <c r="J18" t="n">
-        <v>3.836515782128623</v>
+        <v>-6.269523688398812</v>
       </c>
       <c r="K18" t="n">
-        <v>3.836515782128623</v>
+        <v>-6.269523688398812</v>
       </c>
       <c r="L18" t="n">
-        <v>3.836515782128623</v>
+        <v>-6.269523688398812</v>
       </c>
       <c r="M18" t="n">
-        <v>3.836515782128623</v>
+        <v>-6.269523688398812</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>515.1955308179549</v>
+        <v>579.1067655859887</v>
       </c>
     </row>
     <row r="19">
@@ -1425,40 +1425,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>42887</v>
+        <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>517.6885762802904</v>
+        <v>587.2215496611468</v>
       </c>
       <c r="D19" t="n">
-        <v>467.9216190522092</v>
+        <v>529.4892746758752</v>
       </c>
       <c r="E19" t="n">
-        <v>543.7063812562865</v>
+        <v>608.27086861384</v>
       </c>
       <c r="F19" t="n">
-        <v>517.6885762802904</v>
+        <v>587.2215496611468</v>
       </c>
       <c r="G19" t="n">
-        <v>517.6885762802904</v>
+        <v>587.2215496611468</v>
       </c>
       <c r="H19" t="n">
-        <v>-12.47451857257161</v>
+        <v>-17.91097459888264</v>
       </c>
       <c r="I19" t="n">
-        <v>-12.47451857257161</v>
+        <v>-17.91097459888264</v>
       </c>
       <c r="J19" t="n">
-        <v>-12.47451857257161</v>
+        <v>-17.91097459888264</v>
       </c>
       <c r="K19" t="n">
-        <v>-12.47451857257161</v>
+        <v>-17.91097459888264</v>
       </c>
       <c r="L19" t="n">
-        <v>-12.47451857257161</v>
+        <v>-17.91097459888264</v>
       </c>
       <c r="M19" t="n">
-        <v>-12.47451857257161</v>
+        <v>-17.91097459888264</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>505.2140577077188</v>
+        <v>569.3105750622642</v>
       </c>
     </row>
     <row r="20">
@@ -1478,40 +1478,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>523.813705087788</v>
+        <v>589.0072855193009</v>
       </c>
       <c r="D20" t="n">
-        <v>484.0720942969082</v>
+        <v>541.0350937353799</v>
       </c>
       <c r="E20" t="n">
-        <v>561.0414210859474</v>
+        <v>620.6186171024958</v>
       </c>
       <c r="F20" t="n">
-        <v>523.813705087788</v>
+        <v>589.0072855193009</v>
       </c>
       <c r="G20" t="n">
-        <v>523.813705087788</v>
+        <v>589.0072855193009</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.32097838531835</v>
+        <v>-8.799807722910069</v>
       </c>
       <c r="I20" t="n">
-        <v>-2.32097838531835</v>
+        <v>-8.799807722910069</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.32097838531835</v>
+        <v>-8.799807722910069</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.32097838531835</v>
+        <v>-8.799807722910069</v>
       </c>
       <c r="L20" t="n">
-        <v>-2.32097838531835</v>
+        <v>-8.799807722910069</v>
       </c>
       <c r="M20" t="n">
-        <v>-2.32097838531835</v>
+        <v>-8.799807722910069</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>521.4927267024697</v>
+        <v>580.2074777963909</v>
       </c>
     </row>
     <row r="21">
@@ -1531,40 +1531,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>42948</v>
+        <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>530.1430048555354</v>
+        <v>590.8528946392021</v>
       </c>
       <c r="D21" t="n">
-        <v>510.0370608961998</v>
+        <v>557.9240265244464</v>
       </c>
       <c r="E21" t="n">
-        <v>588.1891382826309</v>
+        <v>629.5625833221739</v>
       </c>
       <c r="F21" t="n">
-        <v>530.1430048555354</v>
+        <v>590.8528946392021</v>
       </c>
       <c r="G21" t="n">
-        <v>530.1430048555354</v>
+        <v>590.8528946392021</v>
       </c>
       <c r="H21" t="n">
-        <v>18.38621429719539</v>
+        <v>3.762701884348931</v>
       </c>
       <c r="I21" t="n">
-        <v>18.38621429719539</v>
+        <v>3.762701884348931</v>
       </c>
       <c r="J21" t="n">
-        <v>18.38621429719539</v>
+        <v>3.762701884348931</v>
       </c>
       <c r="K21" t="n">
-        <v>18.38621429719539</v>
+        <v>3.762701884348931</v>
       </c>
       <c r="L21" t="n">
-        <v>18.38621429719539</v>
+        <v>3.762701884348931</v>
       </c>
       <c r="M21" t="n">
-        <v>18.38621429719539</v>
+        <v>3.762701884348931</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>548.5292191527308</v>
+        <v>594.6155965235511</v>
       </c>
     </row>
     <row r="22">
@@ -1584,40 +1584,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>536.4707837428867</v>
+        <v>592.6985037591033</v>
       </c>
       <c r="D22" t="n">
-        <v>522.0912429060122</v>
+        <v>577.7355320149959</v>
       </c>
       <c r="E22" t="n">
-        <v>602.0823674713537</v>
+        <v>656.1938675840142</v>
       </c>
       <c r="F22" t="n">
-        <v>536.4707837428867</v>
+        <v>592.6985037591033</v>
       </c>
       <c r="G22" t="n">
-        <v>536.4707837428867</v>
+        <v>592.6985037591033</v>
       </c>
       <c r="H22" t="n">
-        <v>26.07785479815487</v>
+        <v>24.27193116368235</v>
       </c>
       <c r="I22" t="n">
-        <v>26.07785479815487</v>
+        <v>24.27193116368235</v>
       </c>
       <c r="J22" t="n">
-        <v>26.07785479815487</v>
+        <v>24.27193116368235</v>
       </c>
       <c r="K22" t="n">
-        <v>26.07785479815487</v>
+        <v>24.27193116368235</v>
       </c>
       <c r="L22" t="n">
-        <v>26.07785479815487</v>
+        <v>24.27193116368235</v>
       </c>
       <c r="M22" t="n">
-        <v>26.07785479815487</v>
+        <v>24.27193116368235</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>562.5486385410416</v>
+        <v>616.9704349227857</v>
       </c>
     </row>
     <row r="23">
@@ -1637,40 +1637,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>542.5944407306461</v>
+        <v>594.486655095975</v>
       </c>
       <c r="D23" t="n">
-        <v>517.8759496788433</v>
+        <v>580.2408613633552</v>
       </c>
       <c r="E23" t="n">
-        <v>596.2207824047514</v>
+        <v>655.4505481956785</v>
       </c>
       <c r="F23" t="n">
-        <v>542.5944407306461</v>
+        <v>594.486655095975</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5944407306461</v>
+        <v>594.486655095975</v>
       </c>
       <c r="H23" t="n">
-        <v>15.50442932675636</v>
+        <v>22.30816637514658</v>
       </c>
       <c r="I23" t="n">
-        <v>15.50442932675636</v>
+        <v>22.30816637514658</v>
       </c>
       <c r="J23" t="n">
-        <v>15.50442932675636</v>
+        <v>22.30816637514658</v>
       </c>
       <c r="K23" t="n">
-        <v>15.50442932675636</v>
+        <v>22.30816637514658</v>
       </c>
       <c r="L23" t="n">
-        <v>15.50442932675636</v>
+        <v>22.30816637514658</v>
       </c>
       <c r="M23" t="n">
-        <v>15.50442932675636</v>
+        <v>22.30816637514658</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>558.0988700574025</v>
+        <v>616.7948214711216</v>
       </c>
     </row>
     <row r="24">
@@ -1690,40 +1690,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>548.3109396937577</v>
+        <v>596.3344114774092</v>
       </c>
       <c r="D24" t="n">
-        <v>503.3361478449942</v>
+        <v>555.6857616700619</v>
       </c>
       <c r="E24" t="n">
-        <v>582.1807172007606</v>
+        <v>632.8878756264745</v>
       </c>
       <c r="F24" t="n">
-        <v>548.3109396937577</v>
+        <v>596.3344114774092</v>
       </c>
       <c r="G24" t="n">
-        <v>548.3109396937577</v>
+        <v>596.3344114774092</v>
       </c>
       <c r="H24" t="n">
-        <v>-5.654579822132377</v>
+        <v>-2.621886249718161</v>
       </c>
       <c r="I24" t="n">
-        <v>-5.654579822132377</v>
+        <v>-2.621886249718161</v>
       </c>
       <c r="J24" t="n">
-        <v>-5.654579822132377</v>
+        <v>-2.621886249718161</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.654579822132377</v>
+        <v>-2.621886249718161</v>
       </c>
       <c r="L24" t="n">
-        <v>-5.654579822132377</v>
+        <v>-2.621886249718161</v>
       </c>
       <c r="M24" t="n">
-        <v>-5.654579822132377</v>
+        <v>-2.621886249718161</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>542.6563598716253</v>
+        <v>593.712525227691</v>
       </c>
     </row>
     <row r="25">
@@ -1743,40 +1743,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>553.8430354645111</v>
+        <v>598.1299178054732</v>
       </c>
       <c r="D25" t="n">
-        <v>506.4986234063398</v>
+        <v>557.3695465708702</v>
       </c>
       <c r="E25" t="n">
-        <v>588.2171963973735</v>
+        <v>636.1850112492367</v>
       </c>
       <c r="F25" t="n">
-        <v>553.8430354645111</v>
+        <v>598.1299178054732</v>
       </c>
       <c r="G25" t="n">
-        <v>553.8430354645111</v>
+        <v>598.1299178054732</v>
       </c>
       <c r="H25" t="n">
-        <v>-8.16219544619824</v>
+        <v>-1.71598517391238</v>
       </c>
       <c r="I25" t="n">
-        <v>-8.16219544619824</v>
+        <v>-1.71598517391238</v>
       </c>
       <c r="J25" t="n">
-        <v>-8.16219544619824</v>
+        <v>-1.71598517391238</v>
       </c>
       <c r="K25" t="n">
-        <v>-8.16219544619824</v>
+        <v>-1.71598517391238</v>
       </c>
       <c r="L25" t="n">
-        <v>-8.16219544619824</v>
+        <v>-1.71598517391238</v>
       </c>
       <c r="M25" t="n">
-        <v>-8.16219544619824</v>
+        <v>-1.71598517391238</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>545.6808400183129</v>
+        <v>596.4139326315608</v>
       </c>
     </row>
     <row r="26">
@@ -1796,40 +1796,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>559.5595344276229</v>
+        <v>599.9852743444725</v>
       </c>
       <c r="D26" t="n">
-        <v>539.3413919224525</v>
+        <v>582.3352344166678</v>
       </c>
       <c r="E26" t="n">
-        <v>618.48336364831</v>
+        <v>655.0079575944451</v>
       </c>
       <c r="F26" t="n">
-        <v>559.5595344276229</v>
+        <v>599.9852743444725</v>
       </c>
       <c r="G26" t="n">
-        <v>559.5595344276229</v>
+        <v>599.9852743444725</v>
       </c>
       <c r="H26" t="n">
-        <v>18.76286726755239</v>
+        <v>19.74515901891016</v>
       </c>
       <c r="I26" t="n">
-        <v>18.76286726755239</v>
+        <v>19.74515901891016</v>
       </c>
       <c r="J26" t="n">
-        <v>18.76286726755239</v>
+        <v>19.74515901891016</v>
       </c>
       <c r="K26" t="n">
-        <v>18.76286726755239</v>
+        <v>19.74515901891016</v>
       </c>
       <c r="L26" t="n">
-        <v>18.76286726755239</v>
+        <v>19.74515901891016</v>
       </c>
       <c r="M26" t="n">
-        <v>18.76286726755239</v>
+        <v>19.74515901891016</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>578.3224016951752</v>
+        <v>619.7304333633826</v>
       </c>
     </row>
     <row r="27">
@@ -1849,40 +1849,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>565.2663104609063</v>
+        <v>601.8414469715067</v>
       </c>
       <c r="D27" t="n">
-        <v>538.6467954471367</v>
+        <v>581.4766731907896</v>
       </c>
       <c r="E27" t="n">
-        <v>616.3446272487312</v>
+        <v>660.3880921130127</v>
       </c>
       <c r="F27" t="n">
-        <v>565.2663104609063</v>
+        <v>601.8414469715067</v>
       </c>
       <c r="G27" t="n">
-        <v>565.2663104609063</v>
+        <v>601.8414469715067</v>
       </c>
       <c r="H27" t="n">
-        <v>14.2599169569454</v>
+        <v>16.65650618104154</v>
       </c>
       <c r="I27" t="n">
-        <v>14.2599169569454</v>
+        <v>16.65650618104154</v>
       </c>
       <c r="J27" t="n">
-        <v>14.2599169569454</v>
+        <v>16.65650618104154</v>
       </c>
       <c r="K27" t="n">
-        <v>14.2599169569454</v>
+        <v>16.65650618104154</v>
       </c>
       <c r="L27" t="n">
-        <v>14.2599169569454</v>
+        <v>16.65650618104154</v>
       </c>
       <c r="M27" t="n">
-        <v>14.2599169569454</v>
+        <v>16.65650618104154</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>579.5262274178517</v>
+        <v>618.4979531525482</v>
       </c>
     </row>
     <row r="28">
@@ -1902,40 +1902,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>570.4208178458074</v>
+        <v>603.5179899894731</v>
       </c>
       <c r="D28" t="n">
-        <v>561.7834554994715</v>
+        <v>609.8570684351604</v>
       </c>
       <c r="E28" t="n">
-        <v>637.8419020943717</v>
+        <v>685.8028414145534</v>
       </c>
       <c r="F28" t="n">
-        <v>570.4208178458074</v>
+        <v>603.5179899894731</v>
       </c>
       <c r="G28" t="n">
-        <v>570.4208178458074</v>
+        <v>603.5179899894731</v>
       </c>
       <c r="H28" t="n">
-        <v>28.54230284088901</v>
+        <v>44.63891419714846</v>
       </c>
       <c r="I28" t="n">
-        <v>28.54230284088901</v>
+        <v>44.63891419714846</v>
       </c>
       <c r="J28" t="n">
-        <v>28.54230284088901</v>
+        <v>44.63891419714846</v>
       </c>
       <c r="K28" t="n">
-        <v>28.54230284088901</v>
+        <v>44.63891419714846</v>
       </c>
       <c r="L28" t="n">
-        <v>28.54230284088901</v>
+        <v>44.63891419714846</v>
       </c>
       <c r="M28" t="n">
-        <v>28.54230284088901</v>
+        <v>44.63891419714846</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>598.9631206866964</v>
+        <v>648.1569041866215</v>
       </c>
     </row>
     <row r="29">
@@ -1955,40 +1955,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>572.9912111673598</v>
+        <v>605.3741626165073</v>
       </c>
       <c r="D29" t="n">
-        <v>547.7643883913466</v>
+        <v>579.6616217171792</v>
       </c>
       <c r="E29" t="n">
-        <v>626.4169813131042</v>
+        <v>653.8924701042628</v>
       </c>
       <c r="F29" t="n">
-        <v>572.9912111673598</v>
+        <v>605.3741626165073</v>
       </c>
       <c r="G29" t="n">
-        <v>572.9912111673598</v>
+        <v>605.3741626165073</v>
       </c>
       <c r="H29" t="n">
-        <v>15.31444620062981</v>
+        <v>13.20738023511809</v>
       </c>
       <c r="I29" t="n">
-        <v>15.31444620062981</v>
+        <v>13.20738023511809</v>
       </c>
       <c r="J29" t="n">
-        <v>15.31444620062981</v>
+        <v>13.20738023511809</v>
       </c>
       <c r="K29" t="n">
-        <v>15.31444620062981</v>
+        <v>13.20738023511809</v>
       </c>
       <c r="L29" t="n">
-        <v>15.31444620062981</v>
+        <v>13.20738023511809</v>
       </c>
       <c r="M29" t="n">
-        <v>15.31444620062981</v>
+        <v>13.20738023511809</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>588.3056573679896</v>
+        <v>618.5815428516254</v>
       </c>
     </row>
     <row r="30">
@@ -2008,40 +2008,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>575.4786885753138</v>
+        <v>607.1704908623279</v>
       </c>
       <c r="D30" t="n">
-        <v>535.1057577071718</v>
+        <v>554.1371463414586</v>
       </c>
       <c r="E30" t="n">
-        <v>616.7469359183647</v>
+        <v>635.7488933622141</v>
       </c>
       <c r="F30" t="n">
-        <v>575.4786885753138</v>
+        <v>607.1704908623279</v>
       </c>
       <c r="G30" t="n">
-        <v>575.4786885753138</v>
+        <v>607.1704908623279</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.121989977981726</v>
+        <v>-10.24108585585025</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.121989977981726</v>
+        <v>-10.24108585585025</v>
       </c>
       <c r="J30" t="n">
-        <v>-1.121989977981726</v>
+        <v>-10.24108585585025</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.121989977981726</v>
+        <v>-10.24108585585025</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.121989977981726</v>
+        <v>-10.24108585585025</v>
       </c>
       <c r="M30" t="n">
-        <v>-1.121989977981726</v>
+        <v>-10.24108585585025</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>574.3566985973321</v>
+        <v>596.9294050064777</v>
       </c>
     </row>
     <row r="31">
@@ -2061,40 +2061,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>578.0455780965387</v>
+        <v>609.0266967163425</v>
       </c>
       <c r="D31" t="n">
-        <v>520.6592493268481</v>
+        <v>549.4737605887113</v>
       </c>
       <c r="E31" t="n">
-        <v>602.7961419572442</v>
+        <v>629.1708317071827</v>
       </c>
       <c r="F31" t="n">
-        <v>578.0455780965387</v>
+        <v>609.0266967163425</v>
       </c>
       <c r="G31" t="n">
-        <v>578.0455780965387</v>
+        <v>609.0266967163425</v>
       </c>
       <c r="H31" t="n">
-        <v>-15.18568811029365</v>
+        <v>-20.37775774320292</v>
       </c>
       <c r="I31" t="n">
-        <v>-15.18568811029365</v>
+        <v>-20.37775774320292</v>
       </c>
       <c r="J31" t="n">
-        <v>-15.18568811029365</v>
+        <v>-20.37775774320292</v>
       </c>
       <c r="K31" t="n">
-        <v>-15.18568811029365</v>
+        <v>-20.37775774320292</v>
       </c>
       <c r="L31" t="n">
-        <v>-15.18568811029365</v>
+        <v>-20.37775774320292</v>
       </c>
       <c r="M31" t="n">
-        <v>-15.18568811029365</v>
+        <v>-20.37775774320292</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>562.8598899862451</v>
+        <v>588.6489389731396</v>
       </c>
     </row>
     <row r="32">
@@ -2114,40 +2114,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>580.5296647299824</v>
+        <v>610.8231838972275</v>
       </c>
       <c r="D32" t="n">
-        <v>547.5939580882012</v>
+        <v>575.4893243926452</v>
       </c>
       <c r="E32" t="n">
-        <v>625.3668280175432</v>
+        <v>652.6568929550554</v>
       </c>
       <c r="F32" t="n">
-        <v>580.5296647299824</v>
+        <v>610.8231838972275</v>
       </c>
       <c r="G32" t="n">
-        <v>580.5296647299824</v>
+        <v>610.8231838972275</v>
       </c>
       <c r="H32" t="n">
-        <v>5.388125699059957</v>
+        <v>4.708435535045287</v>
       </c>
       <c r="I32" t="n">
-        <v>5.388125699059957</v>
+        <v>4.708435535045287</v>
       </c>
       <c r="J32" t="n">
-        <v>5.388125699059957</v>
+        <v>4.708435535045287</v>
       </c>
       <c r="K32" t="n">
-        <v>5.388125699059957</v>
+        <v>4.708435535045287</v>
       </c>
       <c r="L32" t="n">
-        <v>5.388125699059957</v>
+        <v>4.708435535045287</v>
       </c>
       <c r="M32" t="n">
-        <v>5.388125699059957</v>
+        <v>4.708435535045287</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>585.9177904290424</v>
+        <v>615.5316194322728</v>
       </c>
     </row>
     <row r="33">
@@ -2167,40 +2167,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>583.0965542512075</v>
+        <v>612.679553984142</v>
       </c>
       <c r="D33" t="n">
-        <v>549.8269196380849</v>
+        <v>570.0811654122568</v>
       </c>
       <c r="E33" t="n">
-        <v>633.5068366905257</v>
+        <v>646.476304871895</v>
       </c>
       <c r="F33" t="n">
-        <v>583.0965542512075</v>
+        <v>612.679553984142</v>
       </c>
       <c r="G33" t="n">
-        <v>583.0965542512075</v>
+        <v>612.679553984142</v>
       </c>
       <c r="H33" t="n">
-        <v>9.998056842150397</v>
+        <v>-3.200563803868262</v>
       </c>
       <c r="I33" t="n">
-        <v>9.998056842150397</v>
+        <v>-3.200563803868262</v>
       </c>
       <c r="J33" t="n">
-        <v>9.998056842150397</v>
+        <v>-3.200563803868262</v>
       </c>
       <c r="K33" t="n">
-        <v>9.998056842150397</v>
+        <v>-3.200563803868262</v>
       </c>
       <c r="L33" t="n">
-        <v>9.998056842150397</v>
+        <v>-3.200563803868262</v>
       </c>
       <c r="M33" t="n">
-        <v>9.998056842150397</v>
+        <v>-3.200563803868262</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>593.0946110933579</v>
+        <v>609.4789901802737</v>
       </c>
     </row>
     <row r="34">
@@ -2220,40 +2220,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>585.6630375840984</v>
+        <v>614.5359240976167</v>
       </c>
       <c r="D34" t="n">
-        <v>571.1747328496217</v>
+        <v>589.5603409171026</v>
       </c>
       <c r="E34" t="n">
-        <v>650.2737133865628</v>
+        <v>666.3297743076464</v>
       </c>
       <c r="F34" t="n">
-        <v>585.6630375840984</v>
+        <v>614.5359240976167</v>
       </c>
       <c r="G34" t="n">
-        <v>585.6630375840984</v>
+        <v>614.5359240976167</v>
       </c>
       <c r="H34" t="n">
-        <v>23.77824960734049</v>
+        <v>14.02100089464057</v>
       </c>
       <c r="I34" t="n">
-        <v>23.77824960734049</v>
+        <v>14.02100089464057</v>
       </c>
       <c r="J34" t="n">
-        <v>23.77824960734049</v>
+        <v>14.02100089464057</v>
       </c>
       <c r="K34" t="n">
-        <v>23.77824960734049</v>
+        <v>14.02100089464057</v>
       </c>
       <c r="L34" t="n">
-        <v>23.77824960734049</v>
+        <v>14.02100089464057</v>
       </c>
       <c r="M34" t="n">
-        <v>23.77824960734049</v>
+        <v>14.02100089464057</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>609.441287191439</v>
+        <v>628.5569249922572</v>
       </c>
     </row>
     <row r="35">
@@ -2273,40 +2273,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>588.1467311320573</v>
+        <v>616.3324113042049</v>
       </c>
       <c r="D35" t="n">
-        <v>570.7155940346287</v>
+        <v>607.6507481656381</v>
       </c>
       <c r="E35" t="n">
-        <v>651.6461091258461</v>
+        <v>686.6441057584678</v>
       </c>
       <c r="F35" t="n">
-        <v>588.1467311320573</v>
+        <v>616.3324113042049</v>
       </c>
       <c r="G35" t="n">
-        <v>588.1467311320573</v>
+        <v>616.3324113042049</v>
       </c>
       <c r="H35" t="n">
-        <v>23.88940376752274</v>
+        <v>30.70798757433185</v>
       </c>
       <c r="I35" t="n">
-        <v>23.88940376752274</v>
+        <v>30.70798757433185</v>
       </c>
       <c r="J35" t="n">
-        <v>23.88940376752274</v>
+        <v>30.70798757433185</v>
       </c>
       <c r="K35" t="n">
-        <v>23.88940376752274</v>
+        <v>30.70798757433185</v>
       </c>
       <c r="L35" t="n">
-        <v>23.88940376752274</v>
+        <v>30.70798757433185</v>
       </c>
       <c r="M35" t="n">
-        <v>23.88940376752274</v>
+        <v>30.70798757433185</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>612.03613489958</v>
+        <v>647.0403988785367</v>
       </c>
     </row>
     <row r="36">
@@ -2326,40 +2326,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>590.7132144617462</v>
+        <v>618.1887814069082</v>
       </c>
       <c r="D36" t="n">
-        <v>544.2454961268656</v>
+        <v>576.7445696114157</v>
       </c>
       <c r="E36" t="n">
-        <v>627.4810075462412</v>
+        <v>656.5866738401604</v>
       </c>
       <c r="F36" t="n">
-        <v>590.7132144617462</v>
+        <v>618.1887814069082</v>
       </c>
       <c r="G36" t="n">
-        <v>590.7132144617462</v>
+        <v>618.1887814069082</v>
       </c>
       <c r="H36" t="n">
-        <v>-4.095499959214437</v>
+        <v>0.9057753805755083</v>
       </c>
       <c r="I36" t="n">
-        <v>-4.095499959214437</v>
+        <v>0.9057753805755083</v>
       </c>
       <c r="J36" t="n">
-        <v>-4.095499959214437</v>
+        <v>0.9057753805755083</v>
       </c>
       <c r="K36" t="n">
-        <v>-4.095499959214437</v>
+        <v>0.9057753805755083</v>
       </c>
       <c r="L36" t="n">
-        <v>-4.095499959214437</v>
+        <v>0.9057753805755083</v>
       </c>
       <c r="M36" t="n">
-        <v>-4.095499959214437</v>
+        <v>0.9057753805755083</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>586.6177145025318</v>
+        <v>619.0945567874837</v>
       </c>
     </row>
     <row r="37">
@@ -2379,40 +2379,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>593.1969080066063</v>
+        <v>619.9852686030729</v>
       </c>
       <c r="D37" t="n">
-        <v>544.5706487017063</v>
+        <v>579.2643980409215</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1020307190713</v>
+        <v>655.879143576872</v>
       </c>
       <c r="F37" t="n">
-        <v>593.1969080066063</v>
+        <v>619.9852686030729</v>
       </c>
       <c r="G37" t="n">
-        <v>593.1969080066063</v>
+        <v>619.9852686030729</v>
       </c>
       <c r="H37" t="n">
-        <v>-9.421677765938101</v>
+        <v>-1.48533441187548</v>
       </c>
       <c r="I37" t="n">
-        <v>-9.421677765938101</v>
+        <v>-1.48533441187548</v>
       </c>
       <c r="J37" t="n">
-        <v>-9.421677765938101</v>
+        <v>-1.48533441187548</v>
       </c>
       <c r="K37" t="n">
-        <v>-9.421677765938101</v>
+        <v>-1.48533441187548</v>
       </c>
       <c r="L37" t="n">
-        <v>-9.421677765938101</v>
+        <v>-1.48533441187548</v>
       </c>
       <c r="M37" t="n">
-        <v>-9.421677765938101</v>
+        <v>-1.48533441187548</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>583.7752302406683</v>
+        <v>618.4999341911974</v>
       </c>
     </row>
     <row r="38">
@@ -2432,40 +2432,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>595.7633913365365</v>
+        <v>621.8416386914377</v>
       </c>
       <c r="D38" t="n">
-        <v>572.8962449176945</v>
+        <v>595.6967567738288</v>
       </c>
       <c r="E38" t="n">
-        <v>650.3961545366701</v>
+        <v>669.9070860316891</v>
       </c>
       <c r="F38" t="n">
-        <v>595.7633913365365</v>
+        <v>621.8416386914377</v>
       </c>
       <c r="G38" t="n">
-        <v>595.7633913365365</v>
+        <v>621.8416386914377</v>
       </c>
       <c r="H38" t="n">
-        <v>14.00812969131585</v>
+        <v>13.27146811146996</v>
       </c>
       <c r="I38" t="n">
-        <v>14.00812969131585</v>
+        <v>13.27146811146996</v>
       </c>
       <c r="J38" t="n">
-        <v>14.00812969131585</v>
+        <v>13.27146811146996</v>
       </c>
       <c r="K38" t="n">
-        <v>14.00812969131585</v>
+        <v>13.27146811146996</v>
       </c>
       <c r="L38" t="n">
-        <v>14.00812969131585</v>
+        <v>13.27146811146996</v>
       </c>
       <c r="M38" t="n">
-        <v>14.00812969131585</v>
+        <v>13.27146811146996</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>609.7715210278524</v>
+        <v>635.1131068029076</v>
       </c>
     </row>
     <row r="39">
@@ -2485,40 +2485,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>598.3298746664667</v>
+        <v>623.6980087798025</v>
       </c>
       <c r="D39" t="n">
-        <v>561.5411384713063</v>
+        <v>595.9874840056128</v>
       </c>
       <c r="E39" t="n">
-        <v>644.8716280053566</v>
+        <v>676.4313280897281</v>
       </c>
       <c r="F39" t="n">
-        <v>598.3298746664667</v>
+        <v>623.6980087798025</v>
       </c>
       <c r="G39" t="n">
-        <v>598.3298746664667</v>
+        <v>623.6980087798025</v>
       </c>
       <c r="H39" t="n">
-        <v>6.386402799535576</v>
+        <v>12.73725262555587</v>
       </c>
       <c r="I39" t="n">
-        <v>6.386402799535576</v>
+        <v>12.73725262555587</v>
       </c>
       <c r="J39" t="n">
-        <v>6.386402799535576</v>
+        <v>12.73725262555587</v>
       </c>
       <c r="K39" t="n">
-        <v>6.386402799535576</v>
+        <v>12.73725262555587</v>
       </c>
       <c r="L39" t="n">
-        <v>6.386402799535576</v>
+        <v>12.73725262555587</v>
       </c>
       <c r="M39" t="n">
-        <v>6.386402799535576</v>
+        <v>12.73725262555587</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>604.7162774660023</v>
+        <v>636.4352614053583</v>
       </c>
     </row>
     <row r="40">
@@ -2538,40 +2538,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>600.6479886418875</v>
+        <v>625.4346130635647</v>
       </c>
       <c r="D40" t="n">
-        <v>603.9230858724802</v>
+        <v>597.825071387527</v>
       </c>
       <c r="E40" t="n">
-        <v>684.4192773035679</v>
+        <v>674.5001378153605</v>
       </c>
       <c r="F40" t="n">
-        <v>600.6479886418875</v>
+        <v>625.4346130635647</v>
       </c>
       <c r="G40" t="n">
-        <v>600.6479886418875</v>
+        <v>625.4346130635647</v>
       </c>
       <c r="H40" t="n">
-        <v>41.50393850761137</v>
+        <v>10.21082904183232</v>
       </c>
       <c r="I40" t="n">
-        <v>41.50393850761137</v>
+        <v>10.21082904183232</v>
       </c>
       <c r="J40" t="n">
-        <v>41.50393850761137</v>
+        <v>10.21082904183232</v>
       </c>
       <c r="K40" t="n">
-        <v>41.50393850761137</v>
+        <v>10.21082904183232</v>
       </c>
       <c r="L40" t="n">
-        <v>41.50393850761137</v>
+        <v>10.21082904183232</v>
       </c>
       <c r="M40" t="n">
-        <v>41.50393850761137</v>
+        <v>10.21082904183232</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>642.1519271494989</v>
+        <v>635.645442105397</v>
       </c>
     </row>
     <row r="41">
@@ -2591,40 +2591,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>603.214471972004</v>
+        <v>627.2909831600002</v>
       </c>
       <c r="D41" t="n">
-        <v>579.5633567100861</v>
+        <v>615.3414696642816</v>
       </c>
       <c r="E41" t="n">
-        <v>657.1204040627396</v>
+        <v>693.5469698926688</v>
       </c>
       <c r="F41" t="n">
-        <v>603.214471972004</v>
+        <v>627.2909831600002</v>
       </c>
       <c r="G41" t="n">
-        <v>603.214471972004</v>
+        <v>627.2909831600002</v>
       </c>
       <c r="H41" t="n">
-        <v>15.42514591337212</v>
+        <v>26.10753063440736</v>
       </c>
       <c r="I41" t="n">
-        <v>15.42514591337212</v>
+        <v>26.10753063440736</v>
       </c>
       <c r="J41" t="n">
-        <v>15.42514591337212</v>
+        <v>26.10753063440736</v>
       </c>
       <c r="K41" t="n">
-        <v>15.42514591337212</v>
+        <v>26.10753063440736</v>
       </c>
       <c r="L41" t="n">
-        <v>15.42514591337212</v>
+        <v>26.10753063440736</v>
       </c>
       <c r="M41" t="n">
-        <v>15.42514591337212</v>
+        <v>26.10753063440736</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>618.6396178853762</v>
+        <v>653.3985137944076</v>
       </c>
     </row>
     <row r="42">
@@ -2644,40 +2644,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>605.6981655172782</v>
+        <v>629.087452687582</v>
       </c>
       <c r="D42" t="n">
-        <v>556.3124394677586</v>
+        <v>592.3636312177506</v>
       </c>
       <c r="E42" t="n">
-        <v>641.2184415630302</v>
+        <v>665.6608865737535</v>
       </c>
       <c r="F42" t="n">
-        <v>605.6981655172782</v>
+        <v>629.087452687582</v>
       </c>
       <c r="G42" t="n">
-        <v>605.6981655172782</v>
+        <v>629.087452687582</v>
       </c>
       <c r="H42" t="n">
-        <v>-6.145753291323641</v>
+        <v>1.786219632417142</v>
       </c>
       <c r="I42" t="n">
-        <v>-6.145753291323641</v>
+        <v>1.786219632417142</v>
       </c>
       <c r="J42" t="n">
-        <v>-6.145753291323641</v>
+        <v>1.786219632417142</v>
       </c>
       <c r="K42" t="n">
-        <v>-6.145753291323641</v>
+        <v>1.786219632417142</v>
       </c>
       <c r="L42" t="n">
-        <v>-6.145753291323641</v>
+        <v>1.786219632417142</v>
       </c>
       <c r="M42" t="n">
-        <v>-6.145753291323641</v>
+        <v>1.786219632417142</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>599.5524122259545</v>
+        <v>630.8736723199991</v>
       </c>
     </row>
     <row r="43">
@@ -2697,40 +2697,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>608.2646488445522</v>
+        <v>630.9438045327498</v>
       </c>
       <c r="D43" t="n">
-        <v>549.7812766962136</v>
+        <v>579.2288916045442</v>
       </c>
       <c r="E43" t="n">
-        <v>629.6965019204767</v>
+        <v>657.6918881218621</v>
       </c>
       <c r="F43" t="n">
-        <v>608.2646488445522</v>
+        <v>630.9438045327498</v>
       </c>
       <c r="G43" t="n">
-        <v>608.2646488445522</v>
+        <v>630.9438045327498</v>
       </c>
       <c r="H43" t="n">
-        <v>-17.77054522577625</v>
+        <v>-12.32738374960458</v>
       </c>
       <c r="I43" t="n">
-        <v>-17.77054522577625</v>
+        <v>-12.32738374960458</v>
       </c>
       <c r="J43" t="n">
-        <v>-17.77054522577625</v>
+        <v>-12.32738374960458</v>
       </c>
       <c r="K43" t="n">
-        <v>-17.77054522577625</v>
+        <v>-12.32738374960458</v>
       </c>
       <c r="L43" t="n">
-        <v>-17.77054522577625</v>
+        <v>-12.32738374960458</v>
       </c>
       <c r="M43" t="n">
-        <v>-17.77054522577625</v>
+        <v>-12.32738374960458</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>590.494103618776</v>
+        <v>618.6164207831453</v>
       </c>
     </row>
     <row r="44">
@@ -2750,40 +2750,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>610.7483423870754</v>
+        <v>632.7398597463159</v>
       </c>
       <c r="D44" t="n">
-        <v>583.8203103933904</v>
+        <v>560.1397557796216</v>
       </c>
       <c r="E44" t="n">
-        <v>661.4559478407318</v>
+        <v>636.1176447983426</v>
       </c>
       <c r="F44" t="n">
-        <v>610.7483423870754</v>
+        <v>632.7398597463159</v>
       </c>
       <c r="G44" t="n">
-        <v>610.7483423870754</v>
+        <v>632.7398597463159</v>
       </c>
       <c r="H44" t="n">
-        <v>13.03254927911674</v>
+        <v>-36.06230730710934</v>
       </c>
       <c r="I44" t="n">
-        <v>13.03254927911674</v>
+        <v>-36.06230730710934</v>
       </c>
       <c r="J44" t="n">
-        <v>13.03254927911674</v>
+        <v>-36.06230730710934</v>
       </c>
       <c r="K44" t="n">
-        <v>13.03254927911674</v>
+        <v>-36.06230730710934</v>
       </c>
       <c r="L44" t="n">
-        <v>13.03254927911674</v>
+        <v>-36.06230730710934</v>
       </c>
       <c r="M44" t="n">
-        <v>13.03254927911674</v>
+        <v>-36.06230730710934</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>623.7808916661921</v>
+        <v>596.6775524392066</v>
       </c>
     </row>
     <row r="45">
@@ -2803,40 +2803,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>613.3148257169935</v>
+        <v>634.5957834670008</v>
       </c>
       <c r="D45" t="n">
-        <v>576.3691950194062</v>
+        <v>615.9204638039976</v>
       </c>
       <c r="E45" t="n">
-        <v>657.2489276251731</v>
+        <v>690.4592672363854</v>
       </c>
       <c r="F45" t="n">
-        <v>613.3148257169935</v>
+        <v>634.5957834670008</v>
       </c>
       <c r="G45" t="n">
-        <v>613.3148257169935</v>
+        <v>634.5957834670008</v>
       </c>
       <c r="H45" t="n">
-        <v>1.537084551046631</v>
+        <v>16.8374658157387</v>
       </c>
       <c r="I45" t="n">
-        <v>1.537084551046631</v>
+        <v>16.8374658157387</v>
       </c>
       <c r="J45" t="n">
-        <v>1.537084551046631</v>
+        <v>16.8374658157387</v>
       </c>
       <c r="K45" t="n">
-        <v>1.537084551046631</v>
+        <v>16.8374658157387</v>
       </c>
       <c r="L45" t="n">
-        <v>1.537084551046631</v>
+        <v>16.8374658157387</v>
       </c>
       <c r="M45" t="n">
-        <v>1.537084551046631</v>
+        <v>16.8374658157387</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>614.8519102680401</v>
+        <v>651.4332492827396</v>
       </c>
     </row>
     <row r="46">
@@ -2856,40 +2856,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>615.8813090469115</v>
+        <v>631.156797286787</v>
       </c>
       <c r="D46" t="n">
-        <v>598.6537272444405</v>
+        <v>637.3931892255212</v>
       </c>
       <c r="E46" t="n">
-        <v>677.6978253195734</v>
+        <v>717.0730805163855</v>
       </c>
       <c r="F46" t="n">
-        <v>615.8813090469115</v>
+        <v>631.156797286787</v>
       </c>
       <c r="G46" t="n">
-        <v>615.8813090469115</v>
+        <v>631.156797286787</v>
       </c>
       <c r="H46" t="n">
-        <v>21.68725414309312</v>
+        <v>45.21572791218514</v>
       </c>
       <c r="I46" t="n">
-        <v>21.68725414309312</v>
+        <v>45.21572791218514</v>
       </c>
       <c r="J46" t="n">
-        <v>21.68725414309312</v>
+        <v>45.21572791218514</v>
       </c>
       <c r="K46" t="n">
-        <v>21.68725414309312</v>
+        <v>45.21572791218514</v>
       </c>
       <c r="L46" t="n">
-        <v>21.68725414309312</v>
+        <v>45.21572791218514</v>
       </c>
       <c r="M46" t="n">
-        <v>21.68725414309312</v>
+        <v>45.21572791218514</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>637.5685631900046</v>
+        <v>676.3725251989721</v>
       </c>
     </row>
     <row r="47">
@@ -2909,40 +2909,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>618.3650025919934</v>
+        <v>627.8287461446445</v>
       </c>
       <c r="D47" t="n">
-        <v>610.9714951966259</v>
+        <v>592.4036889375559</v>
       </c>
       <c r="E47" t="n">
-        <v>689.9559150651485</v>
+        <v>671.5135280169383</v>
       </c>
       <c r="F47" t="n">
-        <v>618.3650025919934</v>
+        <v>627.8287461446445</v>
       </c>
       <c r="G47" t="n">
-        <v>618.3650025919934</v>
+        <v>627.8287461446445</v>
       </c>
       <c r="H47" t="n">
-        <v>32.32163711248672</v>
+        <v>6.081437745378403</v>
       </c>
       <c r="I47" t="n">
-        <v>32.32163711248672</v>
+        <v>6.081437745378403</v>
       </c>
       <c r="J47" t="n">
-        <v>32.32163711248672</v>
+        <v>6.081437745378403</v>
       </c>
       <c r="K47" t="n">
-        <v>32.32163711248672</v>
+        <v>6.081437745378403</v>
       </c>
       <c r="L47" t="n">
-        <v>32.32163711248672</v>
+        <v>6.081437745378403</v>
       </c>
       <c r="M47" t="n">
-        <v>32.32163711248672</v>
+        <v>6.081437745378403</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>650.6866397044802</v>
+        <v>633.9101838900228</v>
       </c>
     </row>
     <row r="48">
@@ -2962,40 +2962,40 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>620.9314859193014</v>
+        <v>624.3866099621437</v>
       </c>
       <c r="D48" t="n">
-        <v>580.333151532695</v>
+        <v>572.645762465</v>
       </c>
       <c r="E48" t="n">
-        <v>659.1653204500974</v>
+        <v>653.9761384061006</v>
       </c>
       <c r="F48" t="n">
-        <v>620.9314859193014</v>
+        <v>624.3866099621437</v>
       </c>
       <c r="G48" t="n">
-        <v>620.9314859193014</v>
+        <v>624.3866099621437</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.682590803935319</v>
+        <v>-9.91009269745906</v>
       </c>
       <c r="I48" t="n">
-        <v>-2.682590803935319</v>
+        <v>-9.91009269745906</v>
       </c>
       <c r="J48" t="n">
-        <v>-2.682590803935319</v>
+        <v>-9.91009269745906</v>
       </c>
       <c r="K48" t="n">
-        <v>-2.682590803935319</v>
+        <v>-9.91009269745906</v>
       </c>
       <c r="L48" t="n">
-        <v>-2.682590803935319</v>
+        <v>-9.91009269745906</v>
       </c>
       <c r="M48" t="n">
-        <v>-2.682590803935319</v>
+        <v>-9.91009269745906</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>618.2488951153661</v>
+        <v>614.4765172646846</v>
       </c>
     </row>
     <row r="49">
@@ -3015,40 +3015,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>623.4151794618575</v>
+        <v>621.0555104306911</v>
       </c>
       <c r="D49" t="n">
-        <v>572.1250488191574</v>
+        <v>579.9124613747529</v>
       </c>
       <c r="E49" t="n">
-        <v>653.1085035570571</v>
+        <v>655.5172841883119</v>
       </c>
       <c r="F49" t="n">
-        <v>623.4151794618575</v>
+        <v>621.0555104306911</v>
       </c>
       <c r="G49" t="n">
-        <v>623.4151794618575</v>
+        <v>621.0555104306911</v>
       </c>
       <c r="H49" t="n">
-        <v>-10.81689771668878</v>
+        <v>-2.664381320624168</v>
       </c>
       <c r="I49" t="n">
-        <v>-10.81689771668878</v>
+        <v>-2.664381320624168</v>
       </c>
       <c r="J49" t="n">
-        <v>-10.81689771668878</v>
+        <v>-2.664381320624168</v>
       </c>
       <c r="K49" t="n">
-        <v>-10.81689771668878</v>
+        <v>-2.664381320624168</v>
       </c>
       <c r="L49" t="n">
-        <v>-10.81689771668878</v>
+        <v>-2.664381320624168</v>
       </c>
       <c r="M49" t="n">
-        <v>-10.81689771668878</v>
+        <v>-2.664381320624168</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>612.5982817451687</v>
+        <v>618.3911291100669</v>
       </c>
     </row>
     <row r="50">
@@ -3068,40 +3068,40 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>625.9816422575167</v>
+        <v>617.607432995563</v>
       </c>
       <c r="D50" t="n">
-        <v>595.015497979468</v>
+        <v>612.9280928873261</v>
       </c>
       <c r="E50" t="n">
-        <v>674.7038738597837</v>
+        <v>687.5293994999058</v>
       </c>
       <c r="F50" t="n">
-        <v>625.9816422575167</v>
+        <v>617.607432995563</v>
       </c>
       <c r="G50" t="n">
-        <v>625.9816422575167</v>
+        <v>617.607432995563</v>
       </c>
       <c r="H50" t="n">
-        <v>9.193767187935398</v>
+        <v>32.54061165979348</v>
       </c>
       <c r="I50" t="n">
-        <v>9.193767187935398</v>
+        <v>32.54061165979348</v>
       </c>
       <c r="J50" t="n">
-        <v>9.193767187935398</v>
+        <v>32.54061165979348</v>
       </c>
       <c r="K50" t="n">
-        <v>9.193767187935398</v>
+        <v>32.54061165979348</v>
       </c>
       <c r="L50" t="n">
-        <v>9.193767187935398</v>
+        <v>32.54061165979348</v>
       </c>
       <c r="M50" t="n">
-        <v>9.193767187935398</v>
+        <v>32.54061165979348</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>635.175409445452</v>
+        <v>650.1480446553566</v>
       </c>
     </row>
     <row r="51">
@@ -3121,40 +3121,40 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>628.5481050531757</v>
+        <v>614.159355560435</v>
       </c>
       <c r="D51" t="n">
-        <v>588.1767120083397</v>
+        <v>600.6992851805167</v>
       </c>
       <c r="E51" t="n">
-        <v>666.9603031710009</v>
+        <v>678.1086368310334</v>
       </c>
       <c r="F51" t="n">
-        <v>628.5481050531757</v>
+        <v>614.159355560435</v>
       </c>
       <c r="G51" t="n">
-        <v>628.5481050531757</v>
+        <v>614.159355560435</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.25674241028954</v>
+        <v>25.12030152198318</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.25674241028954</v>
+        <v>25.12030152198318</v>
       </c>
       <c r="J51" t="n">
-        <v>-1.25674241028954</v>
+        <v>25.12030152198318</v>
       </c>
       <c r="K51" t="n">
-        <v>-1.25674241028954</v>
+        <v>25.12030152198318</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.25674241028954</v>
+        <v>25.12030152198318</v>
       </c>
       <c r="M51" t="n">
-        <v>-1.25674241028954</v>
+        <v>25.12030152198318</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>627.2913626428862</v>
+        <v>639.2796570824181</v>
       </c>
     </row>
     <row r="52">
@@ -3174,40 +3174,40 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>630.9489896039537</v>
+        <v>611.0449580267309</v>
       </c>
       <c r="D52" t="n">
-        <v>591.1590029111745</v>
+        <v>594.0181469861444</v>
       </c>
       <c r="E52" t="n">
-        <v>675.042081049316</v>
+        <v>671.7742977744862</v>
       </c>
       <c r="F52" t="n">
-        <v>630.9489896039537</v>
+        <v>611.0449580267309</v>
       </c>
       <c r="G52" t="n">
-        <v>630.9489896039537</v>
+        <v>611.0449580267309</v>
       </c>
       <c r="H52" t="n">
-        <v>2.815186161178401</v>
+        <v>21.72055205107817</v>
       </c>
       <c r="I52" t="n">
-        <v>2.815186161178401</v>
+        <v>21.72055205107817</v>
       </c>
       <c r="J52" t="n">
-        <v>2.815186161178401</v>
+        <v>21.72055205107817</v>
       </c>
       <c r="K52" t="n">
-        <v>2.815186161178401</v>
+        <v>21.72055205107817</v>
       </c>
       <c r="L52" t="n">
-        <v>2.815186161178401</v>
+        <v>21.72055205107817</v>
       </c>
       <c r="M52" t="n">
-        <v>2.815186161178401</v>
+        <v>21.72055205107817</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>633.7641757651321</v>
+        <v>632.765510077809</v>
       </c>
     </row>
     <row r="53">
@@ -3227,40 +3227,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>633.5119599048695</v>
+        <v>607.5968750429871</v>
       </c>
       <c r="D53" t="n">
-        <v>605.7501524878639</v>
+        <v>587.1786197422438</v>
       </c>
       <c r="E53" t="n">
-        <v>689.7676233206041</v>
+        <v>669.1295040626678</v>
       </c>
       <c r="F53" t="n">
-        <v>633.5119599048695</v>
+        <v>607.5968750429871</v>
       </c>
       <c r="G53" t="n">
-        <v>633.5119599048695</v>
+        <v>607.5968750429871</v>
       </c>
       <c r="H53" t="n">
-        <v>14.40739931204493</v>
+        <v>22.01210891317734</v>
       </c>
       <c r="I53" t="n">
-        <v>14.40739931204493</v>
+        <v>22.01210891317734</v>
       </c>
       <c r="J53" t="n">
-        <v>14.40739931204493</v>
+        <v>22.01210891317734</v>
       </c>
       <c r="K53" t="n">
-        <v>14.40739931204493</v>
+        <v>22.01210891317734</v>
       </c>
       <c r="L53" t="n">
-        <v>14.40739931204493</v>
+        <v>22.01210891317734</v>
       </c>
       <c r="M53" t="n">
-        <v>14.40739931204493</v>
+        <v>22.01210891317734</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>647.9193592169145</v>
+        <v>629.6089839561645</v>
       </c>
     </row>
     <row r="54">
@@ -3280,40 +3280,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>635.9922537444655</v>
+        <v>604.2600205383918</v>
       </c>
       <c r="D54" t="n">
-        <v>604.1189160845814</v>
+        <v>564.584111344537</v>
       </c>
       <c r="E54" t="n">
-        <v>685.997578762791</v>
+        <v>641.9045657677401</v>
       </c>
       <c r="F54" t="n">
-        <v>635.9922537444655</v>
+        <v>604.2600205383918</v>
       </c>
       <c r="G54" t="n">
-        <v>635.9922537444655</v>
+        <v>604.2600205383918</v>
       </c>
       <c r="H54" t="n">
-        <v>8.723333001354193</v>
+        <v>-2.258261209886563</v>
       </c>
       <c r="I54" t="n">
-        <v>8.723333001354193</v>
+        <v>-2.258261209886563</v>
       </c>
       <c r="J54" t="n">
-        <v>8.723333001354193</v>
+        <v>-2.258261209886563</v>
       </c>
       <c r="K54" t="n">
-        <v>8.723333001354193</v>
+        <v>-2.258261209886563</v>
       </c>
       <c r="L54" t="n">
-        <v>8.723333001354193</v>
+        <v>-2.258261209886563</v>
       </c>
       <c r="M54" t="n">
-        <v>8.723333001354193</v>
+        <v>-2.258261209886563</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>644.7155867458197</v>
+        <v>602.0017593285053</v>
       </c>
     </row>
     <row r="55">
@@ -3333,40 +3333,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>638.5551774094988</v>
+        <v>600.8119375503102</v>
       </c>
       <c r="D55" t="n">
-        <v>587.345649203774</v>
+        <v>545.4272712626914</v>
       </c>
       <c r="E55" t="n">
-        <v>671.4758871783454</v>
+        <v>623.2235717224963</v>
       </c>
       <c r="F55" t="n">
-        <v>638.5551774094988</v>
+        <v>600.8119375503102</v>
       </c>
       <c r="G55" t="n">
-        <v>638.5551774094988</v>
+        <v>600.8119375503102</v>
       </c>
       <c r="H55" t="n">
-        <v>-9.639931013918417</v>
+        <v>-15.22720511071448</v>
       </c>
       <c r="I55" t="n">
-        <v>-9.639931013918417</v>
+        <v>-15.22720511071448</v>
       </c>
       <c r="J55" t="n">
-        <v>-9.639931013918417</v>
+        <v>-15.22720511071448</v>
       </c>
       <c r="K55" t="n">
-        <v>-9.639931013918417</v>
+        <v>-15.22720511071448</v>
       </c>
       <c r="L55" t="n">
-        <v>-9.639931013918417</v>
+        <v>-15.22720511071448</v>
       </c>
       <c r="M55" t="n">
-        <v>-9.639931013918417</v>
+        <v>-15.22720511071448</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>628.9152463955804</v>
+        <v>585.5847324395957</v>
       </c>
     </row>
     <row r="56">
@@ -3386,40 +3386,40 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>641.0354261175955</v>
+        <v>597.4750830457149</v>
       </c>
       <c r="D56" t="n">
-        <v>592.9748236303096</v>
+        <v>535.0589400218246</v>
       </c>
       <c r="E56" t="n">
-        <v>666.2993920942814</v>
+        <v>614.0028896670135</v>
       </c>
       <c r="F56" t="n">
-        <v>641.0354261175955</v>
+        <v>597.4750830457149</v>
       </c>
       <c r="G56" t="n">
-        <v>641.0354261175955</v>
+        <v>597.4750830457149</v>
       </c>
       <c r="H56" t="n">
-        <v>-10.08896813790308</v>
+        <v>-22.39449651135405</v>
       </c>
       <c r="I56" t="n">
-        <v>-10.08896813790308</v>
+        <v>-22.39449651135405</v>
       </c>
       <c r="J56" t="n">
-        <v>-10.08896813790308</v>
+        <v>-22.39449651135405</v>
       </c>
       <c r="K56" t="n">
-        <v>-10.08896813790308</v>
+        <v>-22.39449651135405</v>
       </c>
       <c r="L56" t="n">
-        <v>-10.08896813790308</v>
+        <v>-22.39449651135405</v>
       </c>
       <c r="M56" t="n">
-        <v>-10.08896813790308</v>
+        <v>-22.39449651135405</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>630.9464579796925</v>
+        <v>575.0805865343608</v>
       </c>
     </row>
     <row r="57">
@@ -3439,40 +3439,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>637.6197624074216</v>
+        <v>594.0270000576331</v>
       </c>
       <c r="D57" t="n">
-        <v>626.9451991237227</v>
+        <v>564.6703021902906</v>
       </c>
       <c r="E57" t="n">
-        <v>704.2830012302005</v>
+        <v>644.1746074396513</v>
       </c>
       <c r="F57" t="n">
-        <v>637.6197624074216</v>
+        <v>594.0270000576331</v>
       </c>
       <c r="G57" t="n">
-        <v>637.6197624074216</v>
+        <v>594.0270000576331</v>
       </c>
       <c r="H57" t="n">
-        <v>26.69350599063191</v>
+        <v>10.44422929478681</v>
       </c>
       <c r="I57" t="n">
-        <v>26.69350599063191</v>
+        <v>10.44422929478681</v>
       </c>
       <c r="J57" t="n">
-        <v>26.69350599063191</v>
+        <v>10.44422929478681</v>
       </c>
       <c r="K57" t="n">
-        <v>26.69350599063191</v>
+        <v>10.44422929478681</v>
       </c>
       <c r="L57" t="n">
-        <v>26.69350599063191</v>
+        <v>10.44422929478681</v>
       </c>
       <c r="M57" t="n">
-        <v>26.69350599063191</v>
+        <v>10.44422929478681</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>664.3132683980535</v>
+        <v>604.47122935242</v>
       </c>
     </row>
     <row r="58">
@@ -3492,40 +3492,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>634.2040986972478</v>
+        <v>590.5789170695513</v>
       </c>
       <c r="D58" t="n">
-        <v>623.2442533320117</v>
+        <v>587.5457428690576</v>
       </c>
       <c r="E58" t="n">
-        <v>703.7484054957121</v>
+        <v>663.3105453154794</v>
       </c>
       <c r="F58" t="n">
-        <v>634.2040986972478</v>
+        <v>590.5789170695513</v>
       </c>
       <c r="G58" t="n">
-        <v>634.2040986972478</v>
+        <v>590.5789170695513</v>
       </c>
       <c r="H58" t="n">
-        <v>28.58349050424318</v>
+        <v>34.67408676202141</v>
       </c>
       <c r="I58" t="n">
-        <v>28.58349050424318</v>
+        <v>34.67408676202141</v>
       </c>
       <c r="J58" t="n">
-        <v>28.58349050424318</v>
+        <v>34.67408676202141</v>
       </c>
       <c r="K58" t="n">
-        <v>28.58349050424318</v>
+        <v>34.67408676202141</v>
       </c>
       <c r="L58" t="n">
-        <v>28.58349050424318</v>
+        <v>34.67408676202141</v>
       </c>
       <c r="M58" t="n">
-        <v>28.58349050424318</v>
+        <v>34.67408676202141</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>662.787589201491</v>
+        <v>625.2530038315726</v>
       </c>
     </row>
     <row r="59">
@@ -3545,40 +3545,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>630.8986176874022</v>
+        <v>587.2420625649561</v>
       </c>
       <c r="D59" t="n">
-        <v>597.4097245121296</v>
+        <v>562.7980875986341</v>
       </c>
       <c r="E59" t="n">
-        <v>674.2253260564373</v>
+        <v>637.6361055655487</v>
       </c>
       <c r="F59" t="n">
-        <v>630.8986176874022</v>
+        <v>587.2420625649561</v>
       </c>
       <c r="G59" t="n">
-        <v>630.8986176874022</v>
+        <v>587.2420625649561</v>
       </c>
       <c r="H59" t="n">
-        <v>7.176481658748575</v>
+        <v>14.09672234412607</v>
       </c>
       <c r="I59" t="n">
-        <v>7.176481658748575</v>
+        <v>14.09672234412607</v>
       </c>
       <c r="J59" t="n">
-        <v>7.176481658748575</v>
+        <v>14.09672234412607</v>
       </c>
       <c r="K59" t="n">
-        <v>7.176481658748575</v>
+        <v>14.09672234412607</v>
       </c>
       <c r="L59" t="n">
-        <v>7.176481658748575</v>
+        <v>14.09672234412607</v>
       </c>
       <c r="M59" t="n">
-        <v>7.176481658748575</v>
+        <v>14.09672234412607</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>638.0750993461508</v>
+        <v>601.3387849090822</v>
       </c>
     </row>
     <row r="60">
@@ -3598,40 +3598,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>627.4787856895696</v>
+        <v>583.7939795768743</v>
       </c>
       <c r="D60" t="n">
-        <v>582.7174713301089</v>
+        <v>539.7320647395585</v>
       </c>
       <c r="E60" t="n">
-        <v>658.681288165477</v>
+        <v>616.6771778274993</v>
       </c>
       <c r="F60" t="n">
-        <v>627.4787856895696</v>
+        <v>583.7939795768743</v>
       </c>
       <c r="G60" t="n">
-        <v>627.4787856895696</v>
+        <v>583.7939795768743</v>
       </c>
       <c r="H60" t="n">
-        <v>-7.355906660853647</v>
+        <v>-6.229347475318433</v>
       </c>
       <c r="I60" t="n">
-        <v>-7.355906660853647</v>
+        <v>-6.229347475318433</v>
       </c>
       <c r="J60" t="n">
-        <v>-7.355906660853647</v>
+        <v>-6.229347475318433</v>
       </c>
       <c r="K60" t="n">
-        <v>-7.355906660853647</v>
+        <v>-6.229347475318433</v>
       </c>
       <c r="L60" t="n">
-        <v>-7.355906660853647</v>
+        <v>-6.229347475318433</v>
       </c>
       <c r="M60" t="n">
-        <v>-7.355906660853647</v>
+        <v>-6.229347475318433</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>620.1228790287159</v>
+        <v>577.564632101556</v>
       </c>
     </row>
     <row r="61">
@@ -3651,40 +3651,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>624.1692708529574</v>
+        <v>580.4571250722792</v>
       </c>
       <c r="D61" t="n">
-        <v>577.501251336137</v>
+        <v>537.1303238986507</v>
       </c>
       <c r="E61" t="n">
-        <v>659.1122201027455</v>
+        <v>615.6765962397349</v>
       </c>
       <c r="F61" t="n">
-        <v>624.1692708529574</v>
+        <v>580.4571250722792</v>
       </c>
       <c r="G61" t="n">
-        <v>624.1692708529574</v>
+        <v>580.4571250722792</v>
       </c>
       <c r="H61" t="n">
-        <v>-7.041119221325776</v>
+        <v>-2.108913000731076</v>
       </c>
       <c r="I61" t="n">
-        <v>-7.041119221325776</v>
+        <v>-2.108913000731076</v>
       </c>
       <c r="J61" t="n">
-        <v>-7.041119221325776</v>
+        <v>-2.108913000731076</v>
       </c>
       <c r="K61" t="n">
-        <v>-7.041119221325776</v>
+        <v>-2.108913000731076</v>
       </c>
       <c r="L61" t="n">
-        <v>-7.041119221325776</v>
+        <v>-2.108913000731076</v>
       </c>
       <c r="M61" t="n">
-        <v>-7.041119221325776</v>
+        <v>-2.108913000731076</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>617.1281516316317</v>
+        <v>578.3482120715481</v>
       </c>
     </row>
     <row r="62">
@@ -3704,40 +3704,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>620.7469064664782</v>
+        <v>577.0090420841973</v>
       </c>
       <c r="D62" t="n">
-        <v>605.4123278345387</v>
+        <v>565.8893218585885</v>
       </c>
       <c r="E62" t="n">
-        <v>684.444685272402</v>
+        <v>640.8407053456823</v>
       </c>
       <c r="F62" t="n">
-        <v>620.7469064664782</v>
+        <v>577.0090420841973</v>
       </c>
       <c r="G62" t="n">
-        <v>620.7469064664782</v>
+        <v>577.0090420841973</v>
       </c>
       <c r="H62" t="n">
-        <v>23.44981345971602</v>
+        <v>26.17096473154231</v>
       </c>
       <c r="I62" t="n">
-        <v>23.44981345971602</v>
+        <v>26.17096473154231</v>
       </c>
       <c r="J62" t="n">
-        <v>23.44981345971602</v>
+        <v>26.17096473154231</v>
       </c>
       <c r="K62" t="n">
-        <v>23.44981345971602</v>
+        <v>26.17096473154231</v>
       </c>
       <c r="L62" t="n">
-        <v>23.44981345971602</v>
+        <v>26.17096473154231</v>
       </c>
       <c r="M62" t="n">
-        <v>23.44981345971602</v>
+        <v>26.17096473154231</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>644.1967199261942</v>
+        <v>603.1800068157396</v>
       </c>
     </row>
     <row r="63">
@@ -3757,40 +3757,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>617.3245420799991</v>
+        <v>573.5609590961155</v>
       </c>
       <c r="D63" t="n">
-        <v>598.1965194458645</v>
+        <v>554.5170978420422</v>
       </c>
       <c r="E63" t="n">
-        <v>679.5965050590548</v>
+        <v>632.2562780624995</v>
       </c>
       <c r="F63" t="n">
-        <v>617.3245420799991</v>
+        <v>573.5609590961155</v>
       </c>
       <c r="G63" t="n">
-        <v>617.3245420799991</v>
+        <v>573.5609590961155</v>
       </c>
       <c r="H63" t="n">
-        <v>22.35559092424039</v>
+        <v>20.78561520865821</v>
       </c>
       <c r="I63" t="n">
-        <v>22.35559092424039</v>
+        <v>20.78561520865821</v>
       </c>
       <c r="J63" t="n">
-        <v>22.35559092424039</v>
+        <v>20.78561520865821</v>
       </c>
       <c r="K63" t="n">
-        <v>22.35559092424039</v>
+        <v>20.78561520865821</v>
       </c>
       <c r="L63" t="n">
-        <v>22.35559092424039</v>
+        <v>20.78561520865821</v>
       </c>
       <c r="M63" t="n">
-        <v>22.35559092424039</v>
+        <v>20.78561520865821</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>639.6801330042395</v>
+        <v>594.3465743047738</v>
       </c>
     </row>
     <row r="64">
@@ -3810,40 +3810,40 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>614.2333742470501</v>
+        <v>570.4465615584934</v>
       </c>
       <c r="D64" t="n">
-        <v>592.4974619972663</v>
+        <v>563.438460978679</v>
       </c>
       <c r="E64" t="n">
-        <v>668.9120014460779</v>
+        <v>641.6094588482316</v>
       </c>
       <c r="F64" t="n">
-        <v>614.2333742470501</v>
+        <v>570.4465615584934</v>
       </c>
       <c r="G64" t="n">
-        <v>614.2333742470501</v>
+        <v>570.4465615584934</v>
       </c>
       <c r="H64" t="n">
-        <v>15.6412978291657</v>
+        <v>33.20048977715852</v>
       </c>
       <c r="I64" t="n">
-        <v>15.6412978291657</v>
+        <v>33.20048977715852</v>
       </c>
       <c r="J64" t="n">
-        <v>15.6412978291657</v>
+        <v>33.20048977715852</v>
       </c>
       <c r="K64" t="n">
-        <v>15.6412978291657</v>
+        <v>33.20048977715852</v>
       </c>
       <c r="L64" t="n">
-        <v>15.6412978291657</v>
+        <v>33.20048977715852</v>
       </c>
       <c r="M64" t="n">
-        <v>15.6412978291657</v>
+        <v>33.20048977715852</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>629.8746720762158</v>
+        <v>603.6470513356519</v>
       </c>
     </row>
     <row r="65">
@@ -3863,40 +3863,40 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>610.8110098605709</v>
+        <v>566.9984785704115</v>
       </c>
       <c r="D65" t="n">
-        <v>584.3314648572144</v>
+        <v>544.9880348024362</v>
       </c>
       <c r="E65" t="n">
-        <v>666.8635192910284</v>
+        <v>623.7385165255341</v>
       </c>
       <c r="F65" t="n">
-        <v>610.8110098605709</v>
+        <v>566.9984785704115</v>
       </c>
       <c r="G65" t="n">
-        <v>610.8110098605709</v>
+        <v>566.9984785704115</v>
       </c>
       <c r="H65" t="n">
-        <v>14.97424197709158</v>
+        <v>17.71102787591974</v>
       </c>
       <c r="I65" t="n">
-        <v>14.97424197709158</v>
+        <v>17.71102787591974</v>
       </c>
       <c r="J65" t="n">
-        <v>14.97424197709158</v>
+        <v>17.71102787591974</v>
       </c>
       <c r="K65" t="n">
-        <v>14.97424197709158</v>
+        <v>17.71102787591974</v>
       </c>
       <c r="L65" t="n">
-        <v>14.97424197709158</v>
+        <v>17.71102787591974</v>
       </c>
       <c r="M65" t="n">
-        <v>14.97424197709158</v>
+        <v>17.71102787591974</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>625.7852518376625</v>
+        <v>584.7095064463313</v>
       </c>
     </row>
     <row r="66">
@@ -3916,40 +3916,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>607.4990443252685</v>
+        <v>563.6616240658163</v>
       </c>
       <c r="D66" t="n">
-        <v>565.4150803438305</v>
+        <v>519.334999553492</v>
       </c>
       <c r="E66" t="n">
-        <v>649.199491063916</v>
+        <v>596.9212111026393</v>
       </c>
       <c r="F66" t="n">
-        <v>607.4990443252685</v>
+        <v>563.6616240658163</v>
       </c>
       <c r="G66" t="n">
-        <v>607.4990443252685</v>
+        <v>563.6616240658163</v>
       </c>
       <c r="H66" t="n">
-        <v>3.836515782147068</v>
+        <v>-6.269523688409061</v>
       </c>
       <c r="I66" t="n">
-        <v>3.836515782147068</v>
+        <v>-6.269523688409061</v>
       </c>
       <c r="J66" t="n">
-        <v>3.836515782147068</v>
+        <v>-6.269523688409061</v>
       </c>
       <c r="K66" t="n">
-        <v>3.836515782147068</v>
+        <v>-6.269523688409061</v>
       </c>
       <c r="L66" t="n">
-        <v>3.836515782147068</v>
+        <v>-6.269523688409061</v>
       </c>
       <c r="M66" t="n">
-        <v>3.836515782147068</v>
+        <v>-6.269523688409061</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>611.3355601074156</v>
+        <v>557.3921003774072</v>
       </c>
     </row>
     <row r="67">
@@ -3969,40 +3969,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>604.0766799387892</v>
+        <v>560.2135410777345</v>
       </c>
       <c r="D67" t="n">
-        <v>551.796679140763</v>
+        <v>506.2687437748782</v>
       </c>
       <c r="E67" t="n">
-        <v>628.1485931046834</v>
+        <v>581.6797386057165</v>
       </c>
       <c r="F67" t="n">
-        <v>604.0766799387892</v>
+        <v>560.1794256863144</v>
       </c>
       <c r="G67" t="n">
-        <v>604.0766799387892</v>
+        <v>560.2644557241864</v>
       </c>
       <c r="H67" t="n">
-        <v>-12.47451857254434</v>
+        <v>-17.91097459883271</v>
       </c>
       <c r="I67" t="n">
-        <v>-12.47451857254434</v>
+        <v>-17.91097459883271</v>
       </c>
       <c r="J67" t="n">
-        <v>-12.47451857254434</v>
+        <v>-17.91097459883271</v>
       </c>
       <c r="K67" t="n">
-        <v>-12.47451857254434</v>
+        <v>-17.91097459883271</v>
       </c>
       <c r="L67" t="n">
-        <v>-12.47451857254434</v>
+        <v>-17.91097459883271</v>
       </c>
       <c r="M67" t="n">
-        <v>-12.47451857254434</v>
+        <v>-17.91097459883271</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>591.6021613662449</v>
+        <v>542.3025664789018</v>
       </c>
     </row>
     <row r="68">
@@ -4022,40 +4022,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>600.7647144034869</v>
+        <v>556.8766865731393</v>
       </c>
       <c r="D68" t="n">
-        <v>555.6097105469787</v>
+        <v>508.921787626397</v>
       </c>
       <c r="E68" t="n">
-        <v>639.9181578813821</v>
+        <v>587.9340207209044</v>
       </c>
       <c r="F68" t="n">
-        <v>600.7647144034869</v>
+        <v>556.6699238373053</v>
       </c>
       <c r="G68" t="n">
-        <v>600.7647144034869</v>
+        <v>557.1318058974592</v>
       </c>
       <c r="H68" t="n">
-        <v>-2.320978385407062</v>
+        <v>-8.799807722933215</v>
       </c>
       <c r="I68" t="n">
-        <v>-2.320978385407062</v>
+        <v>-8.799807722933215</v>
       </c>
       <c r="J68" t="n">
-        <v>-2.320978385407062</v>
+        <v>-8.799807722933215</v>
       </c>
       <c r="K68" t="n">
-        <v>-2.320978385407062</v>
+        <v>-8.799807722933215</v>
       </c>
       <c r="L68" t="n">
-        <v>-2.320978385407062</v>
+        <v>-8.799807722933215</v>
       </c>
       <c r="M68" t="n">
-        <v>-2.320978385407062</v>
+        <v>-8.799807722933215</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>598.4437360180798</v>
+        <v>548.0768788502061</v>
       </c>
     </row>
     <row r="69">
@@ -4075,40 +4075,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>597.3423500170077</v>
+        <v>553.4286035850575</v>
       </c>
       <c r="D69" t="n">
-        <v>573.4585455787292</v>
+        <v>518.3140283955729</v>
       </c>
       <c r="E69" t="n">
-        <v>653.526556894964</v>
+        <v>598.8139015206548</v>
       </c>
       <c r="F69" t="n">
-        <v>597.3423500170077</v>
+        <v>552.8901744682906</v>
       </c>
       <c r="G69" t="n">
-        <v>597.3423500170077</v>
+        <v>554.0069965454704</v>
       </c>
       <c r="H69" t="n">
-        <v>18.38621429715194</v>
+        <v>3.762701884361309</v>
       </c>
       <c r="I69" t="n">
-        <v>18.38621429715194</v>
+        <v>3.762701884361309</v>
       </c>
       <c r="J69" t="n">
-        <v>18.38621429715194</v>
+        <v>3.762701884361309</v>
       </c>
       <c r="K69" t="n">
-        <v>18.38621429715194</v>
+        <v>3.762701884361309</v>
       </c>
       <c r="L69" t="n">
-        <v>18.38621429715194</v>
+        <v>3.762701884361309</v>
       </c>
       <c r="M69" t="n">
-        <v>18.38621429715194</v>
+        <v>3.762701884361309</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>615.7285643141596</v>
+        <v>557.1913054694188</v>
       </c>
     </row>
     <row r="70">
@@ -4128,40 +4128,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>593.9199856305283</v>
+        <v>549.9805205969758</v>
       </c>
       <c r="D70" t="n">
-        <v>579.4836509917327</v>
+        <v>534.7552830401048</v>
       </c>
       <c r="E70" t="n">
-        <v>661.1758292910997</v>
+        <v>611.7006802326661</v>
       </c>
       <c r="F70" t="n">
-        <v>593.9199856305283</v>
+        <v>549.0290241402671</v>
       </c>
       <c r="G70" t="n">
-        <v>593.9199856305283</v>
+        <v>550.8774338215236</v>
       </c>
       <c r="H70" t="n">
-        <v>26.07785479813177</v>
+        <v>24.27193116369166</v>
       </c>
       <c r="I70" t="n">
-        <v>26.07785479813177</v>
+        <v>24.27193116369166</v>
       </c>
       <c r="J70" t="n">
-        <v>26.07785479813177</v>
+        <v>24.27193116369166</v>
       </c>
       <c r="K70" t="n">
-        <v>26.07785479813177</v>
+        <v>24.27193116369166</v>
       </c>
       <c r="L70" t="n">
-        <v>26.07785479813177</v>
+        <v>24.27193116369166</v>
       </c>
       <c r="M70" t="n">
-        <v>26.07785479813177</v>
+        <v>24.27193116369166</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>619.9978404286601</v>
+        <v>574.2524517606674</v>
       </c>
     </row>
     <row r="71">
@@ -4181,40 +4181,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>590.608020095226</v>
+        <v>546.6436660923805</v>
       </c>
       <c r="D71" t="n">
-        <v>565.4477226640827</v>
+        <v>529.0343590257804</v>
       </c>
       <c r="E71" t="n">
-        <v>645.1449284929163</v>
+        <v>606.0943228115143</v>
       </c>
       <c r="F71" t="n">
-        <v>590.608020095226</v>
+        <v>545.2884478168821</v>
       </c>
       <c r="G71" t="n">
-        <v>590.608020095226</v>
+        <v>548.0545058320947</v>
       </c>
       <c r="H71" t="n">
-        <v>15.5044293267084</v>
+        <v>22.30816637511617</v>
       </c>
       <c r="I71" t="n">
-        <v>15.5044293267084</v>
+        <v>22.30816637511617</v>
       </c>
       <c r="J71" t="n">
-        <v>15.5044293267084</v>
+        <v>22.30816637511617</v>
       </c>
       <c r="K71" t="n">
-        <v>15.5044293267084</v>
+        <v>22.30816637511617</v>
       </c>
       <c r="L71" t="n">
-        <v>15.5044293267084</v>
+        <v>22.30816637511617</v>
       </c>
       <c r="M71" t="n">
-        <v>15.5044293267084</v>
+        <v>22.30816637511617</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>606.1124494219345</v>
+        <v>568.9518324674966</v>
       </c>
     </row>
     <row r="72">
@@ -4234,40 +4234,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>587.1856557087468</v>
+        <v>543.1955831042987</v>
       </c>
       <c r="D72" t="n">
-        <v>542.4104515490125</v>
+        <v>500.2194881047268</v>
       </c>
       <c r="E72" t="n">
-        <v>621.2527120786025</v>
+        <v>579.3567514133398</v>
       </c>
       <c r="F72" t="n">
-        <v>587.1856557087468</v>
+        <v>541.4334168273995</v>
       </c>
       <c r="G72" t="n">
-        <v>587.1856557087468</v>
+        <v>545.0483391367089</v>
       </c>
       <c r="H72" t="n">
-        <v>-5.654579822101303</v>
+        <v>-2.621886249684957</v>
       </c>
       <c r="I72" t="n">
-        <v>-5.654579822101303</v>
+        <v>-2.621886249684957</v>
       </c>
       <c r="J72" t="n">
-        <v>-5.654579822101303</v>
+        <v>-2.621886249684957</v>
       </c>
       <c r="K72" t="n">
-        <v>-5.654579822101303</v>
+        <v>-2.621886249684957</v>
       </c>
       <c r="L72" t="n">
-        <v>-5.654579822101303</v>
+        <v>-2.621886249684957</v>
       </c>
       <c r="M72" t="n">
-        <v>-5.654579822101303</v>
+        <v>-2.621886249684957</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>581.5310758866456</v>
+        <v>540.5736968546138</v>
       </c>
     </row>
     <row r="73">
@@ -4287,40 +4287,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>583.8736901734444</v>
+        <v>539.8587285997035</v>
       </c>
       <c r="D73" t="n">
-        <v>535.627311043971</v>
+        <v>496.4868479808637</v>
       </c>
       <c r="E73" t="n">
-        <v>616.9727952567871</v>
+        <v>574.8876625314201</v>
       </c>
       <c r="F73" t="n">
-        <v>583.8736901734444</v>
+        <v>537.6547065709989</v>
       </c>
       <c r="G73" t="n">
-        <v>583.8736901734444</v>
+        <v>542.2473930578334</v>
       </c>
       <c r="H73" t="n">
-        <v>-8.162195446200597</v>
+        <v>-1.715985173902522</v>
       </c>
       <c r="I73" t="n">
-        <v>-8.162195446200597</v>
+        <v>-1.715985173902522</v>
       </c>
       <c r="J73" t="n">
-        <v>-8.162195446200597</v>
+        <v>-1.715985173902522</v>
       </c>
       <c r="K73" t="n">
-        <v>-8.162195446200597</v>
+        <v>-1.715985173902522</v>
       </c>
       <c r="L73" t="n">
-        <v>-8.162195446200597</v>
+        <v>-1.715985173902522</v>
       </c>
       <c r="M73" t="n">
-        <v>-8.162195446200597</v>
+        <v>-1.715985173902522</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>575.7114947272438</v>
+        <v>538.142743425801</v>
       </c>
     </row>
     <row r="74">
@@ -4340,40 +4340,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>580.4513257869653</v>
+        <v>536.4106456116217</v>
       </c>
       <c r="D74" t="n">
-        <v>558.6602751951759</v>
+        <v>518.8439878482817</v>
       </c>
       <c r="E74" t="n">
-        <v>638.6876821230223</v>
+        <v>595.3932111768444</v>
       </c>
       <c r="F74" t="n">
-        <v>580.4513257869653</v>
+        <v>533.7603051257848</v>
       </c>
       <c r="G74" t="n">
-        <v>580.4513257869653</v>
+        <v>539.2704136814878</v>
       </c>
       <c r="H74" t="n">
-        <v>18.76286726760186</v>
+        <v>19.74515901896049</v>
       </c>
       <c r="I74" t="n">
-        <v>18.76286726760186</v>
+        <v>19.74515901896049</v>
       </c>
       <c r="J74" t="n">
-        <v>18.76286726760186</v>
+        <v>19.74515901896049</v>
       </c>
       <c r="K74" t="n">
-        <v>18.76286726760186</v>
+        <v>19.74515901896049</v>
       </c>
       <c r="L74" t="n">
-        <v>18.76286726760186</v>
+        <v>19.74515901896049</v>
       </c>
       <c r="M74" t="n">
-        <v>18.76286726760186</v>
+        <v>19.74515901896049</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>599.2141930545672</v>
+        <v>556.1558046305822</v>
       </c>
     </row>
     <row r="75">
@@ -4393,40 +4393,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>577.028961400486</v>
+        <v>532.96256262354</v>
       </c>
       <c r="D75" t="n">
-        <v>548.8444893009432</v>
+        <v>510.7014073109985</v>
       </c>
       <c r="E75" t="n">
-        <v>633.4853207797134</v>
+        <v>589.0938944510991</v>
       </c>
       <c r="F75" t="n">
-        <v>577.028961400486</v>
+        <v>529.7177085973409</v>
       </c>
       <c r="G75" t="n">
-        <v>577.028961400486</v>
+        <v>536.3852503941824</v>
       </c>
       <c r="H75" t="n">
-        <v>14.25991695692548</v>
+        <v>16.65650618106435</v>
       </c>
       <c r="I75" t="n">
-        <v>14.25991695692548</v>
+        <v>16.65650618106435</v>
       </c>
       <c r="J75" t="n">
-        <v>14.25991695692548</v>
+        <v>16.65650618106435</v>
       </c>
       <c r="K75" t="n">
-        <v>14.25991695692548</v>
+        <v>16.65650618106435</v>
       </c>
       <c r="L75" t="n">
-        <v>14.25991695692548</v>
+        <v>16.65650618106435</v>
       </c>
       <c r="M75" t="n">
-        <v>14.25991695692548</v>
+        <v>16.65650618106435</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>591.2888783574115</v>
+        <v>549.6190688046044</v>
       </c>
     </row>
     <row r="76">
@@ -4446,40 +4446,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>573.937793567537</v>
+        <v>529.8481650859177</v>
       </c>
       <c r="D76" t="n">
-        <v>564.7117304505564</v>
+        <v>535.0449455604615</v>
       </c>
       <c r="E76" t="n">
-        <v>639.7455767301528</v>
+        <v>612.6764242663335</v>
       </c>
       <c r="F76" t="n">
-        <v>573.937793567537</v>
+        <v>526.0910718364947</v>
       </c>
       <c r="G76" t="n">
-        <v>573.937793567537</v>
+        <v>533.9293384897749</v>
       </c>
       <c r="H76" t="n">
-        <v>28.54230284087347</v>
+        <v>44.63891419712887</v>
       </c>
       <c r="I76" t="n">
-        <v>28.54230284087347</v>
+        <v>44.63891419712887</v>
       </c>
       <c r="J76" t="n">
-        <v>28.54230284087347</v>
+        <v>44.63891419712887</v>
       </c>
       <c r="K76" t="n">
-        <v>28.54230284087347</v>
+        <v>44.63891419712887</v>
       </c>
       <c r="L76" t="n">
-        <v>28.54230284087347</v>
+        <v>44.63891419712887</v>
       </c>
       <c r="M76" t="n">
-        <v>28.54230284087347</v>
+        <v>44.63891419712887</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>602.4800964084105</v>
+        <v>574.4870792830466</v>
       </c>
     </row>
     <row r="77">
@@ -4499,40 +4499,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>570.5154291810579</v>
+        <v>526.400082097836</v>
       </c>
       <c r="D77" t="n">
-        <v>545.085195534944</v>
+        <v>498.18035805632</v>
       </c>
       <c r="E77" t="n">
-        <v>624.413112800858</v>
+        <v>577.0752941382748</v>
       </c>
       <c r="F77" t="n">
-        <v>570.5154291810579</v>
+        <v>522.0203681631821</v>
       </c>
       <c r="G77" t="n">
-        <v>570.5154291810579</v>
+        <v>531.2423043426884</v>
       </c>
       <c r="H77" t="n">
-        <v>15.31444620056714</v>
+        <v>13.20738023516564</v>
       </c>
       <c r="I77" t="n">
-        <v>15.31444620056714</v>
+        <v>13.20738023516564</v>
       </c>
       <c r="J77" t="n">
-        <v>15.31444620056714</v>
+        <v>13.20738023516564</v>
       </c>
       <c r="K77" t="n">
-        <v>15.31444620056714</v>
+        <v>13.20738023516564</v>
       </c>
       <c r="L77" t="n">
-        <v>15.31444620056714</v>
+        <v>13.20738023516564</v>
       </c>
       <c r="M77" t="n">
-        <v>15.31444620056714</v>
+        <v>13.20738023516564</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>585.829875381625</v>
+        <v>539.6074623330016</v>
       </c>
     </row>
     <row r="78">
@@ -4552,40 +4552,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>567.2034636457554</v>
+        <v>523.0632275932408</v>
       </c>
       <c r="D78" t="n">
-        <v>526.8456377281075</v>
+        <v>473.2796567033949</v>
       </c>
       <c r="E78" t="n">
-        <v>611.8088090150391</v>
+        <v>552.9357212081916</v>
       </c>
       <c r="F78" t="n">
-        <v>567.1480979669714</v>
+        <v>518.1171050745024</v>
       </c>
       <c r="G78" t="n">
-        <v>567.2277256064863</v>
+        <v>528.5716608850529</v>
       </c>
       <c r="H78" t="n">
-        <v>-1.121989977972009</v>
+        <v>-10.24108585580923</v>
       </c>
       <c r="I78" t="n">
-        <v>-1.121989977972009</v>
+        <v>-10.24108585580923</v>
       </c>
       <c r="J78" t="n">
-        <v>-1.121989977972009</v>
+        <v>-10.24108585580923</v>
       </c>
       <c r="K78" t="n">
-        <v>-1.121989977972009</v>
+        <v>-10.24108585580923</v>
       </c>
       <c r="L78" t="n">
-        <v>-1.121989977972009</v>
+        <v>-10.24108585580923</v>
       </c>
       <c r="M78" t="n">
-        <v>-1.121989977972009</v>
+        <v>-10.24108585580923</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>566.0814736677834</v>
+        <v>512.8221417374315</v>
       </c>
     </row>
     <row r="79">
@@ -4605,40 +4605,40 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>563.7810992592763</v>
+        <v>519.615144605159</v>
       </c>
       <c r="D79" t="n">
-        <v>509.594068799787</v>
+        <v>459.3313195820875</v>
       </c>
       <c r="E79" t="n">
-        <v>585.7402643846734</v>
+        <v>539.1034050294654</v>
       </c>
       <c r="F79" t="n">
-        <v>563.3971209311048</v>
+        <v>514.0788133078082</v>
       </c>
       <c r="G79" t="n">
-        <v>564.1134560059701</v>
+        <v>525.8217893985511</v>
       </c>
       <c r="H79" t="n">
-        <v>-15.18568811025926</v>
+        <v>-20.37775774317783</v>
       </c>
       <c r="I79" t="n">
-        <v>-15.18568811025926</v>
+        <v>-20.37775774317783</v>
       </c>
       <c r="J79" t="n">
-        <v>-15.18568811025926</v>
+        <v>-20.37775774317783</v>
       </c>
       <c r="K79" t="n">
-        <v>-15.18568811025926</v>
+        <v>-20.37775774317783</v>
       </c>
       <c r="L79" t="n">
-        <v>-15.18568811025926</v>
+        <v>-20.37775774317783</v>
       </c>
       <c r="M79" t="n">
-        <v>-15.18568811025926</v>
+        <v>-20.37775774317783</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>548.5954111490171</v>
+        <v>499.2373868619812</v>
       </c>
     </row>
     <row r="80">
@@ -4658,40 +4658,40 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>560.4691337239739</v>
+        <v>516.2782901005637</v>
       </c>
       <c r="D80" t="n">
-        <v>525.6990693832887</v>
+        <v>480.0756469263244</v>
       </c>
       <c r="E80" t="n">
-        <v>607.3713078664972</v>
+        <v>557.2013254524212</v>
       </c>
       <c r="F80" t="n">
-        <v>559.5882238662626</v>
+        <v>510.0416162362732</v>
       </c>
       <c r="G80" t="n">
-        <v>561.2788591617104</v>
+        <v>523.1658407025675</v>
       </c>
       <c r="H80" t="n">
-        <v>5.388125699044974</v>
+        <v>4.708435535106395</v>
       </c>
       <c r="I80" t="n">
-        <v>5.388125699044974</v>
+        <v>4.708435535106395</v>
       </c>
       <c r="J80" t="n">
-        <v>5.388125699044974</v>
+        <v>4.708435535106395</v>
       </c>
       <c r="K80" t="n">
-        <v>5.388125699044974</v>
+        <v>4.708435535106395</v>
       </c>
       <c r="L80" t="n">
-        <v>5.388125699044974</v>
+        <v>4.708435535106395</v>
       </c>
       <c r="M80" t="n">
-        <v>5.388125699044974</v>
+        <v>4.708435535106395</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>565.8572594230188</v>
+        <v>520.9867256356702</v>
       </c>
     </row>
     <row r="81">
@@ -4711,40 +4711,40 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>557.0467693374945</v>
+        <v>512.830207112482</v>
       </c>
       <c r="D81" t="n">
-        <v>526.7706500243885</v>
+        <v>469.7749360830367</v>
       </c>
       <c r="E81" t="n">
-        <v>608.873318663036</v>
+        <v>549.9919412662096</v>
       </c>
       <c r="F81" t="n">
-        <v>555.5878171650522</v>
+        <v>505.9978290676654</v>
       </c>
       <c r="G81" t="n">
-        <v>558.4255070971592</v>
+        <v>520.3609269201806</v>
       </c>
       <c r="H81" t="n">
-        <v>9.998056842171652</v>
+        <v>-3.200563803853565</v>
       </c>
       <c r="I81" t="n">
-        <v>9.998056842171652</v>
+        <v>-3.200563803853565</v>
       </c>
       <c r="J81" t="n">
-        <v>9.998056842171652</v>
+        <v>-3.200563803853565</v>
       </c>
       <c r="K81" t="n">
-        <v>9.998056842171652</v>
+        <v>-3.200563803853565</v>
       </c>
       <c r="L81" t="n">
-        <v>9.998056842171652</v>
+        <v>-3.200563803853565</v>
       </c>
       <c r="M81" t="n">
-        <v>9.998056842171652</v>
+        <v>-3.200563803853565</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>567.0448261796662</v>
+        <v>509.6296433086284</v>
       </c>
     </row>
     <row r="82">
@@ -4764,40 +4764,40 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>553.6244049510154</v>
+        <v>509.3821241244003</v>
       </c>
       <c r="D82" t="n">
-        <v>538.4826650903267</v>
+        <v>483.3453885840253</v>
       </c>
       <c r="E82" t="n">
-        <v>618.320912035937</v>
+        <v>561.882535094264</v>
       </c>
       <c r="F82" t="n">
-        <v>551.55473258796</v>
+        <v>501.8498429041477</v>
       </c>
       <c r="G82" t="n">
-        <v>555.7224601016361</v>
+        <v>517.7065185050957</v>
       </c>
       <c r="H82" t="n">
-        <v>23.77824960736175</v>
+        <v>14.02100089456555</v>
       </c>
       <c r="I82" t="n">
-        <v>23.77824960736175</v>
+        <v>14.02100089456555</v>
       </c>
       <c r="J82" t="n">
-        <v>23.77824960736175</v>
+        <v>14.02100089456555</v>
       </c>
       <c r="K82" t="n">
-        <v>23.77824960736175</v>
+        <v>14.02100089456555</v>
       </c>
       <c r="L82" t="n">
-        <v>23.77824960736175</v>
+        <v>14.02100089456555</v>
       </c>
       <c r="M82" t="n">
-        <v>23.77824960736175</v>
+        <v>14.02100089456555</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>577.4026545583772</v>
+        <v>523.4031250189659</v>
       </c>
     </row>
     <row r="83">
@@ -4817,40 +4817,40 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>550.312439415713</v>
+        <v>506.045269619805</v>
       </c>
       <c r="D83" t="n">
-        <v>534.4728560136848</v>
+        <v>497.9822886917696</v>
       </c>
       <c r="E83" t="n">
-        <v>614.7744685035174</v>
+        <v>577.2060857475212</v>
       </c>
       <c r="F83" t="n">
-        <v>547.5247039998928</v>
+        <v>497.7190234343924</v>
       </c>
       <c r="G83" t="n">
-        <v>553.2355271658014</v>
+        <v>515.1118760974412</v>
       </c>
       <c r="H83" t="n">
-        <v>23.88940376751339</v>
+        <v>30.70798757433421</v>
       </c>
       <c r="I83" t="n">
-        <v>23.88940376751339</v>
+        <v>30.70798757433421</v>
       </c>
       <c r="J83" t="n">
-        <v>23.88940376751339</v>
+        <v>30.70798757433421</v>
       </c>
       <c r="K83" t="n">
-        <v>23.88940376751339</v>
+        <v>30.70798757433421</v>
       </c>
       <c r="L83" t="n">
-        <v>23.88940376751339</v>
+        <v>30.70798757433421</v>
       </c>
       <c r="M83" t="n">
-        <v>23.88940376751339</v>
+        <v>30.70798757433421</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,590 +4862,7 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>574.2018431832264</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C84" t="n">
-        <v>546.8900750292338</v>
-      </c>
-      <c r="D84" t="n">
-        <v>498.484270608055</v>
-      </c>
-      <c r="E84" t="n">
-        <v>583.9139779527904</v>
-      </c>
-      <c r="F84" t="n">
-        <v>543.4004013611989</v>
-      </c>
-      <c r="G84" t="n">
-        <v>550.726704315815</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-4.095499959208851</v>
-      </c>
-      <c r="I84" t="n">
-        <v>-4.095499959208851</v>
-      </c>
-      <c r="J84" t="n">
-        <v>-4.095499959208851</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-4.095499959208851</v>
-      </c>
-      <c r="L84" t="n">
-        <v>-4.095499959208851</v>
-      </c>
-      <c r="M84" t="n">
-        <v>-4.095499959208851</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>542.794575070025</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="C85" t="n">
-        <v>543.5781094939313</v>
-      </c>
-      <c r="D85" t="n">
-        <v>490.7520356491265</v>
-      </c>
-      <c r="E85" t="n">
-        <v>574.9758296579939</v>
-      </c>
-      <c r="F85" t="n">
-        <v>539.1849101826963</v>
-      </c>
-      <c r="G85" t="n">
-        <v>548.2116977385629</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-9.421677765942318</v>
-      </c>
-      <c r="I85" t="n">
-        <v>-9.421677765942318</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-9.421677765942318</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-9.421677765942318</v>
-      </c>
-      <c r="L85" t="n">
-        <v>-9.421677765942318</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-9.421677765942318</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>534.156431727989</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="C86" t="n">
-        <v>540.1557451074522</v>
-      </c>
-      <c r="D86" t="n">
-        <v>515.3378446967422</v>
-      </c>
-      <c r="E86" t="n">
-        <v>596.4126269991975</v>
-      </c>
-      <c r="F86" t="n">
-        <v>534.9194374248052</v>
-      </c>
-      <c r="G86" t="n">
-        <v>545.8351718120613</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14.00812969138394</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14.00812969138394</v>
-      </c>
-      <c r="J86" t="n">
-        <v>14.00812969138394</v>
-      </c>
-      <c r="K86" t="n">
-        <v>14.00812969138394</v>
-      </c>
-      <c r="L86" t="n">
-        <v>14.00812969138394</v>
-      </c>
-      <c r="M86" t="n">
-        <v>14.00812969138394</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>554.1638747988361</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="C87" t="n">
-        <v>536.7333807209731</v>
-      </c>
-      <c r="D87" t="n">
-        <v>504.9406070883974</v>
-      </c>
-      <c r="E87" t="n">
-        <v>581.0003818595789</v>
-      </c>
-      <c r="F87" t="n">
-        <v>530.1599841567628</v>
-      </c>
-      <c r="G87" t="n">
-        <v>543.1416509831394</v>
-      </c>
-      <c r="H87" t="n">
-        <v>6.386402799556339</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6.386402799556339</v>
-      </c>
-      <c r="J87" t="n">
-        <v>6.386402799556339</v>
-      </c>
-      <c r="K87" t="n">
-        <v>6.386402799556339</v>
-      </c>
-      <c r="L87" t="n">
-        <v>6.386402799556339</v>
-      </c>
-      <c r="M87" t="n">
-        <v>6.386402799556339</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>543.1197835205294</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="C88" t="n">
-        <v>533.6422128880241</v>
-      </c>
-      <c r="D88" t="n">
-        <v>537.8531439323248</v>
-      </c>
-      <c r="E88" t="n">
-        <v>615.4709076677677</v>
-      </c>
-      <c r="F88" t="n">
-        <v>526.0034312638278</v>
-      </c>
-      <c r="G88" t="n">
-        <v>540.8521495697854</v>
-      </c>
-      <c r="H88" t="n">
-        <v>41.5039385075903</v>
-      </c>
-      <c r="I88" t="n">
-        <v>41.5039385075903</v>
-      </c>
-      <c r="J88" t="n">
-        <v>41.5039385075903</v>
-      </c>
-      <c r="K88" t="n">
-        <v>41.5039385075903</v>
-      </c>
-      <c r="L88" t="n">
-        <v>41.5039385075903</v>
-      </c>
-      <c r="M88" t="n">
-        <v>41.5039385075903</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>575.1461513956144</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="C89" t="n">
-        <v>530.2198485015449</v>
-      </c>
-      <c r="D89" t="n">
-        <v>504.8177939145301</v>
-      </c>
-      <c r="E89" t="n">
-        <v>588.5322059194974</v>
-      </c>
-      <c r="F89" t="n">
-        <v>521.7365971202428</v>
-      </c>
-      <c r="G89" t="n">
-        <v>538.2867972816792</v>
-      </c>
-      <c r="H89" t="n">
-        <v>15.42514591340725</v>
-      </c>
-      <c r="I89" t="n">
-        <v>15.42514591340725</v>
-      </c>
-      <c r="J89" t="n">
-        <v>15.42514591340725</v>
-      </c>
-      <c r="K89" t="n">
-        <v>15.42514591340725</v>
-      </c>
-      <c r="L89" t="n">
-        <v>15.42514591340725</v>
-      </c>
-      <c r="M89" t="n">
-        <v>15.42514591340725</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>545.6449944149522</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="C90" t="n">
-        <v>526.9078829662425</v>
-      </c>
-      <c r="D90" t="n">
-        <v>477.6144296562206</v>
-      </c>
-      <c r="E90" t="n">
-        <v>562.2801850053428</v>
-      </c>
-      <c r="F90" t="n">
-        <v>517.2800417975445</v>
-      </c>
-      <c r="G90" t="n">
-        <v>536.1095922663882</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-6.145753291310198</v>
-      </c>
-      <c r="I90" t="n">
-        <v>-6.145753291310198</v>
-      </c>
-      <c r="J90" t="n">
-        <v>-6.145753291310198</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-6.145753291310198</v>
-      </c>
-      <c r="L90" t="n">
-        <v>-6.145753291310198</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-6.145753291310198</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>520.7621296749323</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C91" t="n">
-        <v>523.4855185797633</v>
-      </c>
-      <c r="D91" t="n">
-        <v>464.7359512763549</v>
-      </c>
-      <c r="E91" t="n">
-        <v>547.998235540605</v>
-      </c>
-      <c r="F91" t="n">
-        <v>512.4784923649953</v>
-      </c>
-      <c r="G91" t="n">
-        <v>533.8601304675265</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-17.77054522579138</v>
-      </c>
-      <c r="I91" t="n">
-        <v>-17.77054522579138</v>
-      </c>
-      <c r="J91" t="n">
-        <v>-17.77054522579138</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-17.77054522579138</v>
-      </c>
-      <c r="L91" t="n">
-        <v>-17.77054522579138</v>
-      </c>
-      <c r="M91" t="n">
-        <v>-17.77054522579138</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>505.7149733539719</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="C92" t="n">
-        <v>520.1735530444608</v>
-      </c>
-      <c r="D92" t="n">
-        <v>491.2741267604378</v>
-      </c>
-      <c r="E92" t="n">
-        <v>574.4347052774318</v>
-      </c>
-      <c r="F92" t="n">
-        <v>508.0501413934492</v>
-      </c>
-      <c r="G92" t="n">
-        <v>531.7338257439819</v>
-      </c>
-      <c r="H92" t="n">
-        <v>13.03254927916729</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13.03254927916729</v>
-      </c>
-      <c r="J92" t="n">
-        <v>13.03254927916729</v>
-      </c>
-      <c r="K92" t="n">
-        <v>13.03254927916729</v>
-      </c>
-      <c r="L92" t="n">
-        <v>13.03254927916729</v>
-      </c>
-      <c r="M92" t="n">
-        <v>13.03254927916729</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>533.2061023236281</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C93" t="n">
-        <v>516.7511886579816</v>
-      </c>
-      <c r="D93" t="n">
-        <v>475.3764969808516</v>
-      </c>
-      <c r="E93" t="n">
-        <v>562.0981987581192</v>
-      </c>
-      <c r="F93" t="n">
-        <v>503.5174523853598</v>
-      </c>
-      <c r="G93" t="n">
-        <v>529.4598865422898</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1.537084551070292</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1.537084551070292</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.537084551070292</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1.537084551070292</v>
-      </c>
-      <c r="L93" t="n">
-        <v>1.537084551070292</v>
-      </c>
-      <c r="M93" t="n">
-        <v>1.537084551070292</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>518.2882732090519</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="C94" t="n">
-        <v>513.3288242715024</v>
-      </c>
-      <c r="D94" t="n">
-        <v>494.9253256568134</v>
-      </c>
-      <c r="E94" t="n">
-        <v>577.4243807944237</v>
-      </c>
-      <c r="F94" t="n">
-        <v>498.8878787440011</v>
-      </c>
-      <c r="G94" t="n">
-        <v>527.2477418638114</v>
-      </c>
-      <c r="H94" t="n">
-        <v>21.68725414302144</v>
-      </c>
-      <c r="I94" t="n">
-        <v>21.68725414302144</v>
-      </c>
-      <c r="J94" t="n">
-        <v>21.68725414302144</v>
-      </c>
-      <c r="K94" t="n">
-        <v>21.68725414302144</v>
-      </c>
-      <c r="L94" t="n">
-        <v>21.68725414302144</v>
-      </c>
-      <c r="M94" t="n">
-        <v>21.68725414302144</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>535.0160784145238</v>
+        <v>536.7532571941392</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/aht/cb_retention_aht_monthly.xlsx
+++ b/outputs/aht/cb_retention_aht_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>556.5068953286071</v>
+        <v>558.3499511055909</v>
       </c>
       <c r="D2" t="n">
-        <v>554.4338306645737</v>
+        <v>549.7331274293896</v>
       </c>
       <c r="E2" t="n">
-        <v>627.4428875508625</v>
+        <v>627.7487517492058</v>
       </c>
       <c r="F2" t="n">
-        <v>556.5068953286071</v>
+        <v>558.3499511055909</v>
       </c>
       <c r="G2" t="n">
-        <v>556.5068953286071</v>
+        <v>558.3499511055909</v>
       </c>
       <c r="H2" t="n">
-        <v>32.54061165980782</v>
+        <v>30.59106400271563</v>
       </c>
       <c r="I2" t="n">
-        <v>32.54061165980782</v>
+        <v>30.59106400271563</v>
       </c>
       <c r="J2" t="n">
-        <v>32.54061165980782</v>
+        <v>30.59106400271563</v>
       </c>
       <c r="K2" t="n">
-        <v>32.54061165980782</v>
+        <v>30.59106400271563</v>
       </c>
       <c r="L2" t="n">
-        <v>32.54061165980782</v>
+        <v>30.59106400271563</v>
       </c>
       <c r="M2" t="n">
-        <v>32.54061165980782</v>
+        <v>30.59106400271563</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>589.047506988415</v>
+        <v>588.9410151083065</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>558.3521555673525</v>
+        <v>560.1319531242701</v>
       </c>
       <c r="D3" t="n">
-        <v>544.315819697195</v>
+        <v>541.8686946601919</v>
       </c>
       <c r="E3" t="n">
-        <v>623.3281473049108</v>
+        <v>623.1792253475504</v>
       </c>
       <c r="F3" t="n">
-        <v>558.3521555673525</v>
+        <v>560.1319531242701</v>
       </c>
       <c r="G3" t="n">
-        <v>558.3521555673525</v>
+        <v>560.1319531242701</v>
       </c>
       <c r="H3" t="n">
-        <v>25.12030152200425</v>
+        <v>22.97087264567222</v>
       </c>
       <c r="I3" t="n">
-        <v>25.12030152200425</v>
+        <v>22.97087264567222</v>
       </c>
       <c r="J3" t="n">
-        <v>25.12030152200425</v>
+        <v>22.97087264567222</v>
       </c>
       <c r="K3" t="n">
-        <v>25.12030152200425</v>
+        <v>22.97087264567222</v>
       </c>
       <c r="L3" t="n">
-        <v>25.12030152200425</v>
+        <v>22.97087264567222</v>
       </c>
       <c r="M3" t="n">
-        <v>25.12030152200425</v>
+        <v>22.97087264567222</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>583.4724570893568</v>
+        <v>583.1028257699423</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>560.0188422346065</v>
+        <v>561.7415033346902</v>
       </c>
       <c r="D4" t="n">
-        <v>544.4650864543751</v>
+        <v>539.6229539444806</v>
       </c>
       <c r="E4" t="n">
-        <v>622.2536819042637</v>
+        <v>619.8927274410212</v>
       </c>
       <c r="F4" t="n">
-        <v>560.0188422346065</v>
+        <v>561.7415033346902</v>
       </c>
       <c r="G4" t="n">
-        <v>560.0188422346065</v>
+        <v>561.7415033346902</v>
       </c>
       <c r="H4" t="n">
-        <v>21.72055205103348</v>
+        <v>20.55181094534904</v>
       </c>
       <c r="I4" t="n">
-        <v>21.72055205103348</v>
+        <v>20.55181094534904</v>
       </c>
       <c r="J4" t="n">
-        <v>21.72055205103348</v>
+        <v>20.55181094534904</v>
       </c>
       <c r="K4" t="n">
-        <v>21.72055205103348</v>
+        <v>20.55181094534904</v>
       </c>
       <c r="L4" t="n">
-        <v>21.72055205103348</v>
+        <v>20.55181094534904</v>
       </c>
       <c r="M4" t="n">
-        <v>21.72055205103348</v>
+        <v>20.55181094534904</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>581.7393942856399</v>
+        <v>582.2933142800392</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>561.864102469587</v>
+        <v>563.5235053557907</v>
       </c>
       <c r="D5" t="n">
-        <v>547.159173943718</v>
+        <v>544.8257504599665</v>
       </c>
       <c r="E5" t="n">
-        <v>624.6666695174137</v>
+        <v>624.4763924409544</v>
       </c>
       <c r="F5" t="n">
-        <v>561.864102469587</v>
+        <v>563.5235053557907</v>
       </c>
       <c r="G5" t="n">
-        <v>561.864102469587</v>
+        <v>563.5235053557907</v>
       </c>
       <c r="H5" t="n">
-        <v>22.01210891319408</v>
+        <v>20.74950344935004</v>
       </c>
       <c r="I5" t="n">
-        <v>22.01210891319408</v>
+        <v>20.74950344935004</v>
       </c>
       <c r="J5" t="n">
-        <v>22.01210891319408</v>
+        <v>20.74950344935004</v>
       </c>
       <c r="K5" t="n">
-        <v>22.01210891319408</v>
+        <v>20.74950344935004</v>
       </c>
       <c r="L5" t="n">
-        <v>22.01210891319408</v>
+        <v>20.74950344935004</v>
       </c>
       <c r="M5" t="n">
-        <v>22.01210891319408</v>
+        <v>20.74950344935004</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>583.8762113827811</v>
+        <v>584.2730088051408</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>563.6498381808584</v>
+        <v>565.2480234407267</v>
       </c>
       <c r="D6" t="n">
-        <v>519.8600946840096</v>
+        <v>525.1840820641315</v>
       </c>
       <c r="E6" t="n">
-        <v>598.4107368051123</v>
+        <v>600.8927243578978</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6498381808584</v>
+        <v>565.2480234407267</v>
       </c>
       <c r="G6" t="n">
-        <v>563.6498381808584</v>
+        <v>565.2480234407267</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.258261209885954</v>
+        <v>-3.596899126073978</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.258261209885954</v>
+        <v>-3.596899126073978</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.258261209885954</v>
+        <v>-3.596899126073978</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.258261209885954</v>
+        <v>-3.596899126073978</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.258261209885954</v>
+        <v>-3.596899126073978</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.258261209885954</v>
+        <v>-3.596899126073978</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>561.3915769709724</v>
+        <v>561.6511243146527</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>565.4950984085801</v>
+        <v>567.0300254623929</v>
       </c>
       <c r="D7" t="n">
-        <v>513.392848009689</v>
+        <v>513.9067418058077</v>
       </c>
       <c r="E7" t="n">
-        <v>589.3924747230599</v>
+        <v>591.7185379968498</v>
       </c>
       <c r="F7" t="n">
-        <v>565.4950984085801</v>
+        <v>567.0300254623929</v>
       </c>
       <c r="G7" t="n">
-        <v>565.4950984085801</v>
+        <v>567.0300254623929</v>
       </c>
       <c r="H7" t="n">
-        <v>-15.22720511071181</v>
+        <v>-11.84501438537701</v>
       </c>
       <c r="I7" t="n">
-        <v>-15.22720511071181</v>
+        <v>-11.84501438537701</v>
       </c>
       <c r="J7" t="n">
-        <v>-15.22720511071181</v>
+        <v>-11.84501438537701</v>
       </c>
       <c r="K7" t="n">
-        <v>-15.22720511071181</v>
+        <v>-11.84501438537701</v>
       </c>
       <c r="L7" t="n">
-        <v>-15.22720511071181</v>
+        <v>-11.84501438537701</v>
       </c>
       <c r="M7" t="n">
-        <v>-15.22720511071181</v>
+        <v>-11.84501438537701</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>550.2678932978683</v>
+        <v>555.1850110770159</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>567.2808341128267</v>
+        <v>568.7545435478763</v>
       </c>
       <c r="D8" t="n">
-        <v>506.5874443040835</v>
+        <v>509.269836278746</v>
       </c>
       <c r="E8" t="n">
-        <v>584.4604922339942</v>
+        <v>586.338849345323</v>
       </c>
       <c r="F8" t="n">
-        <v>567.2808341128267</v>
+        <v>568.7545435478763</v>
       </c>
       <c r="G8" t="n">
-        <v>567.2808341128267</v>
+        <v>568.7545435478763</v>
       </c>
       <c r="H8" t="n">
-        <v>-22.3944965112611</v>
+        <v>-22.99014813854202</v>
       </c>
       <c r="I8" t="n">
-        <v>-22.3944965112611</v>
+        <v>-22.99014813854202</v>
       </c>
       <c r="J8" t="n">
-        <v>-22.3944965112611</v>
+        <v>-22.99014813854202</v>
       </c>
       <c r="K8" t="n">
-        <v>-22.3944965112611</v>
+        <v>-22.99014813854202</v>
       </c>
       <c r="L8" t="n">
-        <v>-22.3944965112611</v>
+        <v>-22.99014813854202</v>
       </c>
       <c r="M8" t="n">
-        <v>-22.3944965112611</v>
+        <v>-22.99014813854202</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>544.8863376015656</v>
+        <v>545.7643954093343</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>569.126094348314</v>
+        <v>570.5365455707298</v>
       </c>
       <c r="D9" t="n">
-        <v>541.8399240541673</v>
+        <v>542.1173941069814</v>
       </c>
       <c r="E9" t="n">
-        <v>619.0159322111683</v>
+        <v>620.9514298198472</v>
       </c>
       <c r="F9" t="n">
-        <v>569.126094348314</v>
+        <v>570.5365455707298</v>
       </c>
       <c r="G9" t="n">
-        <v>569.126094348314</v>
+        <v>570.5365455707298</v>
       </c>
       <c r="H9" t="n">
-        <v>10.44422929482079</v>
+        <v>9.818431055594255</v>
       </c>
       <c r="I9" t="n">
-        <v>10.44422929482079</v>
+        <v>9.818431055594255</v>
       </c>
       <c r="J9" t="n">
-        <v>10.44422929482079</v>
+        <v>9.818431055594255</v>
       </c>
       <c r="K9" t="n">
-        <v>10.44422929482079</v>
+        <v>9.818431055594255</v>
       </c>
       <c r="L9" t="n">
-        <v>10.44422929482079</v>
+        <v>9.818431055594255</v>
       </c>
       <c r="M9" t="n">
-        <v>10.44422929482079</v>
+        <v>9.818431055594255</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>579.5703236431348</v>
+        <v>580.3549766263241</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>570.9713545838014</v>
+        <v>572.3185475935833</v>
       </c>
       <c r="D10" t="n">
-        <v>564.8143780339816</v>
+        <v>567.0372672005893</v>
       </c>
       <c r="E10" t="n">
-        <v>644.8198150614181</v>
+        <v>643.3369311667283</v>
       </c>
       <c r="F10" t="n">
-        <v>570.9713545838014</v>
+        <v>572.3185475935833</v>
       </c>
       <c r="G10" t="n">
-        <v>570.9713545838014</v>
+        <v>572.3185475935833</v>
       </c>
       <c r="H10" t="n">
-        <v>34.67408676209307</v>
+        <v>33.90879986832382</v>
       </c>
       <c r="I10" t="n">
-        <v>34.67408676209307</v>
+        <v>33.90879986832382</v>
       </c>
       <c r="J10" t="n">
-        <v>34.67408676209307</v>
+        <v>33.90879986832382</v>
       </c>
       <c r="K10" t="n">
-        <v>34.67408676209307</v>
+        <v>33.90879986832382</v>
       </c>
       <c r="L10" t="n">
-        <v>34.67408676209307</v>
+        <v>33.90879986832382</v>
       </c>
       <c r="M10" t="n">
-        <v>34.67408676209307</v>
+        <v>33.90879986832382</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>605.6454413458945</v>
+        <v>606.2273474619071</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>572.7570902870114</v>
+        <v>574.0430656741013</v>
       </c>
       <c r="D11" t="n">
-        <v>548.6697687481168</v>
+        <v>547.5574434436591</v>
       </c>
       <c r="E11" t="n">
-        <v>625.5944789322168</v>
+        <v>626.1603618220842</v>
       </c>
       <c r="F11" t="n">
-        <v>572.7570902870114</v>
+        <v>574.0430656741013</v>
       </c>
       <c r="G11" t="n">
-        <v>572.7570902870114</v>
+        <v>574.0430656741013</v>
       </c>
       <c r="H11" t="n">
-        <v>14.09672234417812</v>
+        <v>13.16256784875493</v>
       </c>
       <c r="I11" t="n">
-        <v>14.09672234417812</v>
+        <v>13.16256784875493</v>
       </c>
       <c r="J11" t="n">
-        <v>14.09672234417812</v>
+        <v>13.16256784875493</v>
       </c>
       <c r="K11" t="n">
-        <v>14.09672234417812</v>
+        <v>13.16256784875493</v>
       </c>
       <c r="L11" t="n">
-        <v>14.09672234417812</v>
+        <v>13.16256784875493</v>
       </c>
       <c r="M11" t="n">
-        <v>14.09672234417812</v>
+        <v>13.16256784875493</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>586.8538126311895</v>
+        <v>587.2056335228563</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>574.6023505136618</v>
+        <v>575.8250676906365</v>
       </c>
       <c r="D12" t="n">
-        <v>526.8486743611055</v>
+        <v>530.4677719284748</v>
       </c>
       <c r="E12" t="n">
-        <v>607.9802770726537</v>
+        <v>606.4248154650961</v>
       </c>
       <c r="F12" t="n">
-        <v>574.6023505136618</v>
+        <v>575.8250676906365</v>
       </c>
       <c r="G12" t="n">
-        <v>574.6023505136618</v>
+        <v>575.8250676906365</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.229347475379792</v>
+        <v>-7.374018195300319</v>
       </c>
       <c r="I12" t="n">
-        <v>-6.229347475379792</v>
+        <v>-7.374018195300319</v>
       </c>
       <c r="J12" t="n">
-        <v>-6.229347475379792</v>
+        <v>-7.374018195300319</v>
       </c>
       <c r="K12" t="n">
-        <v>-6.229347475379792</v>
+        <v>-7.374018195300319</v>
       </c>
       <c r="L12" t="n">
-        <v>-6.229347475379792</v>
+        <v>-7.374018195300319</v>
       </c>
       <c r="M12" t="n">
-        <v>-6.229347475379792</v>
+        <v>-7.374018195300319</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>568.373003038282</v>
+        <v>568.4510494953362</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>576.3880862161053</v>
+        <v>577.549585775094</v>
       </c>
       <c r="D13" t="n">
-        <v>535.8885978112037</v>
+        <v>533.6691952430825</v>
       </c>
       <c r="E13" t="n">
-        <v>614.05421197192</v>
+        <v>614.4128605260094</v>
       </c>
       <c r="F13" t="n">
-        <v>576.3880862161053</v>
+        <v>577.549585775094</v>
       </c>
       <c r="G13" t="n">
-        <v>576.3880862161053</v>
+        <v>577.549585775094</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.10891300076257</v>
+        <v>-3.448473472995817</v>
       </c>
       <c r="I13" t="n">
-        <v>-2.10891300076257</v>
+        <v>-3.448473472995817</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.10891300076257</v>
+        <v>-3.448473472995817</v>
       </c>
       <c r="K13" t="n">
-        <v>-2.10891300076257</v>
+        <v>-3.448473472995817</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.10891300076257</v>
+        <v>-3.448473472995817</v>
       </c>
       <c r="M13" t="n">
-        <v>-2.10891300076257</v>
+        <v>-3.448473472995817</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>574.2791732153428</v>
+        <v>574.1011123020982</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>578.2333464419637</v>
+        <v>579.3315877957002</v>
       </c>
       <c r="D14" t="n">
-        <v>564.5112324311878</v>
+        <v>566.4283118476001</v>
       </c>
       <c r="E14" t="n">
-        <v>645.5043873021332</v>
+        <v>642.8578198185631</v>
       </c>
       <c r="F14" t="n">
-        <v>578.2333464419637</v>
+        <v>579.3315877957002</v>
       </c>
       <c r="G14" t="n">
-        <v>578.2333464419637</v>
+        <v>579.3315877957002</v>
       </c>
       <c r="H14" t="n">
-        <v>26.17096473143892</v>
+        <v>24.68373080274358</v>
       </c>
       <c r="I14" t="n">
-        <v>26.17096473143892</v>
+        <v>24.68373080274358</v>
       </c>
       <c r="J14" t="n">
-        <v>26.17096473143892</v>
+        <v>24.68373080274358</v>
       </c>
       <c r="K14" t="n">
-        <v>26.17096473143892</v>
+        <v>24.68373080274358</v>
       </c>
       <c r="L14" t="n">
-        <v>26.17096473143892</v>
+        <v>24.68373080274358</v>
       </c>
       <c r="M14" t="n">
-        <v>26.17096473143892</v>
+        <v>24.68373080274358</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>604.4043111734027</v>
+        <v>604.0153185984439</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>580.0786066786626</v>
+        <v>581.1135898476095</v>
       </c>
       <c r="D15" t="n">
-        <v>564.7998543235235</v>
+        <v>562.8783819519541</v>
       </c>
       <c r="E15" t="n">
-        <v>641.2382183355165</v>
+        <v>640.5647584744439</v>
       </c>
       <c r="F15" t="n">
-        <v>580.0786066786626</v>
+        <v>581.1135898476095</v>
       </c>
       <c r="G15" t="n">
-        <v>580.0786066786626</v>
+        <v>581.1135898476095</v>
       </c>
       <c r="H15" t="n">
-        <v>20.78561520867365</v>
+        <v>19.216836538864</v>
       </c>
       <c r="I15" t="n">
-        <v>20.78561520867365</v>
+        <v>19.216836538864</v>
       </c>
       <c r="J15" t="n">
-        <v>20.78561520867365</v>
+        <v>19.216836538864</v>
       </c>
       <c r="K15" t="n">
-        <v>20.78561520867365</v>
+        <v>19.216836538864</v>
       </c>
       <c r="L15" t="n">
-        <v>20.78561520867365</v>
+        <v>19.216836538864</v>
       </c>
       <c r="M15" t="n">
-        <v>20.78561520867365</v>
+        <v>19.216836538864</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>600.8642218873363</v>
+        <v>600.3304263864735</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>581.7452933440679</v>
+        <v>582.7231400880438</v>
       </c>
       <c r="D16" t="n">
-        <v>575.746628787216</v>
+        <v>574.8448436157192</v>
       </c>
       <c r="E16" t="n">
-        <v>653.4792778113784</v>
+        <v>653.2143365580645</v>
       </c>
       <c r="F16" t="n">
-        <v>581.7452933440679</v>
+        <v>582.7231400880438</v>
       </c>
       <c r="G16" t="n">
-        <v>581.7452933440679</v>
+        <v>582.7231400880438</v>
       </c>
       <c r="H16" t="n">
-        <v>33.20048977718301</v>
+        <v>31.28765059535313</v>
       </c>
       <c r="I16" t="n">
-        <v>33.20048977718301</v>
+        <v>31.28765059535313</v>
       </c>
       <c r="J16" t="n">
-        <v>33.20048977718301</v>
+        <v>31.28765059535313</v>
       </c>
       <c r="K16" t="n">
-        <v>33.20048977718301</v>
+        <v>31.28765059535313</v>
       </c>
       <c r="L16" t="n">
-        <v>33.20048977718301</v>
+        <v>31.28765059535313</v>
       </c>
       <c r="M16" t="n">
-        <v>33.20048977718301</v>
+        <v>31.28765059535313</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>614.945783121251</v>
+        <v>614.010790683397</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>583.5905535709517</v>
+        <v>584.5051421493188</v>
       </c>
       <c r="D17" t="n">
-        <v>561.5634209867184</v>
+        <v>559.7543184075942</v>
       </c>
       <c r="E17" t="n">
-        <v>639.9912833908082</v>
+        <v>639.6528017310138</v>
       </c>
       <c r="F17" t="n">
-        <v>583.5905535709517</v>
+        <v>584.5051421493188</v>
       </c>
       <c r="G17" t="n">
-        <v>583.5905535709517</v>
+        <v>584.5051421493188</v>
       </c>
       <c r="H17" t="n">
-        <v>17.71102787595747</v>
+        <v>15.71944808272243</v>
       </c>
       <c r="I17" t="n">
-        <v>17.71102787595747</v>
+        <v>15.71944808272243</v>
       </c>
       <c r="J17" t="n">
-        <v>17.71102787595747</v>
+        <v>15.71944808272243</v>
       </c>
       <c r="K17" t="n">
-        <v>17.71102787595747</v>
+        <v>15.71944808272243</v>
       </c>
       <c r="L17" t="n">
-        <v>17.71102787595747</v>
+        <v>15.71944808272243</v>
       </c>
       <c r="M17" t="n">
-        <v>17.71102787595747</v>
+        <v>15.71944808272243</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>601.3015814469092</v>
+        <v>600.2245902320412</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>585.3762892743875</v>
+        <v>586.2296602731333</v>
       </c>
       <c r="D18" t="n">
-        <v>538.820595043988</v>
+        <v>536.3525764161504</v>
       </c>
       <c r="E18" t="n">
-        <v>616.9248652637688</v>
+        <v>617.0449248441871</v>
       </c>
       <c r="F18" t="n">
-        <v>585.3762892743875</v>
+        <v>586.2296602731333</v>
       </c>
       <c r="G18" t="n">
-        <v>585.3762892743875</v>
+        <v>586.2296602731333</v>
       </c>
       <c r="H18" t="n">
-        <v>-6.269523688398812</v>
+        <v>-8.387641174257746</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.269523688398812</v>
+        <v>-8.387641174257746</v>
       </c>
       <c r="J18" t="n">
-        <v>-6.269523688398812</v>
+        <v>-8.387641174257746</v>
       </c>
       <c r="K18" t="n">
-        <v>-6.269523688398812</v>
+        <v>-8.387641174257746</v>
       </c>
       <c r="L18" t="n">
-        <v>-6.269523688398812</v>
+        <v>-8.387641174257746</v>
       </c>
       <c r="M18" t="n">
-        <v>-6.269523688398812</v>
+        <v>-8.387641174257746</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>579.1067655859887</v>
+        <v>577.8420190988755</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>587.2215496611468</v>
+        <v>588.0116623459492</v>
       </c>
       <c r="D19" t="n">
-        <v>529.4892746758752</v>
+        <v>536.4832515849289</v>
       </c>
       <c r="E19" t="n">
-        <v>608.27086861384</v>
+        <v>614.525311928774</v>
       </c>
       <c r="F19" t="n">
-        <v>587.2215496611468</v>
+        <v>588.0116623459492</v>
       </c>
       <c r="G19" t="n">
-        <v>587.2215496611468</v>
+        <v>588.0116623459492</v>
       </c>
       <c r="H19" t="n">
-        <v>-17.91097459888264</v>
+        <v>-11.92000201678341</v>
       </c>
       <c r="I19" t="n">
-        <v>-17.91097459888264</v>
+        <v>-11.92000201678341</v>
       </c>
       <c r="J19" t="n">
-        <v>-17.91097459888264</v>
+        <v>-11.92000201678341</v>
       </c>
       <c r="K19" t="n">
-        <v>-17.91097459888264</v>
+        <v>-11.92000201678341</v>
       </c>
       <c r="L19" t="n">
-        <v>-17.91097459888264</v>
+        <v>-11.92000201678341</v>
       </c>
       <c r="M19" t="n">
-        <v>-17.91097459888264</v>
+        <v>-11.92000201678341</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>569.3105750622642</v>
+        <v>576.0916603291657</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>589.0072855193009</v>
+        <v>589.7361804809323</v>
       </c>
       <c r="D20" t="n">
-        <v>541.0350937353799</v>
+        <v>541.5159578846544</v>
       </c>
       <c r="E20" t="n">
-        <v>620.6186171024958</v>
+        <v>620.3499199480167</v>
       </c>
       <c r="F20" t="n">
-        <v>589.0072855193009</v>
+        <v>589.7361804809323</v>
       </c>
       <c r="G20" t="n">
-        <v>589.0072855193009</v>
+        <v>589.7361804809323</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.799807722910069</v>
+        <v>-9.916069187731136</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.799807722910069</v>
+        <v>-9.916069187731136</v>
       </c>
       <c r="J20" t="n">
-        <v>-8.799807722910069</v>
+        <v>-9.916069187731136</v>
       </c>
       <c r="K20" t="n">
-        <v>-8.799807722910069</v>
+        <v>-9.916069187731136</v>
       </c>
       <c r="L20" t="n">
-        <v>-8.799807722910069</v>
+        <v>-9.916069187731136</v>
       </c>
       <c r="M20" t="n">
-        <v>-8.799807722910069</v>
+        <v>-9.916069187731136</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>580.2074777963909</v>
+        <v>579.8201112932011</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>590.8528946392021</v>
+        <v>591.5186078610329</v>
       </c>
       <c r="D21" t="n">
-        <v>557.9240265244464</v>
+        <v>557.0020385078502</v>
       </c>
       <c r="E21" t="n">
-        <v>629.5625833221739</v>
+        <v>637.5073383300876</v>
       </c>
       <c r="F21" t="n">
-        <v>590.8528946392021</v>
+        <v>591.5186078610329</v>
       </c>
       <c r="G21" t="n">
-        <v>590.8528946392021</v>
+        <v>591.5186078610329</v>
       </c>
       <c r="H21" t="n">
-        <v>3.762701884348931</v>
+        <v>2.662138667459657</v>
       </c>
       <c r="I21" t="n">
-        <v>3.762701884348931</v>
+        <v>2.662138667459657</v>
       </c>
       <c r="J21" t="n">
-        <v>3.762701884348931</v>
+        <v>2.662138667459657</v>
       </c>
       <c r="K21" t="n">
-        <v>3.762701884348931</v>
+        <v>2.662138667459657</v>
       </c>
       <c r="L21" t="n">
-        <v>3.762701884348931</v>
+        <v>2.662138667459657</v>
       </c>
       <c r="M21" t="n">
-        <v>3.762701884348931</v>
+        <v>2.662138667459657</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>594.6155965235511</v>
+        <v>594.1807465284926</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>592.6985037591033</v>
+        <v>593.3010352411335</v>
       </c>
       <c r="D22" t="n">
-        <v>577.7355320149959</v>
+        <v>576.1270381739441</v>
       </c>
       <c r="E22" t="n">
-        <v>656.1938675840142</v>
+        <v>653.6590873896818</v>
       </c>
       <c r="F22" t="n">
-        <v>592.6985037591033</v>
+        <v>593.3010352411335</v>
       </c>
       <c r="G22" t="n">
-        <v>592.6985037591033</v>
+        <v>593.3010352411335</v>
       </c>
       <c r="H22" t="n">
-        <v>24.27193116368235</v>
+        <v>23.14457443507207</v>
       </c>
       <c r="I22" t="n">
-        <v>24.27193116368235</v>
+        <v>23.14457443507207</v>
       </c>
       <c r="J22" t="n">
-        <v>24.27193116368235</v>
+        <v>23.14457443507207</v>
       </c>
       <c r="K22" t="n">
-        <v>24.27193116368235</v>
+        <v>23.14457443507207</v>
       </c>
       <c r="L22" t="n">
-        <v>24.27193116368235</v>
+        <v>23.14457443507207</v>
       </c>
       <c r="M22" t="n">
-        <v>24.27193116368235</v>
+        <v>23.14457443507207</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>616.9704349227857</v>
+        <v>616.4456096762055</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>594.486655095975</v>
+        <v>595.0262309457588</v>
       </c>
       <c r="D23" t="n">
-        <v>580.2408613633552</v>
+        <v>577.202825184274</v>
       </c>
       <c r="E23" t="n">
-        <v>655.4505481956785</v>
+        <v>653.7181805723542</v>
       </c>
       <c r="F23" t="n">
-        <v>594.486655095975</v>
+        <v>595.0262309457588</v>
       </c>
       <c r="G23" t="n">
-        <v>594.486655095975</v>
+        <v>595.0262309457588</v>
       </c>
       <c r="H23" t="n">
-        <v>22.30816637514658</v>
+        <v>21.1504737840546</v>
       </c>
       <c r="I23" t="n">
-        <v>22.30816637514658</v>
+        <v>21.1504737840546</v>
       </c>
       <c r="J23" t="n">
-        <v>22.30816637514658</v>
+        <v>21.1504737840546</v>
       </c>
       <c r="K23" t="n">
-        <v>22.30816637514658</v>
+        <v>21.1504737840546</v>
       </c>
       <c r="L23" t="n">
-        <v>22.30816637514658</v>
+        <v>21.1504737840546</v>
       </c>
       <c r="M23" t="n">
-        <v>22.30816637514658</v>
+        <v>21.1504737840546</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>616.7948214711216</v>
+        <v>616.1767047298134</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>596.3344114774092</v>
+        <v>596.8089331738717</v>
       </c>
       <c r="D24" t="n">
-        <v>555.6857616700619</v>
+        <v>556.6169534934791</v>
       </c>
       <c r="E24" t="n">
-        <v>632.8878756264745</v>
+        <v>635.1306084621897</v>
       </c>
       <c r="F24" t="n">
-        <v>596.3344114774092</v>
+        <v>596.8089331738717</v>
       </c>
       <c r="G24" t="n">
-        <v>596.3344114774092</v>
+        <v>596.8089331738717</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.621886249718161</v>
+        <v>-3.758276931462393</v>
       </c>
       <c r="I24" t="n">
-        <v>-2.621886249718161</v>
+        <v>-3.758276931462393</v>
       </c>
       <c r="J24" t="n">
-        <v>-2.621886249718161</v>
+        <v>-3.758276931462393</v>
       </c>
       <c r="K24" t="n">
-        <v>-2.621886249718161</v>
+        <v>-3.758276931462393</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.621886249718161</v>
+        <v>-3.758276931462393</v>
       </c>
       <c r="M24" t="n">
-        <v>-2.621886249718161</v>
+        <v>-3.758276931462393</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>593.712525227691</v>
+        <v>593.0506562424092</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>598.1299178054732</v>
+        <v>598.5355943770855</v>
       </c>
       <c r="D25" t="n">
-        <v>557.3695465708702</v>
+        <v>557.3454316761852</v>
       </c>
       <c r="E25" t="n">
-        <v>636.1850112492367</v>
+        <v>636.079600991535</v>
       </c>
       <c r="F25" t="n">
-        <v>598.1299178054732</v>
+        <v>598.5355943770855</v>
       </c>
       <c r="G25" t="n">
-        <v>598.1299178054732</v>
+        <v>598.5355943770855</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.71598517391238</v>
+        <v>-2.799963492697483</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.71598517391238</v>
+        <v>-2.799963492697483</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.71598517391238</v>
+        <v>-2.799963492697483</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.71598517391238</v>
+        <v>-2.799963492697483</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.71598517391238</v>
+        <v>-2.799963492697483</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.71598517391238</v>
+        <v>-2.799963492697483</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>596.4139326315608</v>
+        <v>595.7356308843881</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>599.9852743444725</v>
+        <v>600.31981095374</v>
       </c>
       <c r="D26" t="n">
-        <v>582.3352344166678</v>
+        <v>578.2140927964113</v>
       </c>
       <c r="E26" t="n">
-        <v>655.0079575944451</v>
+        <v>658.8606205955392</v>
       </c>
       <c r="F26" t="n">
-        <v>599.9852743444725</v>
+        <v>600.31981095374</v>
       </c>
       <c r="G26" t="n">
-        <v>599.9852743444725</v>
+        <v>600.31981095374</v>
       </c>
       <c r="H26" t="n">
-        <v>19.74515901891016</v>
+        <v>18.72053608843414</v>
       </c>
       <c r="I26" t="n">
-        <v>19.74515901891016</v>
+        <v>18.72053608843414</v>
       </c>
       <c r="J26" t="n">
-        <v>19.74515901891016</v>
+        <v>18.72053608843414</v>
       </c>
       <c r="K26" t="n">
-        <v>19.74515901891016</v>
+        <v>18.72053608843414</v>
       </c>
       <c r="L26" t="n">
-        <v>19.74515901891016</v>
+        <v>18.72053608843414</v>
       </c>
       <c r="M26" t="n">
-        <v>19.74515901891016</v>
+        <v>18.72053608843414</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>619.7304333633826</v>
+        <v>619.0403470421742</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>601.8414469715067</v>
+        <v>602.1046568664135</v>
       </c>
       <c r="D27" t="n">
-        <v>581.4766731907896</v>
+        <v>581.3922990269506</v>
       </c>
       <c r="E27" t="n">
-        <v>660.3880921130127</v>
+        <v>660.0173671980555</v>
       </c>
       <c r="F27" t="n">
-        <v>601.8414469715067</v>
+        <v>602.1046568664135</v>
       </c>
       <c r="G27" t="n">
-        <v>601.8414469715067</v>
+        <v>602.1046568664135</v>
       </c>
       <c r="H27" t="n">
-        <v>16.65650618104154</v>
+        <v>15.64833307802595</v>
       </c>
       <c r="I27" t="n">
-        <v>16.65650618104154</v>
+        <v>15.64833307802595</v>
       </c>
       <c r="J27" t="n">
-        <v>16.65650618104154</v>
+        <v>15.64833307802595</v>
       </c>
       <c r="K27" t="n">
-        <v>16.65650618104154</v>
+        <v>15.64833307802595</v>
       </c>
       <c r="L27" t="n">
-        <v>16.65650618104154</v>
+        <v>15.64833307802595</v>
       </c>
       <c r="M27" t="n">
-        <v>16.65650618104154</v>
+        <v>15.64833307802595</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>618.4979531525482</v>
+        <v>617.7529899444395</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>603.5179899894731</v>
+        <v>603.7167757552799</v>
       </c>
       <c r="D28" t="n">
-        <v>609.8570684351604</v>
+        <v>602.9395780645631</v>
       </c>
       <c r="E28" t="n">
-        <v>685.8028414145534</v>
+        <v>683.2416452470948</v>
       </c>
       <c r="F28" t="n">
-        <v>603.5179899894731</v>
+        <v>603.7167757552799</v>
       </c>
       <c r="G28" t="n">
-        <v>603.5179899894731</v>
+        <v>603.7167757552799</v>
       </c>
       <c r="H28" t="n">
-        <v>44.63891419714846</v>
+        <v>41.96518667725842</v>
       </c>
       <c r="I28" t="n">
-        <v>44.63891419714846</v>
+        <v>41.96518667725842</v>
       </c>
       <c r="J28" t="n">
-        <v>44.63891419714846</v>
+        <v>41.96518667725842</v>
       </c>
       <c r="K28" t="n">
-        <v>44.63891419714846</v>
+        <v>41.96518667725842</v>
       </c>
       <c r="L28" t="n">
-        <v>44.63891419714846</v>
+        <v>41.96518667725842</v>
       </c>
       <c r="M28" t="n">
-        <v>44.63891419714846</v>
+        <v>41.96518667725842</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>648.1569041866215</v>
+        <v>645.6819624325383</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>605.3741626165073</v>
+        <v>605.5016216679535</v>
       </c>
       <c r="D29" t="n">
-        <v>579.6616217171792</v>
+        <v>577.1663638302808</v>
       </c>
       <c r="E29" t="n">
-        <v>653.8924701042628</v>
+        <v>655.3661466398733</v>
       </c>
       <c r="F29" t="n">
-        <v>605.3741626165073</v>
+        <v>605.5016216679535</v>
       </c>
       <c r="G29" t="n">
-        <v>605.3741626165073</v>
+        <v>605.5016216679535</v>
       </c>
       <c r="H29" t="n">
-        <v>13.20738023511809</v>
+        <v>10.49578253352803</v>
       </c>
       <c r="I29" t="n">
-        <v>13.20738023511809</v>
+        <v>10.49578253352803</v>
       </c>
       <c r="J29" t="n">
-        <v>13.20738023511809</v>
+        <v>10.49578253352803</v>
       </c>
       <c r="K29" t="n">
-        <v>13.20738023511809</v>
+        <v>10.49578253352803</v>
       </c>
       <c r="L29" t="n">
-        <v>13.20738023511809</v>
+        <v>10.49578253352803</v>
       </c>
       <c r="M29" t="n">
-        <v>13.20738023511809</v>
+        <v>10.49578253352803</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>618.5815428516254</v>
+        <v>615.9974042014816</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>607.1704908623279</v>
+        <v>607.2288922117401</v>
       </c>
       <c r="D30" t="n">
-        <v>554.1371463414586</v>
+        <v>556.2721304079936</v>
       </c>
       <c r="E30" t="n">
-        <v>635.7488933622141</v>
+        <v>633.0718092247547</v>
       </c>
       <c r="F30" t="n">
-        <v>607.1704908623279</v>
+        <v>607.2288922117401</v>
       </c>
       <c r="G30" t="n">
-        <v>607.1704908623279</v>
+        <v>607.2288922117401</v>
       </c>
       <c r="H30" t="n">
-        <v>-10.24108585585025</v>
+        <v>-13.08826720428523</v>
       </c>
       <c r="I30" t="n">
-        <v>-10.24108585585025</v>
+        <v>-13.08826720428523</v>
       </c>
       <c r="J30" t="n">
-        <v>-10.24108585585025</v>
+        <v>-13.08826720428523</v>
       </c>
       <c r="K30" t="n">
-        <v>-10.24108585585025</v>
+        <v>-13.08826720428523</v>
       </c>
       <c r="L30" t="n">
-        <v>-10.24108585585025</v>
+        <v>-13.08826720428523</v>
       </c>
       <c r="M30" t="n">
-        <v>-10.24108585585025</v>
+        <v>-13.08826720428523</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>596.9294050064777</v>
+        <v>594.1406250074549</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>609.0266967163425</v>
+        <v>609.0137384403196</v>
       </c>
       <c r="D31" t="n">
-        <v>549.4737605887113</v>
+        <v>559.7868174608107</v>
       </c>
       <c r="E31" t="n">
-        <v>629.1708317071827</v>
+        <v>638.7223677279845</v>
       </c>
       <c r="F31" t="n">
-        <v>609.0266967163425</v>
+        <v>609.0137384403196</v>
       </c>
       <c r="G31" t="n">
-        <v>609.0266967163425</v>
+        <v>609.0137384403196</v>
       </c>
       <c r="H31" t="n">
-        <v>-20.37775774320292</v>
+        <v>-11.77317591298087</v>
       </c>
       <c r="I31" t="n">
-        <v>-20.37775774320292</v>
+        <v>-11.77317591298087</v>
       </c>
       <c r="J31" t="n">
-        <v>-20.37775774320292</v>
+        <v>-11.77317591298087</v>
       </c>
       <c r="K31" t="n">
-        <v>-20.37775774320292</v>
+        <v>-11.77317591298087</v>
       </c>
       <c r="L31" t="n">
-        <v>-20.37775774320292</v>
+        <v>-11.77317591298087</v>
       </c>
       <c r="M31" t="n">
-        <v>-20.37775774320292</v>
+        <v>-11.77317591298087</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>588.6489389731396</v>
+        <v>597.2405625273387</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>610.8231838972275</v>
+        <v>610.7410493794243</v>
       </c>
       <c r="D32" t="n">
-        <v>575.4893243926452</v>
+        <v>575.8238427446109</v>
       </c>
       <c r="E32" t="n">
-        <v>652.6568929550554</v>
+        <v>653.0057111074693</v>
       </c>
       <c r="F32" t="n">
-        <v>610.8231838972275</v>
+        <v>610.7410493794243</v>
       </c>
       <c r="G32" t="n">
-        <v>610.8231838972275</v>
+        <v>610.7410493794243</v>
       </c>
       <c r="H32" t="n">
-        <v>4.708435535045287</v>
+        <v>3.030318610119019</v>
       </c>
       <c r="I32" t="n">
-        <v>4.708435535045287</v>
+        <v>3.030318610119019</v>
       </c>
       <c r="J32" t="n">
-        <v>4.708435535045287</v>
+        <v>3.030318610119019</v>
       </c>
       <c r="K32" t="n">
-        <v>4.708435535045287</v>
+        <v>3.030318610119019</v>
       </c>
       <c r="L32" t="n">
-        <v>4.708435535045287</v>
+        <v>3.030318610119019</v>
       </c>
       <c r="M32" t="n">
-        <v>4.708435535045287</v>
+        <v>3.030318610119019</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>615.5316194322728</v>
+        <v>613.7713679895434</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>612.679553984142</v>
+        <v>612.5259373498326</v>
       </c>
       <c r="D33" t="n">
-        <v>570.0811654122568</v>
+        <v>566.5904956344805</v>
       </c>
       <c r="E33" t="n">
-        <v>646.476304871895</v>
+        <v>646.7197184479993</v>
       </c>
       <c r="F33" t="n">
-        <v>612.679553984142</v>
+        <v>612.5259373498326</v>
       </c>
       <c r="G33" t="n">
-        <v>612.679553984142</v>
+        <v>612.5259373498326</v>
       </c>
       <c r="H33" t="n">
-        <v>-3.200563803868262</v>
+        <v>-4.787224984409773</v>
       </c>
       <c r="I33" t="n">
-        <v>-3.200563803868262</v>
+        <v>-4.787224984409773</v>
       </c>
       <c r="J33" t="n">
-        <v>-3.200563803868262</v>
+        <v>-4.787224984409773</v>
       </c>
       <c r="K33" t="n">
-        <v>-3.200563803868262</v>
+        <v>-4.787224984409773</v>
       </c>
       <c r="L33" t="n">
-        <v>-3.200563803868262</v>
+        <v>-4.787224984409773</v>
       </c>
       <c r="M33" t="n">
-        <v>-3.200563803868262</v>
+        <v>-4.787224984409773</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>609.4789901802737</v>
+        <v>607.7387123654228</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>614.5359240976167</v>
+        <v>614.3108253311353</v>
       </c>
       <c r="D34" t="n">
-        <v>589.5603409171026</v>
+        <v>582.9169230877774</v>
       </c>
       <c r="E34" t="n">
-        <v>666.3297743076464</v>
+        <v>666.6895240108247</v>
       </c>
       <c r="F34" t="n">
-        <v>614.5359240976167</v>
+        <v>614.3108253311353</v>
       </c>
       <c r="G34" t="n">
-        <v>614.5359240976167</v>
+        <v>614.3108253311353</v>
       </c>
       <c r="H34" t="n">
-        <v>14.02100089464057</v>
+        <v>12.53322558583215</v>
       </c>
       <c r="I34" t="n">
-        <v>14.02100089464057</v>
+        <v>12.53322558583215</v>
       </c>
       <c r="J34" t="n">
-        <v>14.02100089464057</v>
+        <v>12.53322558583215</v>
       </c>
       <c r="K34" t="n">
-        <v>14.02100089464057</v>
+        <v>12.53322558583215</v>
       </c>
       <c r="L34" t="n">
-        <v>14.02100089464057</v>
+        <v>12.53322558583215</v>
       </c>
       <c r="M34" t="n">
-        <v>14.02100089464057</v>
+        <v>12.53322558583215</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>628.5569249922572</v>
+        <v>626.8440509169675</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>616.3324113042049</v>
+        <v>616.0381362807831</v>
       </c>
       <c r="D35" t="n">
-        <v>607.6507481656381</v>
+        <v>606.2600653597664</v>
       </c>
       <c r="E35" t="n">
-        <v>686.6441057584678</v>
+        <v>682.7679140145226</v>
       </c>
       <c r="F35" t="n">
-        <v>616.3324113042049</v>
+        <v>616.0381362807831</v>
       </c>
       <c r="G35" t="n">
-        <v>616.3324113042049</v>
+        <v>616.0381362807831</v>
       </c>
       <c r="H35" t="n">
-        <v>30.70798757433185</v>
+        <v>29.33755958735673</v>
       </c>
       <c r="I35" t="n">
-        <v>30.70798757433185</v>
+        <v>29.33755958735673</v>
       </c>
       <c r="J35" t="n">
-        <v>30.70798757433185</v>
+        <v>29.33755958735673</v>
       </c>
       <c r="K35" t="n">
-        <v>30.70798757433185</v>
+        <v>29.33755958735673</v>
       </c>
       <c r="L35" t="n">
-        <v>30.70798757433185</v>
+        <v>29.33755958735673</v>
       </c>
       <c r="M35" t="n">
-        <v>30.70798757433185</v>
+        <v>29.33755958735673</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>647.0403988785367</v>
+        <v>645.3756958681398</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>618.1887814069082</v>
+        <v>617.8230242692106</v>
       </c>
       <c r="D36" t="n">
-        <v>576.7445696114157</v>
+        <v>574.628988849312</v>
       </c>
       <c r="E36" t="n">
-        <v>656.5866738401604</v>
+        <v>657.0099584187277</v>
       </c>
       <c r="F36" t="n">
-        <v>618.1887814069082</v>
+        <v>617.8230242692106</v>
       </c>
       <c r="G36" t="n">
-        <v>618.1887814069082</v>
+        <v>617.8230242692106</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9057753805755083</v>
+        <v>-0.2087683150000701</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9057753805755083</v>
+        <v>-0.2087683150000701</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9057753805755083</v>
+        <v>-0.2087683150000701</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9057753805755083</v>
+        <v>-0.2087683150000701</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9057753805755083</v>
+        <v>-0.2087683150000701</v>
       </c>
       <c r="M36" t="n">
-        <v>0.9057753805755083</v>
+        <v>-0.2087683150000701</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>619.0945567874837</v>
+        <v>617.6142559542105</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>619.9852686030729</v>
+        <v>619.5503352257532</v>
       </c>
       <c r="D37" t="n">
-        <v>579.2643980409215</v>
+        <v>577.2749493823968</v>
       </c>
       <c r="E37" t="n">
-        <v>655.879143576872</v>
+        <v>654.9316732375346</v>
       </c>
       <c r="F37" t="n">
-        <v>619.9852686030729</v>
+        <v>619.5503352257532</v>
       </c>
       <c r="G37" t="n">
-        <v>619.9852686030729</v>
+        <v>619.5503352257532</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.48533441187548</v>
+        <v>-2.304245414325848</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.48533441187548</v>
+        <v>-2.304245414325848</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.48533441187548</v>
+        <v>-2.304245414325848</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.48533441187548</v>
+        <v>-2.304245414325848</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.48533441187548</v>
+        <v>-2.304245414325848</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.48533441187548</v>
+        <v>-2.304245414325848</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>618.4999341911974</v>
+        <v>617.2460898114274</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>621.8416386914377</v>
+        <v>621.3352232202</v>
       </c>
       <c r="D38" t="n">
-        <v>595.6967567738288</v>
+        <v>593.6409105711242</v>
       </c>
       <c r="E38" t="n">
-        <v>669.9070860316891</v>
+        <v>671.385903218453</v>
       </c>
       <c r="F38" t="n">
-        <v>621.8416386914377</v>
+        <v>621.3352232202</v>
       </c>
       <c r="G38" t="n">
-        <v>621.8416386914377</v>
+        <v>621.3352232202</v>
       </c>
       <c r="H38" t="n">
-        <v>13.27146811146996</v>
+        <v>12.70893033741532</v>
       </c>
       <c r="I38" t="n">
-        <v>13.27146811146996</v>
+        <v>12.70893033741532</v>
       </c>
       <c r="J38" t="n">
-        <v>13.27146811146996</v>
+        <v>12.70893033741532</v>
       </c>
       <c r="K38" t="n">
-        <v>13.27146811146996</v>
+        <v>12.70893033741532</v>
       </c>
       <c r="L38" t="n">
-        <v>13.27146811146996</v>
+        <v>12.70893033741532</v>
       </c>
       <c r="M38" t="n">
-        <v>13.27146811146996</v>
+        <v>12.70893033741532</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>635.1131068029076</v>
+        <v>634.0441535576152</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>623.6980087798025</v>
+        <v>623.1201112146467</v>
       </c>
       <c r="D39" t="n">
-        <v>595.9874840056128</v>
+        <v>595.2868277707355</v>
       </c>
       <c r="E39" t="n">
-        <v>676.4313280897281</v>
+        <v>676.2109684139594</v>
       </c>
       <c r="F39" t="n">
-        <v>623.6980087798025</v>
+        <v>623.1201112146467</v>
       </c>
       <c r="G39" t="n">
-        <v>623.6980087798025</v>
+        <v>623.1201112146467</v>
       </c>
       <c r="H39" t="n">
-        <v>12.73725262555587</v>
+        <v>12.26895125501955</v>
       </c>
       <c r="I39" t="n">
-        <v>12.73725262555587</v>
+        <v>12.26895125501955</v>
       </c>
       <c r="J39" t="n">
-        <v>12.73725262555587</v>
+        <v>12.26895125501955</v>
       </c>
       <c r="K39" t="n">
-        <v>12.73725262555587</v>
+        <v>12.26895125501955</v>
       </c>
       <c r="L39" t="n">
-        <v>12.73725262555587</v>
+        <v>12.26895125501955</v>
       </c>
       <c r="M39" t="n">
-        <v>12.73725262555587</v>
+        <v>12.26895125501955</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>636.4352614053583</v>
+        <v>635.3890624696663</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>625.4346130635647</v>
+        <v>624.78984513352</v>
       </c>
       <c r="D40" t="n">
-        <v>597.825071387527</v>
+        <v>597.3630370288693</v>
       </c>
       <c r="E40" t="n">
-        <v>674.5001378153605</v>
+        <v>678.599802663779</v>
       </c>
       <c r="F40" t="n">
-        <v>625.4346130635647</v>
+        <v>624.78984513352</v>
       </c>
       <c r="G40" t="n">
-        <v>625.4346130635647</v>
+        <v>624.78984513352</v>
       </c>
       <c r="H40" t="n">
-        <v>10.21082904183232</v>
+        <v>9.7682936782378</v>
       </c>
       <c r="I40" t="n">
-        <v>10.21082904183232</v>
+        <v>9.7682936782378</v>
       </c>
       <c r="J40" t="n">
-        <v>10.21082904183232</v>
+        <v>9.7682936782378</v>
       </c>
       <c r="K40" t="n">
-        <v>10.21082904183232</v>
+        <v>9.7682936782378</v>
       </c>
       <c r="L40" t="n">
-        <v>10.21082904183232</v>
+        <v>9.7682936782378</v>
       </c>
       <c r="M40" t="n">
-        <v>10.21082904183232</v>
+        <v>9.7682936782378</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>635.645442105397</v>
+        <v>634.5581388117578</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>627.2909831600002</v>
+        <v>626.5747331157639</v>
       </c>
       <c r="D41" t="n">
-        <v>615.3414696642816</v>
+        <v>614.3562924743325</v>
       </c>
       <c r="E41" t="n">
-        <v>693.5469698926688</v>
+        <v>692.2222242331524</v>
       </c>
       <c r="F41" t="n">
-        <v>627.2909831600002</v>
+        <v>626.5747331157639</v>
       </c>
       <c r="G41" t="n">
-        <v>627.2909831600002</v>
+        <v>626.5747331157639</v>
       </c>
       <c r="H41" t="n">
-        <v>26.10753063440736</v>
+        <v>25.58154201409011</v>
       </c>
       <c r="I41" t="n">
-        <v>26.10753063440736</v>
+        <v>25.58154201409011</v>
       </c>
       <c r="J41" t="n">
-        <v>26.10753063440736</v>
+        <v>25.58154201409011</v>
       </c>
       <c r="K41" t="n">
-        <v>26.10753063440736</v>
+        <v>25.58154201409011</v>
       </c>
       <c r="L41" t="n">
-        <v>26.10753063440736</v>
+        <v>25.58154201409011</v>
       </c>
       <c r="M41" t="n">
-        <v>26.10753063440736</v>
+        <v>25.58154201409011</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>653.3985137944076</v>
+        <v>652.1562751298541</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>629.087452687582</v>
+        <v>628.3019078211389</v>
       </c>
       <c r="D42" t="n">
-        <v>592.3636312177506</v>
+        <v>587.0409360625662</v>
       </c>
       <c r="E42" t="n">
-        <v>665.6608865737535</v>
+        <v>668.1919470408874</v>
       </c>
       <c r="F42" t="n">
-        <v>629.087452687582</v>
+        <v>628.3019078211389</v>
       </c>
       <c r="G42" t="n">
-        <v>629.087452687582</v>
+        <v>628.3019078211389</v>
       </c>
       <c r="H42" t="n">
-        <v>1.786219632417142</v>
+        <v>1.277167986863453</v>
       </c>
       <c r="I42" t="n">
-        <v>1.786219632417142</v>
+        <v>1.277167986863453</v>
       </c>
       <c r="J42" t="n">
-        <v>1.786219632417142</v>
+        <v>1.277167986863453</v>
       </c>
       <c r="K42" t="n">
-        <v>1.786219632417142</v>
+        <v>1.277167986863453</v>
       </c>
       <c r="L42" t="n">
-        <v>1.786219632417142</v>
+        <v>1.277167986863453</v>
       </c>
       <c r="M42" t="n">
-        <v>1.786219632417142</v>
+        <v>1.277167986863453</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>630.8736723199991</v>
+        <v>629.5790758080024</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>630.9438045327498</v>
+        <v>630.086655016693</v>
       </c>
       <c r="D43" t="n">
-        <v>579.2288916045442</v>
+        <v>577.730700286624</v>
       </c>
       <c r="E43" t="n">
-        <v>657.6918881218621</v>
+        <v>656.8188338244099</v>
       </c>
       <c r="F43" t="n">
-        <v>630.9438045327498</v>
+        <v>630.086655016693</v>
       </c>
       <c r="G43" t="n">
-        <v>630.9438045327498</v>
+        <v>630.086655016693</v>
       </c>
       <c r="H43" t="n">
-        <v>-12.32738374960458</v>
+        <v>-11.54636868511986</v>
       </c>
       <c r="I43" t="n">
-        <v>-12.32738374960458</v>
+        <v>-11.54636868511986</v>
       </c>
       <c r="J43" t="n">
-        <v>-12.32738374960458</v>
+        <v>-11.54636868511986</v>
       </c>
       <c r="K43" t="n">
-        <v>-12.32738374960458</v>
+        <v>-11.54636868511986</v>
       </c>
       <c r="L43" t="n">
-        <v>-12.32738374960458</v>
+        <v>-11.54636868511986</v>
       </c>
       <c r="M43" t="n">
-        <v>-12.32738374960458</v>
+        <v>-11.54636868511986</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>618.6164207831453</v>
+        <v>618.5402863315732</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>632.7398597463159</v>
+        <v>631.8117094969914</v>
       </c>
       <c r="D44" t="n">
-        <v>560.1397557796216</v>
+        <v>555.8715479611379</v>
       </c>
       <c r="E44" t="n">
-        <v>636.1176447983426</v>
+        <v>637.6276303468723</v>
       </c>
       <c r="F44" t="n">
-        <v>632.7398597463159</v>
+        <v>631.8117094969914</v>
       </c>
       <c r="G44" t="n">
-        <v>632.7398597463159</v>
+        <v>631.8117094969914</v>
       </c>
       <c r="H44" t="n">
-        <v>-36.06230730710934</v>
+        <v>-36.17866209475491</v>
       </c>
       <c r="I44" t="n">
-        <v>-36.06230730710934</v>
+        <v>-36.17866209475491</v>
       </c>
       <c r="J44" t="n">
-        <v>-36.06230730710934</v>
+        <v>-36.17866209475491</v>
       </c>
       <c r="K44" t="n">
-        <v>-36.06230730710934</v>
+        <v>-36.17866209475491</v>
       </c>
       <c r="L44" t="n">
-        <v>-36.06230730710934</v>
+        <v>-36.17866209475491</v>
       </c>
       <c r="M44" t="n">
-        <v>-36.06230730710934</v>
+        <v>-36.17866209475491</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>596.6775524392066</v>
+        <v>595.6330474022365</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>634.5957834670008</v>
+        <v>633.5942657932997</v>
       </c>
       <c r="D45" t="n">
-        <v>615.9204638039976</v>
+        <v>610.3040189462066</v>
       </c>
       <c r="E45" t="n">
-        <v>690.4592672363854</v>
+        <v>689.2662594033774</v>
       </c>
       <c r="F45" t="n">
-        <v>634.5957834670008</v>
+        <v>633.5942657932997</v>
       </c>
       <c r="G45" t="n">
-        <v>634.5957834670008</v>
+        <v>633.5942657932997</v>
       </c>
       <c r="H45" t="n">
-        <v>16.8374658157387</v>
+        <v>16.6743253328322</v>
       </c>
       <c r="I45" t="n">
-        <v>16.8374658157387</v>
+        <v>16.6743253328322</v>
       </c>
       <c r="J45" t="n">
-        <v>16.8374658157387</v>
+        <v>16.6743253328322</v>
       </c>
       <c r="K45" t="n">
-        <v>16.8374658157387</v>
+        <v>16.6743253328322</v>
       </c>
       <c r="L45" t="n">
-        <v>16.8374658157387</v>
+        <v>16.6743253328322</v>
       </c>
       <c r="M45" t="n">
-        <v>16.8374658157387</v>
+        <v>16.6743253328322</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>651.4332492827396</v>
+        <v>650.2685911261318</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>631.156797286787</v>
+        <v>630.5139227377083</v>
       </c>
       <c r="D46" t="n">
-        <v>637.3931892255212</v>
+        <v>635.131694364329</v>
       </c>
       <c r="E46" t="n">
-        <v>717.0730805163855</v>
+        <v>715.8112466653154</v>
       </c>
       <c r="F46" t="n">
-        <v>631.156797286787</v>
+        <v>630.5139227377083</v>
       </c>
       <c r="G46" t="n">
-        <v>631.156797286787</v>
+        <v>630.5139227377083</v>
       </c>
       <c r="H46" t="n">
-        <v>45.21572791218514</v>
+        <v>44.8134595771478</v>
       </c>
       <c r="I46" t="n">
-        <v>45.21572791218514</v>
+        <v>44.8134595771478</v>
       </c>
       <c r="J46" t="n">
-        <v>45.21572791218514</v>
+        <v>44.8134595771478</v>
       </c>
       <c r="K46" t="n">
-        <v>45.21572791218514</v>
+        <v>44.8134595771478</v>
       </c>
       <c r="L46" t="n">
-        <v>45.21572791218514</v>
+        <v>44.8134595771478</v>
       </c>
       <c r="M46" t="n">
-        <v>45.21572791218514</v>
+        <v>44.8134595771478</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>676.3725251989721</v>
+        <v>675.3273823148561</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>627.8287461446445</v>
+        <v>627.5329455871361</v>
       </c>
       <c r="D47" t="n">
-        <v>592.4036889375559</v>
+        <v>591.5338897625185</v>
       </c>
       <c r="E47" t="n">
-        <v>671.5135280169383</v>
+        <v>671.0318259839613</v>
       </c>
       <c r="F47" t="n">
-        <v>627.8287461446445</v>
+        <v>627.5329455871361</v>
       </c>
       <c r="G47" t="n">
-        <v>627.8287461446445</v>
+        <v>627.5329455871361</v>
       </c>
       <c r="H47" t="n">
-        <v>6.081437745378403</v>
+        <v>5.381218748750578</v>
       </c>
       <c r="I47" t="n">
-        <v>6.081437745378403</v>
+        <v>5.381218748750578</v>
       </c>
       <c r="J47" t="n">
-        <v>6.081437745378403</v>
+        <v>5.381218748750578</v>
       </c>
       <c r="K47" t="n">
-        <v>6.081437745378403</v>
+        <v>5.381218748750578</v>
       </c>
       <c r="L47" t="n">
-        <v>6.081437745378403</v>
+        <v>5.381218748750578</v>
       </c>
       <c r="M47" t="n">
-        <v>6.081437745378403</v>
+        <v>5.381218748750578</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>633.9101838900228</v>
+        <v>632.9141643358867</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>624.3866099621437</v>
+        <v>624.4480434044006</v>
       </c>
       <c r="D48" t="n">
-        <v>572.645762465</v>
+        <v>573.4730923998707</v>
       </c>
       <c r="E48" t="n">
-        <v>653.9761384061006</v>
+        <v>650.9949630943916</v>
       </c>
       <c r="F48" t="n">
-        <v>624.3866099621437</v>
+        <v>624.4480434044006</v>
       </c>
       <c r="G48" t="n">
-        <v>624.3866099621437</v>
+        <v>624.4480434044006</v>
       </c>
       <c r="H48" t="n">
-        <v>-9.91009269745906</v>
+        <v>-11.04947139950817</v>
       </c>
       <c r="I48" t="n">
-        <v>-9.91009269745906</v>
+        <v>-11.04947139950817</v>
       </c>
       <c r="J48" t="n">
-        <v>-9.91009269745906</v>
+        <v>-11.04947139950817</v>
       </c>
       <c r="K48" t="n">
-        <v>-9.91009269745906</v>
+        <v>-11.04947139950817</v>
       </c>
       <c r="L48" t="n">
-        <v>-9.91009269745906</v>
+        <v>-11.04947139950817</v>
       </c>
       <c r="M48" t="n">
-        <v>-9.91009269745906</v>
+        <v>-11.04947139950817</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>614.4765172646846</v>
+        <v>613.3985720048923</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>621.0555104306911</v>
+        <v>621.4626541953015</v>
       </c>
       <c r="D49" t="n">
-        <v>579.9124613747529</v>
+        <v>577.3702212641198</v>
       </c>
       <c r="E49" t="n">
-        <v>655.5172841883119</v>
+        <v>656.0717243584764</v>
       </c>
       <c r="F49" t="n">
-        <v>621.0555104306911</v>
+        <v>621.4626541953015</v>
       </c>
       <c r="G49" t="n">
-        <v>621.0555104306911</v>
+        <v>621.4626541953015</v>
       </c>
       <c r="H49" t="n">
-        <v>-2.664381320624168</v>
+        <v>-4.249527481469967</v>
       </c>
       <c r="I49" t="n">
-        <v>-2.664381320624168</v>
+        <v>-4.249527481469967</v>
       </c>
       <c r="J49" t="n">
-        <v>-2.664381320624168</v>
+        <v>-4.249527481469967</v>
       </c>
       <c r="K49" t="n">
-        <v>-2.664381320624168</v>
+        <v>-4.249527481469967</v>
       </c>
       <c r="L49" t="n">
-        <v>-2.664381320624168</v>
+        <v>-4.249527481469967</v>
       </c>
       <c r="M49" t="n">
-        <v>-2.664381320624168</v>
+        <v>-4.249527481469967</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>618.3911291100669</v>
+        <v>617.2131267138316</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>617.607432995563</v>
+        <v>618.3718560914895</v>
       </c>
       <c r="D50" t="n">
-        <v>612.9280928873261</v>
+        <v>609.5506603840254</v>
       </c>
       <c r="E50" t="n">
-        <v>687.5293994999058</v>
+        <v>688.7027294977837</v>
       </c>
       <c r="F50" t="n">
-        <v>617.607432995563</v>
+        <v>618.3718560914895</v>
       </c>
       <c r="G50" t="n">
-        <v>617.607432995563</v>
+        <v>618.3718560914895</v>
       </c>
       <c r="H50" t="n">
-        <v>32.54061165979348</v>
+        <v>30.59106400270919</v>
       </c>
       <c r="I50" t="n">
-        <v>32.54061165979348</v>
+        <v>30.59106400270919</v>
       </c>
       <c r="J50" t="n">
-        <v>32.54061165979348</v>
+        <v>30.59106400270919</v>
       </c>
       <c r="K50" t="n">
-        <v>32.54061165979348</v>
+        <v>30.59106400270919</v>
       </c>
       <c r="L50" t="n">
-        <v>32.54061165979348</v>
+        <v>30.59106400270919</v>
       </c>
       <c r="M50" t="n">
-        <v>32.54061165979348</v>
+        <v>30.59106400270919</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>650.1480446553566</v>
+        <v>648.9629200941987</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>614.159355560435</v>
+        <v>615.2810579876773</v>
       </c>
       <c r="D51" t="n">
-        <v>600.6992851805167</v>
+        <v>599.1168451219824</v>
       </c>
       <c r="E51" t="n">
-        <v>678.1086368310334</v>
+        <v>675.2514687368583</v>
       </c>
       <c r="F51" t="n">
-        <v>614.159355560435</v>
+        <v>615.2810579876773</v>
       </c>
       <c r="G51" t="n">
-        <v>614.159355560435</v>
+        <v>615.2810579876773</v>
       </c>
       <c r="H51" t="n">
-        <v>25.12030152198318</v>
+        <v>22.97087264564849</v>
       </c>
       <c r="I51" t="n">
-        <v>25.12030152198318</v>
+        <v>22.97087264564849</v>
       </c>
       <c r="J51" t="n">
-        <v>25.12030152198318</v>
+        <v>22.97087264564849</v>
       </c>
       <c r="K51" t="n">
-        <v>25.12030152198318</v>
+        <v>22.97087264564849</v>
       </c>
       <c r="L51" t="n">
-        <v>25.12030152198318</v>
+        <v>22.97087264564849</v>
       </c>
       <c r="M51" t="n">
-        <v>25.12030152198318</v>
+        <v>22.97087264564849</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>639.2796570824181</v>
+        <v>638.2519306333257</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>611.0449580267309</v>
+        <v>612.4893667561132</v>
       </c>
       <c r="D52" t="n">
-        <v>594.0181469861444</v>
+        <v>592.5390979433226</v>
       </c>
       <c r="E52" t="n">
-        <v>671.7742977744862</v>
+        <v>671.8062498284386</v>
       </c>
       <c r="F52" t="n">
-        <v>611.0449580267309</v>
+        <v>612.4893667561132</v>
       </c>
       <c r="G52" t="n">
-        <v>611.0449580267309</v>
+        <v>612.4893667561132</v>
       </c>
       <c r="H52" t="n">
-        <v>21.72055205107817</v>
+        <v>20.55181094539109</v>
       </c>
       <c r="I52" t="n">
-        <v>21.72055205107817</v>
+        <v>20.55181094539109</v>
       </c>
       <c r="J52" t="n">
-        <v>21.72055205107817</v>
+        <v>20.55181094539109</v>
       </c>
       <c r="K52" t="n">
-        <v>21.72055205107817</v>
+        <v>20.55181094539109</v>
       </c>
       <c r="L52" t="n">
-        <v>21.72055205107817</v>
+        <v>20.55181094539109</v>
       </c>
       <c r="M52" t="n">
-        <v>21.72055205107817</v>
+        <v>20.55181094539109</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>632.765510077809</v>
+        <v>633.0411777015044</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>607.5968750429871</v>
+        <v>609.3985657497385</v>
       </c>
       <c r="D53" t="n">
-        <v>587.1786197422438</v>
+        <v>591.5633266553584</v>
       </c>
       <c r="E53" t="n">
-        <v>669.1295040626678</v>
+        <v>668.8145336360509</v>
       </c>
       <c r="F53" t="n">
-        <v>607.5968750429871</v>
+        <v>609.3985657497385</v>
       </c>
       <c r="G53" t="n">
-        <v>607.5968750429871</v>
+        <v>609.3985657497385</v>
       </c>
       <c r="H53" t="n">
-        <v>22.01210891317734</v>
+        <v>20.7495034493419</v>
       </c>
       <c r="I53" t="n">
-        <v>22.01210891317734</v>
+        <v>20.7495034493419</v>
       </c>
       <c r="J53" t="n">
-        <v>22.01210891317734</v>
+        <v>20.7495034493419</v>
       </c>
       <c r="K53" t="n">
-        <v>22.01210891317734</v>
+        <v>20.7495034493419</v>
       </c>
       <c r="L53" t="n">
-        <v>22.01210891317734</v>
+        <v>20.7495034493419</v>
       </c>
       <c r="M53" t="n">
-        <v>22.01210891317734</v>
+        <v>20.7495034493419</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>629.6089839561645</v>
+        <v>630.1480691990804</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>604.2600205383918</v>
+        <v>606.4074679909345</v>
       </c>
       <c r="D54" t="n">
-        <v>564.584111344537</v>
+        <v>564.6762469121813</v>
       </c>
       <c r="E54" t="n">
-        <v>641.9045657677401</v>
+        <v>641.7997871982716</v>
       </c>
       <c r="F54" t="n">
-        <v>604.2600205383918</v>
+        <v>606.4074679909345</v>
       </c>
       <c r="G54" t="n">
-        <v>604.2600205383918</v>
+        <v>606.4074679909345</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.258261209886563</v>
+        <v>-3.596899126075558</v>
       </c>
       <c r="I54" t="n">
-        <v>-2.258261209886563</v>
+        <v>-3.596899126075558</v>
       </c>
       <c r="J54" t="n">
-        <v>-2.258261209886563</v>
+        <v>-3.596899126075558</v>
       </c>
       <c r="K54" t="n">
-        <v>-2.258261209886563</v>
+        <v>-3.596899126075558</v>
       </c>
       <c r="L54" t="n">
-        <v>-2.258261209886563</v>
+        <v>-3.596899126075558</v>
       </c>
       <c r="M54" t="n">
-        <v>-2.258261209886563</v>
+        <v>-3.596899126075558</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>602.0017593285053</v>
+        <v>602.810568864859</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>600.8119375503102</v>
+        <v>603.3166669735036</v>
       </c>
       <c r="D55" t="n">
-        <v>545.4272712626914</v>
+        <v>552.71154581498</v>
       </c>
       <c r="E55" t="n">
-        <v>623.2235717224963</v>
+        <v>629.7711736787859</v>
       </c>
       <c r="F55" t="n">
-        <v>600.8119375503102</v>
+        <v>603.3166669735036</v>
       </c>
       <c r="G55" t="n">
-        <v>600.8119375503102</v>
+        <v>603.3166669735036</v>
       </c>
       <c r="H55" t="n">
-        <v>-15.22720511071448</v>
+        <v>-11.84501438538392</v>
       </c>
       <c r="I55" t="n">
-        <v>-15.22720511071448</v>
+        <v>-11.84501438538392</v>
       </c>
       <c r="J55" t="n">
-        <v>-15.22720511071448</v>
+        <v>-11.84501438538392</v>
       </c>
       <c r="K55" t="n">
-        <v>-15.22720511071448</v>
+        <v>-11.84501438538392</v>
       </c>
       <c r="L55" t="n">
-        <v>-15.22720511071448</v>
+        <v>-11.84501438538392</v>
       </c>
       <c r="M55" t="n">
-        <v>-15.22720511071448</v>
+        <v>-11.84501438538392</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>585.5847324395957</v>
+        <v>591.4716525881197</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>597.4750830457149</v>
+        <v>600.3255692146995</v>
       </c>
       <c r="D56" t="n">
-        <v>535.0589400218246</v>
+        <v>536.9767335384362</v>
       </c>
       <c r="E56" t="n">
-        <v>614.0028896670135</v>
+        <v>615.4387350491007</v>
       </c>
       <c r="F56" t="n">
-        <v>597.4750830457149</v>
+        <v>600.3255692146995</v>
       </c>
       <c r="G56" t="n">
-        <v>597.4750830457149</v>
+        <v>600.3255692146995</v>
       </c>
       <c r="H56" t="n">
-        <v>-22.39449651135405</v>
+        <v>-22.99014813863237</v>
       </c>
       <c r="I56" t="n">
-        <v>-22.39449651135405</v>
+        <v>-22.99014813863237</v>
       </c>
       <c r="J56" t="n">
-        <v>-22.39449651135405</v>
+        <v>-22.99014813863237</v>
       </c>
       <c r="K56" t="n">
-        <v>-22.39449651135405</v>
+        <v>-22.99014813863237</v>
       </c>
       <c r="L56" t="n">
-        <v>-22.39449651135405</v>
+        <v>-22.99014813863237</v>
       </c>
       <c r="M56" t="n">
-        <v>-22.39449651135405</v>
+        <v>-22.99014813863237</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>575.0805865343608</v>
+        <v>577.3354210760672</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>594.0270000576331</v>
+        <v>597.2347681972686</v>
       </c>
       <c r="D57" t="n">
-        <v>564.6703021902906</v>
+        <v>566.7277675956933</v>
       </c>
       <c r="E57" t="n">
-        <v>644.1746074396513</v>
+        <v>644.6606009820362</v>
       </c>
       <c r="F57" t="n">
-        <v>594.0270000576331</v>
+        <v>597.2347681972686</v>
       </c>
       <c r="G57" t="n">
-        <v>594.0270000576331</v>
+        <v>597.2347681972686</v>
       </c>
       <c r="H57" t="n">
-        <v>10.44422929478681</v>
+        <v>9.818431055555482</v>
       </c>
       <c r="I57" t="n">
-        <v>10.44422929478681</v>
+        <v>9.818431055555482</v>
       </c>
       <c r="J57" t="n">
-        <v>10.44422929478681</v>
+        <v>9.818431055555482</v>
       </c>
       <c r="K57" t="n">
-        <v>10.44422929478681</v>
+        <v>9.818431055555482</v>
       </c>
       <c r="L57" t="n">
-        <v>10.44422929478681</v>
+        <v>9.818431055555482</v>
       </c>
       <c r="M57" t="n">
-        <v>10.44422929478681</v>
+        <v>9.818431055555482</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>604.47122935242</v>
+        <v>607.0531992528241</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>590.5789170695513</v>
+        <v>594.1439671798378</v>
       </c>
       <c r="D58" t="n">
-        <v>587.5457428690576</v>
+        <v>590.0875854587783</v>
       </c>
       <c r="E58" t="n">
-        <v>663.3105453154794</v>
+        <v>670.0194301017006</v>
       </c>
       <c r="F58" t="n">
-        <v>590.5789170695513</v>
+        <v>594.1439671798378</v>
       </c>
       <c r="G58" t="n">
-        <v>590.5789170695513</v>
+        <v>594.1439671798378</v>
       </c>
       <c r="H58" t="n">
-        <v>34.67408676202141</v>
+        <v>33.90879986825227</v>
       </c>
       <c r="I58" t="n">
-        <v>34.67408676202141</v>
+        <v>33.90879986825227</v>
       </c>
       <c r="J58" t="n">
-        <v>34.67408676202141</v>
+        <v>33.90879986825227</v>
       </c>
       <c r="K58" t="n">
-        <v>34.67408676202141</v>
+        <v>33.90879986825227</v>
       </c>
       <c r="L58" t="n">
-        <v>34.67408676202141</v>
+        <v>33.90879986825227</v>
       </c>
       <c r="M58" t="n">
-        <v>34.67408676202141</v>
+        <v>33.90879986825227</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>625.2530038315726</v>
+        <v>628.05276704809</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>587.2420625649561</v>
+        <v>591.1528694210338</v>
       </c>
       <c r="D59" t="n">
-        <v>562.7980875986341</v>
+        <v>565.2970008318307</v>
       </c>
       <c r="E59" t="n">
-        <v>637.6361055655487</v>
+        <v>642.2665666944888</v>
       </c>
       <c r="F59" t="n">
-        <v>587.2420625649561</v>
+        <v>591.1528694210338</v>
       </c>
       <c r="G59" t="n">
-        <v>587.2420625649561</v>
+        <v>591.1528694210338</v>
       </c>
       <c r="H59" t="n">
-        <v>14.09672234412607</v>
+        <v>13.1625678487073</v>
       </c>
       <c r="I59" t="n">
-        <v>14.09672234412607</v>
+        <v>13.1625678487073</v>
       </c>
       <c r="J59" t="n">
-        <v>14.09672234412607</v>
+        <v>13.1625678487073</v>
       </c>
       <c r="K59" t="n">
-        <v>14.09672234412607</v>
+        <v>13.1625678487073</v>
       </c>
       <c r="L59" t="n">
-        <v>14.09672234412607</v>
+        <v>13.1625678487073</v>
       </c>
       <c r="M59" t="n">
-        <v>14.09672234412607</v>
+        <v>13.1625678487073</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>601.3387849090822</v>
+        <v>604.3154372697411</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>583.7939795768743</v>
+        <v>588.0620684036028</v>
       </c>
       <c r="D60" t="n">
-        <v>539.7320647395585</v>
+        <v>542.2212296894197</v>
       </c>
       <c r="E60" t="n">
-        <v>616.6771778274993</v>
+        <v>619.7481469120016</v>
       </c>
       <c r="F60" t="n">
-        <v>583.7939795768743</v>
+        <v>588.0620684036028</v>
       </c>
       <c r="G60" t="n">
-        <v>583.7939795768743</v>
+        <v>588.0620684036028</v>
       </c>
       <c r="H60" t="n">
-        <v>-6.229347475318433</v>
+        <v>-7.374018195242179</v>
       </c>
       <c r="I60" t="n">
-        <v>-6.229347475318433</v>
+        <v>-7.374018195242179</v>
       </c>
       <c r="J60" t="n">
-        <v>-6.229347475318433</v>
+        <v>-7.374018195242179</v>
       </c>
       <c r="K60" t="n">
-        <v>-6.229347475318433</v>
+        <v>-7.374018195242179</v>
       </c>
       <c r="L60" t="n">
-        <v>-6.229347475318433</v>
+        <v>-7.374018195242179</v>
       </c>
       <c r="M60" t="n">
-        <v>-6.229347475318433</v>
+        <v>-7.374018195242179</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>577.564632101556</v>
+        <v>580.6880502083606</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>580.4571250722792</v>
+        <v>585.0709706447989</v>
       </c>
       <c r="D61" t="n">
-        <v>537.1303238986507</v>
+        <v>542.7970415703998</v>
       </c>
       <c r="E61" t="n">
-        <v>615.6765962397349</v>
+        <v>621.2394933416465</v>
       </c>
       <c r="F61" t="n">
-        <v>580.4571250722792</v>
+        <v>585.0709706447989</v>
       </c>
       <c r="G61" t="n">
-        <v>580.4571250722792</v>
+        <v>585.0709706447989</v>
       </c>
       <c r="H61" t="n">
-        <v>-2.108913000731076</v>
+        <v>-3.448473472971421</v>
       </c>
       <c r="I61" t="n">
-        <v>-2.108913000731076</v>
+        <v>-3.448473472971421</v>
       </c>
       <c r="J61" t="n">
-        <v>-2.108913000731076</v>
+        <v>-3.448473472971421</v>
       </c>
       <c r="K61" t="n">
-        <v>-2.108913000731076</v>
+        <v>-3.448473472971421</v>
       </c>
       <c r="L61" t="n">
-        <v>-2.108913000731076</v>
+        <v>-3.448473472971421</v>
       </c>
       <c r="M61" t="n">
-        <v>-2.108913000731076</v>
+        <v>-3.448473472971421</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>578.3482120715481</v>
+        <v>581.6224971718275</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>577.0090420841973</v>
+        <v>581.9801696273679</v>
       </c>
       <c r="D62" t="n">
-        <v>565.8893218585885</v>
+        <v>566.7132818600755</v>
       </c>
       <c r="E62" t="n">
-        <v>640.8407053456823</v>
+        <v>646.4433333593673</v>
       </c>
       <c r="F62" t="n">
-        <v>577.0090420841973</v>
+        <v>581.9801696273679</v>
       </c>
       <c r="G62" t="n">
-        <v>577.0090420841973</v>
+        <v>581.9801696273679</v>
       </c>
       <c r="H62" t="n">
-        <v>26.17096473154231</v>
+        <v>24.68373080285622</v>
       </c>
       <c r="I62" t="n">
-        <v>26.17096473154231</v>
+        <v>24.68373080285622</v>
       </c>
       <c r="J62" t="n">
-        <v>26.17096473154231</v>
+        <v>24.68373080285622</v>
       </c>
       <c r="K62" t="n">
-        <v>26.17096473154231</v>
+        <v>24.68373080285622</v>
       </c>
       <c r="L62" t="n">
-        <v>26.17096473154231</v>
+        <v>24.68373080285622</v>
       </c>
       <c r="M62" t="n">
-        <v>26.17096473154231</v>
+        <v>24.68373080285622</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>603.1800068157396</v>
+        <v>606.6639004302241</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>573.5609590961155</v>
+        <v>578.889368609937</v>
       </c>
       <c r="D63" t="n">
-        <v>554.5170978420422</v>
+        <v>556.6289921484037</v>
       </c>
       <c r="E63" t="n">
-        <v>632.2562780624995</v>
+        <v>639.6300319923263</v>
       </c>
       <c r="F63" t="n">
-        <v>573.5609590961155</v>
+        <v>578.889368609937</v>
       </c>
       <c r="G63" t="n">
-        <v>573.5609590961155</v>
+        <v>578.889368609937</v>
       </c>
       <c r="H63" t="n">
-        <v>20.78561520865821</v>
+        <v>19.21683653885173</v>
       </c>
       <c r="I63" t="n">
-        <v>20.78561520865821</v>
+        <v>19.21683653885173</v>
       </c>
       <c r="J63" t="n">
-        <v>20.78561520865821</v>
+        <v>19.21683653885173</v>
       </c>
       <c r="K63" t="n">
-        <v>20.78561520865821</v>
+        <v>19.21683653885173</v>
       </c>
       <c r="L63" t="n">
-        <v>20.78561520865821</v>
+        <v>19.21683653885173</v>
       </c>
       <c r="M63" t="n">
-        <v>20.78561520865821</v>
+        <v>19.21683653885173</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>594.3465743047738</v>
+        <v>598.1062051487887</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>570.4465615584934</v>
+        <v>576.0976773683866</v>
       </c>
       <c r="D64" t="n">
-        <v>563.438460978679</v>
+        <v>569.9043263466588</v>
       </c>
       <c r="E64" t="n">
-        <v>641.6094588482316</v>
+        <v>648.1995425546856</v>
       </c>
       <c r="F64" t="n">
-        <v>570.4465615584934</v>
+        <v>576.0976773683866</v>
       </c>
       <c r="G64" t="n">
-        <v>570.4465615584934</v>
+        <v>576.0976773683866</v>
       </c>
       <c r="H64" t="n">
-        <v>33.20048977715852</v>
+        <v>31.28765059532239</v>
       </c>
       <c r="I64" t="n">
-        <v>33.20048977715852</v>
+        <v>31.28765059532239</v>
       </c>
       <c r="J64" t="n">
-        <v>33.20048977715852</v>
+        <v>31.28765059532239</v>
       </c>
       <c r="K64" t="n">
-        <v>33.20048977715852</v>
+        <v>31.28765059532239</v>
       </c>
       <c r="L64" t="n">
-        <v>33.20048977715852</v>
+        <v>31.28765059532239</v>
       </c>
       <c r="M64" t="n">
-        <v>33.20048977715852</v>
+        <v>31.28765059532239</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>603.6470513356519</v>
+        <v>607.385327963709</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>566.9984785704115</v>
+        <v>573.0068763509557</v>
       </c>
       <c r="D65" t="n">
-        <v>544.9880348024362</v>
+        <v>550.4013989768428</v>
       </c>
       <c r="E65" t="n">
-        <v>623.7385165255341</v>
+        <v>627.5494807765238</v>
       </c>
       <c r="F65" t="n">
-        <v>566.9984785704115</v>
+        <v>573.0068763509557</v>
       </c>
       <c r="G65" t="n">
-        <v>566.9984785704115</v>
+        <v>573.0068763509557</v>
       </c>
       <c r="H65" t="n">
-        <v>17.71102787591974</v>
+        <v>15.7194480826875</v>
       </c>
       <c r="I65" t="n">
-        <v>17.71102787591974</v>
+        <v>15.7194480826875</v>
       </c>
       <c r="J65" t="n">
-        <v>17.71102787591974</v>
+        <v>15.7194480826875</v>
       </c>
       <c r="K65" t="n">
-        <v>17.71102787591974</v>
+        <v>15.7194480826875</v>
       </c>
       <c r="L65" t="n">
-        <v>17.71102787591974</v>
+        <v>15.7194480826875</v>
       </c>
       <c r="M65" t="n">
-        <v>17.71102787591974</v>
+        <v>15.7194480826875</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>584.7095064463313</v>
+        <v>588.7263244336432</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>563.6616240658163</v>
+        <v>570.0157785921517</v>
       </c>
       <c r="D66" t="n">
-        <v>519.334999553492</v>
+        <v>522.3981213624264</v>
       </c>
       <c r="E66" t="n">
-        <v>596.9212111026393</v>
+        <v>598.6647768362716</v>
       </c>
       <c r="F66" t="n">
-        <v>563.6616240658163</v>
+        <v>570.0157785921517</v>
       </c>
       <c r="G66" t="n">
-        <v>563.6616240658163</v>
+        <v>570.0157785921517</v>
       </c>
       <c r="H66" t="n">
-        <v>-6.269523688409061</v>
+        <v>-8.387641174271883</v>
       </c>
       <c r="I66" t="n">
-        <v>-6.269523688409061</v>
+        <v>-8.387641174271883</v>
       </c>
       <c r="J66" t="n">
-        <v>-6.269523688409061</v>
+        <v>-8.387641174271883</v>
       </c>
       <c r="K66" t="n">
-        <v>-6.269523688409061</v>
+        <v>-8.387641174271883</v>
       </c>
       <c r="L66" t="n">
-        <v>-6.269523688409061</v>
+        <v>-8.387641174271883</v>
       </c>
       <c r="M66" t="n">
-        <v>-6.269523688409061</v>
+        <v>-8.387641174271883</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>557.3921003774072</v>
+        <v>561.6281374178799</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>560.2135410777345</v>
+        <v>566.9249775747209</v>
       </c>
       <c r="D67" t="n">
-        <v>506.2687437748782</v>
+        <v>516.8128978468623</v>
       </c>
       <c r="E67" t="n">
-        <v>581.6797386057165</v>
+        <v>593.488492628338</v>
       </c>
       <c r="F67" t="n">
-        <v>560.1794256863144</v>
+        <v>566.9249775747209</v>
       </c>
       <c r="G67" t="n">
-        <v>560.2644557241864</v>
+        <v>566.9249775747209</v>
       </c>
       <c r="H67" t="n">
-        <v>-17.91097459883271</v>
+        <v>-11.92000201674433</v>
       </c>
       <c r="I67" t="n">
-        <v>-17.91097459883271</v>
+        <v>-11.92000201674433</v>
       </c>
       <c r="J67" t="n">
-        <v>-17.91097459883271</v>
+        <v>-11.92000201674433</v>
       </c>
       <c r="K67" t="n">
-        <v>-17.91097459883271</v>
+        <v>-11.92000201674433</v>
       </c>
       <c r="L67" t="n">
-        <v>-17.91097459883271</v>
+        <v>-11.92000201674433</v>
       </c>
       <c r="M67" t="n">
-        <v>-17.91097459883271</v>
+        <v>-11.92000201674433</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>542.3025664789018</v>
+        <v>555.0049755579765</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>556.8766865731393</v>
+        <v>563.9338798159167</v>
       </c>
       <c r="D68" t="n">
-        <v>508.921787626397</v>
+        <v>517.2005733144647</v>
       </c>
       <c r="E68" t="n">
-        <v>587.9340207209044</v>
+        <v>594.8274668784654</v>
       </c>
       <c r="F68" t="n">
-        <v>556.6699238373053</v>
+        <v>563.9095523811282</v>
       </c>
       <c r="G68" t="n">
-        <v>557.1318058974592</v>
+        <v>563.9831954611651</v>
       </c>
       <c r="H68" t="n">
-        <v>-8.799807722933215</v>
+        <v>-9.916069187755291</v>
       </c>
       <c r="I68" t="n">
-        <v>-8.799807722933215</v>
+        <v>-9.916069187755291</v>
       </c>
       <c r="J68" t="n">
-        <v>-8.799807722933215</v>
+        <v>-9.916069187755291</v>
       </c>
       <c r="K68" t="n">
-        <v>-8.799807722933215</v>
+        <v>-9.916069187755291</v>
       </c>
       <c r="L68" t="n">
-        <v>-8.799807722933215</v>
+        <v>-9.916069187755291</v>
       </c>
       <c r="M68" t="n">
-        <v>-8.799807722933215</v>
+        <v>-9.916069187755291</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>548.0768788502061</v>
+        <v>554.0178106281614</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>553.4286035850575</v>
+        <v>560.8430787984859</v>
       </c>
       <c r="D69" t="n">
-        <v>518.3140283955729</v>
+        <v>525.3427518374896</v>
       </c>
       <c r="E69" t="n">
-        <v>598.8139015206548</v>
+        <v>604.2259626923699</v>
       </c>
       <c r="F69" t="n">
-        <v>552.8901744682906</v>
+        <v>560.6328030383221</v>
       </c>
       <c r="G69" t="n">
-        <v>554.0069965454704</v>
+        <v>561.0919348628828</v>
       </c>
       <c r="H69" t="n">
-        <v>3.762701884361309</v>
+        <v>2.662138667474015</v>
       </c>
       <c r="I69" t="n">
-        <v>3.762701884361309</v>
+        <v>2.662138667474015</v>
       </c>
       <c r="J69" t="n">
-        <v>3.762701884361309</v>
+        <v>2.662138667474015</v>
       </c>
       <c r="K69" t="n">
-        <v>3.762701884361309</v>
+        <v>2.662138667474015</v>
       </c>
       <c r="L69" t="n">
-        <v>3.762701884361309</v>
+        <v>2.662138667474015</v>
       </c>
       <c r="M69" t="n">
-        <v>3.762701884361309</v>
+        <v>2.662138667474015</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>557.1913054694188</v>
+        <v>563.5052174659598</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>549.9805205969758</v>
+        <v>557.752277781055</v>
       </c>
       <c r="D70" t="n">
-        <v>534.7552830401048</v>
+        <v>540.3034655404581</v>
       </c>
       <c r="E70" t="n">
-        <v>611.7006802326661</v>
+        <v>617.4769362807853</v>
       </c>
       <c r="F70" t="n">
-        <v>549.0290241402671</v>
+        <v>557.2860508120499</v>
       </c>
       <c r="G70" t="n">
-        <v>550.8774338215236</v>
+        <v>558.2417529431006</v>
       </c>
       <c r="H70" t="n">
-        <v>24.27193116369166</v>
+        <v>23.14457443508393</v>
       </c>
       <c r="I70" t="n">
-        <v>24.27193116369166</v>
+        <v>23.14457443508393</v>
       </c>
       <c r="J70" t="n">
-        <v>24.27193116369166</v>
+        <v>23.14457443508393</v>
       </c>
       <c r="K70" t="n">
-        <v>24.27193116369166</v>
+        <v>23.14457443508393</v>
       </c>
       <c r="L70" t="n">
-        <v>24.27193116369166</v>
+        <v>23.14457443508393</v>
       </c>
       <c r="M70" t="n">
-        <v>24.27193116369166</v>
+        <v>23.14457443508393</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>574.2524517606674</v>
+        <v>580.8968522161389</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>546.6436660923805</v>
+        <v>554.7611800222509</v>
       </c>
       <c r="D71" t="n">
-        <v>529.0343590257804</v>
+        <v>536.6872356115714</v>
       </c>
       <c r="E71" t="n">
-        <v>606.0943228115143</v>
+        <v>614.9481397462462</v>
       </c>
       <c r="F71" t="n">
-        <v>545.2884478168821</v>
+        <v>554.0380033614759</v>
       </c>
       <c r="G71" t="n">
-        <v>548.0545058320947</v>
+        <v>555.5932473279939</v>
       </c>
       <c r="H71" t="n">
-        <v>22.30816637511617</v>
+        <v>21.15047378402207</v>
       </c>
       <c r="I71" t="n">
-        <v>22.30816637511617</v>
+        <v>21.15047378402207</v>
       </c>
       <c r="J71" t="n">
-        <v>22.30816637511617</v>
+        <v>21.15047378402207</v>
       </c>
       <c r="K71" t="n">
-        <v>22.30816637511617</v>
+        <v>21.15047378402207</v>
       </c>
       <c r="L71" t="n">
-        <v>22.30816637511617</v>
+        <v>21.15047378402207</v>
       </c>
       <c r="M71" t="n">
-        <v>22.30816637511617</v>
+        <v>21.15047378402207</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>568.9518324674966</v>
+        <v>575.911653806273</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>543.1955831042987</v>
+        <v>551.6703790048201</v>
       </c>
       <c r="D72" t="n">
-        <v>500.2194881047268</v>
+        <v>508.7304869809025</v>
       </c>
       <c r="E72" t="n">
-        <v>579.3567514133398</v>
+        <v>585.4712151585115</v>
       </c>
       <c r="F72" t="n">
-        <v>541.4334168273995</v>
+        <v>550.5850820383486</v>
       </c>
       <c r="G72" t="n">
-        <v>545.0483391367089</v>
+        <v>552.8731912883583</v>
       </c>
       <c r="H72" t="n">
-        <v>-2.621886249684957</v>
+        <v>-3.758276931430268</v>
       </c>
       <c r="I72" t="n">
-        <v>-2.621886249684957</v>
+        <v>-3.758276931430268</v>
       </c>
       <c r="J72" t="n">
-        <v>-2.621886249684957</v>
+        <v>-3.758276931430268</v>
       </c>
       <c r="K72" t="n">
-        <v>-2.621886249684957</v>
+        <v>-3.758276931430268</v>
       </c>
       <c r="L72" t="n">
-        <v>-2.621886249684957</v>
+        <v>-3.758276931430268</v>
       </c>
       <c r="M72" t="n">
-        <v>-2.621886249684957</v>
+        <v>-3.758276931430268</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>540.5736968546138</v>
+        <v>547.9121020733899</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>539.8587285997035</v>
+        <v>548.679281246016</v>
       </c>
       <c r="D73" t="n">
-        <v>496.4868479808637</v>
+        <v>506.5925440628669</v>
       </c>
       <c r="E73" t="n">
-        <v>574.8876625314201</v>
+        <v>584.9849515862757</v>
       </c>
       <c r="F73" t="n">
-        <v>537.6547065709989</v>
+        <v>547.184453238319</v>
       </c>
       <c r="G73" t="n">
-        <v>542.2473930578334</v>
+        <v>550.253608371351</v>
       </c>
       <c r="H73" t="n">
-        <v>-1.715985173902522</v>
+        <v>-2.799963492691124</v>
       </c>
       <c r="I73" t="n">
-        <v>-1.715985173902522</v>
+        <v>-2.799963492691124</v>
       </c>
       <c r="J73" t="n">
-        <v>-1.715985173902522</v>
+        <v>-2.799963492691124</v>
       </c>
       <c r="K73" t="n">
-        <v>-1.715985173902522</v>
+        <v>-2.799963492691124</v>
       </c>
       <c r="L73" t="n">
-        <v>-1.715985173902522</v>
+        <v>-2.799963492691124</v>
       </c>
       <c r="M73" t="n">
-        <v>-1.715985173902522</v>
+        <v>-2.799963492691124</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>538.142743425801</v>
+        <v>545.8793177533248</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>536.4106456116217</v>
+        <v>545.5884802285851</v>
       </c>
       <c r="D74" t="n">
-        <v>518.8439878482817</v>
+        <v>523.5970604651686</v>
       </c>
       <c r="E74" t="n">
-        <v>595.3932111768444</v>
+        <v>604.0722545175472</v>
       </c>
       <c r="F74" t="n">
-        <v>533.7603051257848</v>
+        <v>543.6011077375554</v>
       </c>
       <c r="G74" t="n">
-        <v>539.2704136814878</v>
+        <v>547.5574304430331</v>
       </c>
       <c r="H74" t="n">
-        <v>19.74515901896049</v>
+        <v>18.72053608847601</v>
       </c>
       <c r="I74" t="n">
-        <v>19.74515901896049</v>
+        <v>18.72053608847601</v>
       </c>
       <c r="J74" t="n">
-        <v>19.74515901896049</v>
+        <v>18.72053608847601</v>
       </c>
       <c r="K74" t="n">
-        <v>19.74515901896049</v>
+        <v>18.72053608847601</v>
       </c>
       <c r="L74" t="n">
-        <v>19.74515901896049</v>
+        <v>18.72053608847601</v>
       </c>
       <c r="M74" t="n">
-        <v>19.74515901896049</v>
+        <v>18.72053608847601</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>556.1558046305822</v>
+        <v>564.3090163170612</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>532.96256262354</v>
+        <v>542.4976792111543</v>
       </c>
       <c r="D75" t="n">
-        <v>510.7014073109985</v>
+        <v>517.6391387947064</v>
       </c>
       <c r="E75" t="n">
-        <v>589.0938944510991</v>
+        <v>594.6259661427019</v>
       </c>
       <c r="F75" t="n">
-        <v>529.7177085973409</v>
+        <v>540.0787124094213</v>
       </c>
       <c r="G75" t="n">
-        <v>536.3852503941824</v>
+        <v>545.0010527379609</v>
       </c>
       <c r="H75" t="n">
-        <v>16.65650618106435</v>
+        <v>15.64833307806117</v>
       </c>
       <c r="I75" t="n">
-        <v>16.65650618106435</v>
+        <v>15.64833307806117</v>
       </c>
       <c r="J75" t="n">
-        <v>16.65650618106435</v>
+        <v>15.64833307806117</v>
       </c>
       <c r="K75" t="n">
-        <v>16.65650618106435</v>
+        <v>15.64833307806117</v>
       </c>
       <c r="L75" t="n">
-        <v>16.65650618106435</v>
+        <v>15.64833307806117</v>
       </c>
       <c r="M75" t="n">
-        <v>16.65650618106435</v>
+        <v>15.64833307806117</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>549.6190688046044</v>
+        <v>558.1460122892154</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>529.8481650859177</v>
+        <v>539.7059879696037</v>
       </c>
       <c r="D76" t="n">
-        <v>535.0449455604615</v>
+        <v>541.0631888267917</v>
       </c>
       <c r="E76" t="n">
-        <v>612.6764242663335</v>
+        <v>619.9244840346793</v>
       </c>
       <c r="F76" t="n">
-        <v>526.0910718364947</v>
+        <v>536.7826573253939</v>
       </c>
       <c r="G76" t="n">
-        <v>533.9293384897749</v>
+        <v>542.7371017985569</v>
       </c>
       <c r="H76" t="n">
-        <v>44.63891419712887</v>
+        <v>41.96518667724855</v>
       </c>
       <c r="I76" t="n">
-        <v>44.63891419712887</v>
+        <v>41.96518667724855</v>
       </c>
       <c r="J76" t="n">
-        <v>44.63891419712887</v>
+        <v>41.96518667724855</v>
       </c>
       <c r="K76" t="n">
-        <v>44.63891419712887</v>
+        <v>41.96518667724855</v>
       </c>
       <c r="L76" t="n">
-        <v>44.63891419712887</v>
+        <v>41.96518667724855</v>
       </c>
       <c r="M76" t="n">
-        <v>44.63891419712887</v>
+        <v>41.96518667724855</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>574.4870792830466</v>
+        <v>581.6711746468523</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>526.400082097836</v>
+        <v>536.615186952173</v>
       </c>
       <c r="D77" t="n">
-        <v>498.18035805632</v>
+        <v>507.4929536688909</v>
       </c>
       <c r="E77" t="n">
-        <v>577.0752941382748</v>
+        <v>585.5160570543411</v>
       </c>
       <c r="F77" t="n">
-        <v>522.0203681631821</v>
+        <v>533.2198195731684</v>
       </c>
       <c r="G77" t="n">
-        <v>531.2423043426884</v>
+        <v>540.2426856040458</v>
       </c>
       <c r="H77" t="n">
-        <v>13.20738023516564</v>
+        <v>10.49578253357359</v>
       </c>
       <c r="I77" t="n">
-        <v>13.20738023516564</v>
+        <v>10.49578253357359</v>
       </c>
       <c r="J77" t="n">
-        <v>13.20738023516564</v>
+        <v>10.49578253357359</v>
       </c>
       <c r="K77" t="n">
-        <v>13.20738023516564</v>
+        <v>10.49578253357359</v>
       </c>
       <c r="L77" t="n">
-        <v>13.20738023516564</v>
+        <v>10.49578253357359</v>
       </c>
       <c r="M77" t="n">
-        <v>13.20738023516564</v>
+        <v>10.49578253357359</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>539.6074623330016</v>
+        <v>547.1109694857465</v>
       </c>
     </row>
     <row r="78">
@@ -4555,37 +4555,37 @@
         <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>523.0632275932408</v>
+        <v>533.6240891933688</v>
       </c>
       <c r="D78" t="n">
-        <v>473.2796567033949</v>
+        <v>483.4071289434094</v>
       </c>
       <c r="E78" t="n">
-        <v>552.9357212081916</v>
+        <v>562.3058432128224</v>
       </c>
       <c r="F78" t="n">
-        <v>518.1171050745024</v>
+        <v>529.7298545340011</v>
       </c>
       <c r="G78" t="n">
-        <v>528.5716608850529</v>
+        <v>537.8211549028388</v>
       </c>
       <c r="H78" t="n">
-        <v>-10.24108585580923</v>
+        <v>-13.08826720424512</v>
       </c>
       <c r="I78" t="n">
-        <v>-10.24108585580923</v>
+        <v>-13.08826720424512</v>
       </c>
       <c r="J78" t="n">
-        <v>-10.24108585580923</v>
+        <v>-13.08826720424512</v>
       </c>
       <c r="K78" t="n">
-        <v>-10.24108585580923</v>
+        <v>-13.08826720424512</v>
       </c>
       <c r="L78" t="n">
-        <v>-10.24108585580923</v>
+        <v>-13.08826720424512</v>
       </c>
       <c r="M78" t="n">
-        <v>-10.24108585580923</v>
+        <v>-13.08826720424512</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>512.8221417374315</v>
+        <v>520.5358219891237</v>
       </c>
     </row>
     <row r="79">
@@ -4608,37 +4608,37 @@
         <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>519.615144605159</v>
+        <v>530.533288175938</v>
       </c>
       <c r="D79" t="n">
-        <v>459.3313195820875</v>
+        <v>478.6131554584568</v>
       </c>
       <c r="E79" t="n">
-        <v>539.1034050294654</v>
+        <v>559.3776051409683</v>
       </c>
       <c r="F79" t="n">
-        <v>514.0788133078082</v>
+        <v>525.9628425734994</v>
       </c>
       <c r="G79" t="n">
-        <v>525.8217893985511</v>
+        <v>535.3513617590498</v>
       </c>
       <c r="H79" t="n">
-        <v>-20.37775774317783</v>
+        <v>-11.77317591294988</v>
       </c>
       <c r="I79" t="n">
-        <v>-20.37775774317783</v>
+        <v>-11.77317591294988</v>
       </c>
       <c r="J79" t="n">
-        <v>-20.37775774317783</v>
+        <v>-11.77317591294988</v>
       </c>
       <c r="K79" t="n">
-        <v>-20.37775774317783</v>
+        <v>-11.77317591294988</v>
       </c>
       <c r="L79" t="n">
-        <v>-20.37775774317783</v>
+        <v>-11.77317591294988</v>
       </c>
       <c r="M79" t="n">
-        <v>-20.37775774317783</v>
+        <v>-11.77317591294988</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>499.2373868619812</v>
+        <v>518.7601122629881</v>
       </c>
     </row>
     <row r="80">
@@ -4661,37 +4661,37 @@
         <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>516.2782901005637</v>
+        <v>527.5421904171338</v>
       </c>
       <c r="D80" t="n">
-        <v>480.0756469263244</v>
+        <v>495.2414846875159</v>
       </c>
       <c r="E80" t="n">
-        <v>557.2013254524212</v>
+        <v>571.2330626543302</v>
       </c>
       <c r="F80" t="n">
-        <v>510.0416162362732</v>
+        <v>522.2281573924679</v>
       </c>
       <c r="G80" t="n">
-        <v>523.1658407025675</v>
+        <v>533.2527550775974</v>
       </c>
       <c r="H80" t="n">
-        <v>4.708435535106395</v>
+        <v>3.030318610179827</v>
       </c>
       <c r="I80" t="n">
-        <v>4.708435535106395</v>
+        <v>3.030318610179827</v>
       </c>
       <c r="J80" t="n">
-        <v>4.708435535106395</v>
+        <v>3.030318610179827</v>
       </c>
       <c r="K80" t="n">
-        <v>4.708435535106395</v>
+        <v>3.030318610179827</v>
       </c>
       <c r="L80" t="n">
-        <v>4.708435535106395</v>
+        <v>3.030318610179827</v>
       </c>
       <c r="M80" t="n">
-        <v>4.708435535106395</v>
+        <v>3.030318610179827</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>520.9867256356702</v>
+        <v>530.5725090273137</v>
       </c>
     </row>
     <row r="81">
@@ -4714,37 +4714,37 @@
         <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>512.830207112482</v>
+        <v>524.451389399703</v>
       </c>
       <c r="D81" t="n">
-        <v>469.7749360830367</v>
+        <v>480.8666957750758</v>
       </c>
       <c r="E81" t="n">
-        <v>549.9919412662096</v>
+        <v>557.3135396312853</v>
       </c>
       <c r="F81" t="n">
-        <v>505.9978290676654</v>
+        <v>518.4328258592051</v>
       </c>
       <c r="G81" t="n">
-        <v>520.3609269201806</v>
+        <v>530.8613223865907</v>
       </c>
       <c r="H81" t="n">
-        <v>-3.200563803853565</v>
+        <v>-4.787224984393515</v>
       </c>
       <c r="I81" t="n">
-        <v>-3.200563803853565</v>
+        <v>-4.787224984393515</v>
       </c>
       <c r="J81" t="n">
-        <v>-3.200563803853565</v>
+        <v>-4.787224984393515</v>
       </c>
       <c r="K81" t="n">
-        <v>-3.200563803853565</v>
+        <v>-4.787224984393515</v>
       </c>
       <c r="L81" t="n">
-        <v>-3.200563803853565</v>
+        <v>-4.787224984393515</v>
       </c>
       <c r="M81" t="n">
-        <v>-3.200563803853565</v>
+        <v>-4.787224984393515</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>509.6296433086284</v>
+        <v>519.6641644153094</v>
       </c>
     </row>
     <row r="82">
@@ -4767,37 +4767,37 @@
         <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>509.3821241244003</v>
+        <v>521.3605883822722</v>
       </c>
       <c r="D82" t="n">
-        <v>483.3453885840253</v>
+        <v>495.5078650249491</v>
       </c>
       <c r="E82" t="n">
-        <v>561.882535094264</v>
+        <v>576.1115250664039</v>
       </c>
       <c r="F82" t="n">
-        <v>501.8498429041477</v>
+        <v>514.7351504013275</v>
       </c>
       <c r="G82" t="n">
-        <v>517.7065185050957</v>
+        <v>528.4152334756171</v>
       </c>
       <c r="H82" t="n">
-        <v>14.02100089456555</v>
+        <v>12.53322558575912</v>
       </c>
       <c r="I82" t="n">
-        <v>14.02100089456555</v>
+        <v>12.53322558575912</v>
       </c>
       <c r="J82" t="n">
-        <v>14.02100089456555</v>
+        <v>12.53322558575912</v>
       </c>
       <c r="K82" t="n">
-        <v>14.02100089456555</v>
+        <v>12.53322558575912</v>
       </c>
       <c r="L82" t="n">
-        <v>14.02100089456555</v>
+        <v>12.53322558575912</v>
       </c>
       <c r="M82" t="n">
-        <v>14.02100089456555</v>
+        <v>12.53322558575912</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>523.4031250189659</v>
+        <v>533.8938139680314</v>
       </c>
     </row>
     <row r="83">
@@ -4820,37 +4820,37 @@
         <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>506.045269619805</v>
+        <v>518.3694906234681</v>
       </c>
       <c r="D83" t="n">
-        <v>497.9822886917696</v>
+        <v>509.4991209132399</v>
       </c>
       <c r="E83" t="n">
-        <v>577.2060857475212</v>
+        <v>588.7148803782262</v>
       </c>
       <c r="F83" t="n">
-        <v>497.7190234343924</v>
+        <v>511.0989753697025</v>
       </c>
       <c r="G83" t="n">
-        <v>515.1118760974412</v>
+        <v>526.2666158775605</v>
       </c>
       <c r="H83" t="n">
-        <v>30.70798757433421</v>
+        <v>29.33755958737795</v>
       </c>
       <c r="I83" t="n">
-        <v>30.70798757433421</v>
+        <v>29.33755958737795</v>
       </c>
       <c r="J83" t="n">
-        <v>30.70798757433421</v>
+        <v>29.33755958737795</v>
       </c>
       <c r="K83" t="n">
-        <v>30.70798757433421</v>
+        <v>29.33755958737795</v>
       </c>
       <c r="L83" t="n">
-        <v>30.70798757433421</v>
+        <v>29.33755958737795</v>
       </c>
       <c r="M83" t="n">
-        <v>30.70798757433421</v>
+        <v>29.33755958737795</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,7 +4862,60 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>536.7532571941392</v>
+        <v>547.7070502108461</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C84" t="n">
+        <v>515.2786896060372</v>
+      </c>
+      <c r="D84" t="n">
+        <v>475.4198624530588</v>
+      </c>
+      <c r="E84" t="n">
+        <v>554.8027021590361</v>
+      </c>
+      <c r="F84" t="n">
+        <v>507.4218431290607</v>
+      </c>
+      <c r="G84" t="n">
+        <v>523.7595168423334</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-0.2087683151063928</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.2087683151063928</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.2087683151063928</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.2087683151063928</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-0.2087683151063928</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-0.2087683151063928</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>515.0699212909309</v>
       </c>
     </row>
   </sheetData>
